--- a/forms/contact/house_hold-edit.xlsx
+++ b/forms/contact/house_hold-edit.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Community Testing Forms\config-covid-community-testing-master_Aug 24 2022\forms\contact\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Communty Testing Bodaboda_CHV Test Server_Server 3\community-testing-config-test\forms\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="76">
   <si>
     <t>Required</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>Edit House Hold</t>
+  </si>
+  <si>
+    <t>health_insurance_cover_other</t>
   </si>
 </sst>
 </file>
@@ -621,7 +624,7 @@
   <dimension ref="A1:X995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1088,8 +1091,12 @@
       <c r="X13" s="12"/>
     </row>
     <row r="14" spans="1:24" ht="13.2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
+      <c r="A14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="C14" s="11" t="s">
         <v>29</v>
       </c>
@@ -26673,13 +26680,13 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -26835,7 +26842,7 @@
         <v>26</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>72</v>
@@ -27009,7 +27016,7 @@
       </c>
       <c r="C2" s="19" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-08-30 15-48</v>
+        <v>2022-09-08 15-01</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>43</v>

--- a/forms/contact/house_hold-edit.xlsx
+++ b/forms/contact/house_hold-edit.xlsx
@@ -258,7 +258,7 @@
     <t>Edit House Hold</t>
   </si>
   <si>
-    <t>health_insurance_cover_other</t>
+    <t>other_health_insurance_cover</t>
   </si>
 </sst>
 </file>
@@ -624,13 +624,13 @@
   <dimension ref="A1:X995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="67.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="96.33203125" bestFit="1" customWidth="1"/>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="14" spans="1:24" ht="13.2">
       <c r="A14" s="11" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>75</v>
@@ -26686,7 +26686,7 @@
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -26842,7 +26842,7 @@
         <v>26</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>72</v>
@@ -27016,7 +27016,7 @@
       </c>
       <c r="C2" s="19" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-09-08 15-01</v>
+        <v>2022-09-08 15-38</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>43</v>

--- a/forms/contact/house_hold-edit.xlsx
+++ b/forms/contact/house_hold-edit.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="85">
   <si>
     <t>Required</t>
   </si>
@@ -259,6 +259,33 @@
   </si>
   <si>
     <t>other_health_insurance_cover</t>
+  </si>
+  <si>
+    <t>select_one house_member</t>
+  </si>
+  <si>
+    <t>select_one register_house_member</t>
+  </si>
+  <si>
+    <t>Select_one health_insurance</t>
+  </si>
+  <si>
+    <t>Select_one health_insurance_cover</t>
+  </si>
+  <si>
+    <t>Select_one latrine</t>
+  </si>
+  <si>
+    <t>Select_one handwashing_basin</t>
+  </si>
+  <si>
+    <t>Select_one safe_water</t>
+  </si>
+  <si>
+    <t>Select_one treated_water</t>
+  </si>
+  <si>
+    <t>Select_one refuse_disposal</t>
   </si>
 </sst>
 </file>
@@ -624,12 +651,12 @@
   <dimension ref="A1:X995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.77734375" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="67.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
@@ -918,7 +945,7 @@
     </row>
     <row r="9" spans="1:24" ht="13.2">
       <c r="A9" s="4" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>61</v>
@@ -954,7 +981,7 @@
     </row>
     <row r="10" spans="1:24" ht="13.2">
       <c r="A10" s="7" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>60</v>
@@ -1022,7 +1049,7 @@
     </row>
     <row r="12" spans="1:24" ht="13.2">
       <c r="A12" s="11" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>62</v>
@@ -1056,7 +1083,7 @@
     </row>
     <row r="13" spans="1:24" ht="13.2">
       <c r="A13" s="11" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>63</v>
@@ -1126,7 +1153,7 @@
     </row>
     <row r="15" spans="1:24" ht="13.2">
       <c r="A15" s="11" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>64</v>
@@ -1160,7 +1187,7 @@
     </row>
     <row r="16" spans="1:24" ht="13.2">
       <c r="A16" s="11" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>65</v>
@@ -1194,7 +1221,7 @@
     </row>
     <row r="17" spans="1:24" ht="13.2">
       <c r="A17" s="11" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>66</v>
@@ -1228,7 +1255,7 @@
     </row>
     <row r="18" spans="1:24" ht="13.2">
       <c r="A18" s="11" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>67</v>
@@ -1262,7 +1289,7 @@
     </row>
     <row r="19" spans="1:24" ht="13.2">
       <c r="A19" s="11" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>68</v>
@@ -27016,7 +27043,7 @@
       </c>
       <c r="C2" s="19" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-09-08 15-38</v>
+        <v>2022-09-08 15-53</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>43</v>

--- a/forms/contact/house_hold-edit.xlsx
+++ b/forms/contact/house_hold-edit.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="77">
   <si>
     <t>Required</t>
   </si>
@@ -261,31 +261,7 @@
     <t>other_health_insurance_cover</t>
   </si>
   <si>
-    <t>select_one house_member</t>
-  </si>
-  <si>
-    <t>select_one register_house_member</t>
-  </si>
-  <si>
-    <t>Select_one health_insurance</t>
-  </si>
-  <si>
-    <t>Select_one health_insurance_cover</t>
-  </si>
-  <si>
-    <t>Select_one latrine</t>
-  </si>
-  <si>
-    <t>Select_one handwashing_basin</t>
-  </si>
-  <si>
-    <t>Select_one safe_water</t>
-  </si>
-  <si>
-    <t>Select_one treated_water</t>
-  </si>
-  <si>
-    <t>Select_one refuse_disposal</t>
+    <t xml:space="preserve">select_one </t>
   </si>
 </sst>
 </file>
@@ -651,12 +627,12 @@
   <dimension ref="A1:X995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.77734375" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="67.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
@@ -981,7 +957,7 @@
     </row>
     <row r="10" spans="1:24" ht="13.2">
       <c r="A10" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>60</v>
@@ -1049,7 +1025,7 @@
     </row>
     <row r="12" spans="1:24" ht="13.2">
       <c r="A12" s="11" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>62</v>
@@ -1083,7 +1059,7 @@
     </row>
     <row r="13" spans="1:24" ht="13.2">
       <c r="A13" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>63</v>
@@ -1153,7 +1129,7 @@
     </row>
     <row r="15" spans="1:24" ht="13.2">
       <c r="A15" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>64</v>
@@ -1187,7 +1163,7 @@
     </row>
     <row r="16" spans="1:24" ht="13.2">
       <c r="A16" s="11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>65</v>
@@ -1221,7 +1197,7 @@
     </row>
     <row r="17" spans="1:24" ht="13.2">
       <c r="A17" s="11" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>66</v>
@@ -1255,7 +1231,7 @@
     </row>
     <row r="18" spans="1:24" ht="13.2">
       <c r="A18" s="11" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>67</v>
@@ -1289,7 +1265,7 @@
     </row>
     <row r="19" spans="1:24" ht="13.2">
       <c r="A19" s="11" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>68</v>
@@ -27043,7 +27019,7 @@
       </c>
       <c r="C2" s="19" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-09-08 15-53</v>
+        <v>2022-09-13 22-02</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>43</v>

--- a/forms/contact/house_hold-edit.xlsx
+++ b/forms/contact/house_hold-edit.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="87">
   <si>
     <t>Required</t>
   </si>
@@ -262,6 +262,36 @@
   </si>
   <si>
     <t xml:space="preserve">select_one </t>
+  </si>
+  <si>
+    <t>select_one gender</t>
+  </si>
+  <si>
+    <t>select_one date_of_birth</t>
+  </si>
+  <si>
+    <t>select_one house_member</t>
+  </si>
+  <si>
+    <t>select_one register_house_member</t>
+  </si>
+  <si>
+    <t>select_one health_insurance</t>
+  </si>
+  <si>
+    <t>select_one health_insurance_cover</t>
+  </si>
+  <si>
+    <t>select_one latrine</t>
+  </si>
+  <si>
+    <t>select_one handwashing_basin</t>
+  </si>
+  <si>
+    <t>select_one safe_water</t>
+  </si>
+  <si>
+    <t>select_one treated_water</t>
   </si>
 </sst>
 </file>
@@ -627,12 +657,12 @@
   <dimension ref="A1:X995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.77734375" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="67.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
@@ -713,7 +743,7 @@
     </row>
     <row r="3" spans="1:24" ht="13.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>52</v>
@@ -747,7 +777,7 @@
     </row>
     <row r="4" spans="1:24" ht="13.2">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>54</v>
@@ -921,7 +951,7 @@
     </row>
     <row r="9" spans="1:24" ht="13.2">
       <c r="A9" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>61</v>
@@ -957,7 +987,7 @@
     </row>
     <row r="10" spans="1:24" ht="13.2">
       <c r="A10" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>60</v>
@@ -1025,7 +1055,7 @@
     </row>
     <row r="12" spans="1:24" ht="13.2">
       <c r="A12" s="11" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>62</v>
@@ -1059,7 +1089,7 @@
     </row>
     <row r="13" spans="1:24" ht="13.2">
       <c r="A13" s="11" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>63</v>
@@ -1129,7 +1159,7 @@
     </row>
     <row r="15" spans="1:24" ht="13.2">
       <c r="A15" s="11" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>64</v>
@@ -1163,7 +1193,7 @@
     </row>
     <row r="16" spans="1:24" ht="13.2">
       <c r="A16" s="11" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>65</v>
@@ -1197,7 +1227,7 @@
     </row>
     <row r="17" spans="1:24" ht="13.2">
       <c r="A17" s="11" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>66</v>
@@ -1231,7 +1261,7 @@
     </row>
     <row r="18" spans="1:24" ht="13.2">
       <c r="A18" s="11" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>67</v>
@@ -27019,7 +27049,7 @@
       </c>
       <c r="C2" s="19" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-09-13 22-02</v>
+        <v>2022-09-13 22-15</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>43</v>

--- a/forms/contact/house_hold-edit.xlsx
+++ b/forms/contact/house_hold-edit.xlsx
@@ -262,20 +262,10 @@
     <t>selected(../health_insurance, 'yes')</t>
   </si>
   <si>
-    <t>${date_of_birth} = 'no'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${date_of_birth} = 'yes'
-</t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
     <t>relevant</t>
-  </si>
-  <si>
-    <t>${health_insurance_cover}='other'</t>
   </si>
   <si>
     <t>begin group</t>
@@ -353,12 +343,6 @@
     <t>Does ${name} know their date of birth?</t>
   </si>
   <si>
-    <t>${knows_dob} = 'yes'</t>
-  </si>
-  <si>
-    <t>${knows_dob} = 'no'</t>
-  </si>
-  <si>
     <t>select_one knows_dob</t>
   </si>
   <si>
@@ -396,6 +380,22 @@
   </si>
   <si>
     <t>contact:house_hold:edit</t>
+  </si>
+  <si>
+    <t>selected(../knows_dob, 'yes')</t>
+  </si>
+  <si>
+    <t>selected(../knows_dob, 'no')</t>
+  </si>
+  <si>
+    <t>selected(../health_insurance, 'other')</t>
+  </si>
+  <si>
+    <t>selected(../date_of_birth, 'no')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(../date_of_birth, 'yes')
+</t>
   </si>
 </sst>
 </file>
@@ -1605,7 +1605,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C42" sqref="C42"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1631,13 +1631,13 @@
         <v>22</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>74</v>
@@ -1665,13 +1665,13 @@
     </row>
     <row r="2" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A2" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
@@ -1698,13 +1698,13 @@
     </row>
     <row r="3" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A3" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
@@ -1731,13 +1731,13 @@
     </row>
     <row r="4" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A4" s="28" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
@@ -1764,13 +1764,13 @@
     </row>
     <row r="5" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A5" s="28" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="6" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A6" s="28" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="7" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A7" s="28" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
@@ -1855,13 +1855,13 @@
     </row>
     <row r="8" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A8" s="35" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="37"/>
@@ -2005,7 +2005,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="F12" s="44"/>
       <c r="G12" s="42"/>
@@ -2042,7 +2042,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="F13" s="44"/>
       <c r="G13" s="40" t="s">
@@ -2141,7 +2141,7 @@
     </row>
     <row r="16" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A16" s="38" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B16" s="38"/>
       <c r="C16" s="38"/>
@@ -2170,13 +2170,13 @@
     </row>
     <row r="17" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A17" s="29" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
@@ -2203,13 +2203,13 @@
     </row>
     <row r="18" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A18" s="32" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
@@ -2239,17 +2239,17 @@
         <v>11</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D19" s="30"/>
       <c r="E19" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G19" s="31"/>
       <c r="H19" s="31"/>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="20" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A20" s="32" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B20" s="32"/>
       <c r="C20" s="32"/>
@@ -2302,13 +2302,13 @@
     </row>
     <row r="21" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A21" s="32" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
@@ -2335,10 +2335,10 @@
     </row>
     <row r="22" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A22" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C22" s="28"/>
       <c r="D22" s="30"/>
@@ -2366,13 +2366,13 @@
     </row>
     <row r="23" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A23" s="32" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B23" s="32" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
@@ -2432,13 +2432,13 @@
     </row>
     <row r="25" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A25" s="32" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
@@ -2477,7 +2477,7 @@
         <v>2</v>
       </c>
       <c r="E26" s="44" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="F26" s="44"/>
       <c r="G26" s="31"/>
@@ -2505,16 +2505,16 @@
         <v>7</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D27" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F27" s="44"/>
       <c r="G27" s="31"/>
@@ -2539,7 +2539,7 @@
     </row>
     <row r="28" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A28" s="33" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="24"/>
@@ -2568,7 +2568,7 @@
     </row>
     <row r="29" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A29" s="33" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="24"/>
@@ -2597,13 +2597,13 @@
     </row>
     <row r="30" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A30" s="33" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
@@ -2636,7 +2636,7 @@
         <v>39</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>2</v>
@@ -2712,7 +2712,7 @@
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="6" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="19"/>
@@ -2914,7 +2914,7 @@
     </row>
     <row r="39" spans="1:25" ht="13.2">
       <c r="A39" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -29882,7 +29882,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>2</v>
@@ -29893,7 +29893,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>9</v>
@@ -29904,7 +29904,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>2</v>
@@ -29915,7 +29915,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B28" s="16" t="s">
         <v>9</v>
@@ -29979,14 +29979,14 @@
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C2" s="14" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-09-21 14-09</v>
+        <v>2022-09-22 15-19</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>20</v>

--- a/forms/contact/house_hold-edit.xlsx
+++ b/forms/contact/house_hold-edit.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="126">
   <si>
     <t xml:space="preserve">Name of Household Head </t>
   </si>
@@ -340,9 +340,6 @@
     <t>Family Members' Information</t>
   </si>
   <si>
-    <t>Does ${name} know their date of birth?</t>
-  </si>
-  <si>
     <t>select_one knows_dob</t>
   </si>
   <si>
@@ -396,6 +393,15 @@
   <si>
     <t xml:space="preserve">selected(../date_of_birth, 'yes')
 </t>
+  </si>
+  <si>
+    <t>hm_name</t>
+  </si>
+  <si>
+    <t>Does ${hm_name} know their date of birth?</t>
+  </si>
+  <si>
+    <t>Family Members</t>
   </si>
 </sst>
 </file>
@@ -1602,10 +1608,10 @@
   <dimension ref="A1:Y1014"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1614,7 +1620,7 @@
     <col min="2" max="2" width="25.77734375" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.109375" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.88671875" bestFit="1" customWidth="1"/>
@@ -1637,7 +1643,7 @@
         <v>80</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>74</v>
@@ -2005,7 +2011,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F12" s="44"/>
       <c r="G12" s="42"/>
@@ -2042,7 +2048,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F13" s="44"/>
       <c r="G13" s="40" t="s">
@@ -2203,7 +2209,7 @@
     </row>
     <row r="18" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A18" s="32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B18" s="32" t="s">
         <v>102</v>
@@ -2246,10 +2252,10 @@
       </c>
       <c r="D19" s="30"/>
       <c r="E19" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G19" s="31"/>
       <c r="H19" s="31"/>
@@ -2340,7 +2346,9 @@
       <c r="B22" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="28"/>
+      <c r="C22" s="32" t="s">
+        <v>125</v>
+      </c>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
@@ -2369,10 +2377,10 @@
         <v>89</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
@@ -2432,13 +2440,13 @@
     </row>
     <row r="25" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A25" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B25" s="32" t="s">
         <v>91</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
@@ -2477,7 +2485,7 @@
         <v>2</v>
       </c>
       <c r="E26" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F26" s="44"/>
       <c r="G26" s="31"/>
@@ -2505,7 +2513,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>92</v>
@@ -2514,7 +2522,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F27" s="44"/>
       <c r="G27" s="31"/>
@@ -2539,7 +2547,7 @@
     </row>
     <row r="28" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A28" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="24"/>
@@ -2600,10 +2608,10 @@
         <v>81</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
@@ -2636,7 +2644,7 @@
         <v>39</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>2</v>
@@ -2712,7 +2720,7 @@
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="19"/>
@@ -29979,14 +29987,14 @@
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C2" s="14" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-09-22 15-19</v>
+        <v>2022-09-22 15-33</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>20</v>

--- a/forms/contact/house_hold-edit.xlsx
+++ b/forms/contact/house_hold-edit.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="128">
   <si>
     <t xml:space="preserve">Name of Household Head </t>
   </si>
@@ -364,9 +364,6 @@
     <t>Family Member Name</t>
   </si>
   <si>
-    <t>selected(../hh_child, 'yes')</t>
-  </si>
-  <si>
     <t>appearance</t>
   </si>
   <si>
@@ -402,6 +399,15 @@
   </si>
   <si>
     <t>Family Members</t>
+  </si>
+  <si>
+    <t>select_one house_member</t>
+  </si>
+  <si>
+    <t>Do you want to register the household members now?</t>
+  </si>
+  <si>
+    <t>selected(../register_house_member, 'yes')</t>
   </si>
 </sst>
 </file>
@@ -705,7 +711,108 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="65">
+  <dxfs count="75">
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFC27BA0"/>
@@ -1605,13 +1712,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y1014"/>
+  <dimension ref="A1:Y1015"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1643,7 +1750,7 @@
         <v>80</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>74</v>
@@ -2011,7 +2118,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F12" s="44"/>
       <c r="G12" s="42"/>
@@ -2048,7 +2155,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F13" s="44"/>
       <c r="G13" s="40" t="s">
@@ -2212,7 +2319,7 @@
         <v>107</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>90</v>
@@ -2241,22 +2348,18 @@
       <c r="Y18" s="26"/>
     </row>
     <row r="19" spans="1:25" s="25" customFormat="1" ht="13.2">
-      <c r="A19" s="28" t="s">
-        <v>11</v>
+      <c r="A19" s="32" t="s">
+        <v>125</v>
       </c>
-      <c r="B19" s="28" t="s">
-        <v>103</v>
+      <c r="B19" s="32" t="s">
+        <v>38</v>
       </c>
-      <c r="C19" s="28" t="s">
-        <v>85</v>
+      <c r="C19" s="32" t="s">
+        <v>126</v>
       </c>
       <c r="D19" s="30"/>
-      <c r="E19" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
       <c r="G19" s="31"/>
       <c r="H19" s="31"/>
       <c r="I19" s="26"/>
@@ -2278,14 +2381,22 @@
       <c r="Y19" s="26"/>
     </row>
     <row r="20" spans="1:25" s="25" customFormat="1" ht="13.2">
-      <c r="A20" s="32" t="s">
-        <v>86</v>
+      <c r="A20" s="28" t="s">
+        <v>11</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
+      <c r="B20" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>85</v>
+      </c>
       <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
+      <c r="E20" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
       <c r="I20" s="26"/>
@@ -2308,14 +2419,10 @@
     </row>
     <row r="21" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A21" s="32" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
-      <c r="B21" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>104</v>
-      </c>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
@@ -2340,14 +2447,14 @@
       <c r="Y21" s="26"/>
     </row>
     <row r="22" spans="1:25" s="25" customFormat="1" ht="13.2">
-      <c r="A22" s="33" t="s">
-        <v>88</v>
+      <c r="A22" s="32" t="s">
+        <v>81</v>
       </c>
-      <c r="B22" s="34" t="s">
-        <v>84</v>
+      <c r="B22" s="32" t="s">
+        <v>87</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
@@ -2373,14 +2480,14 @@
       <c r="Y22" s="26"/>
     </row>
     <row r="23" spans="1:25" s="25" customFormat="1" ht="13.2">
-      <c r="A23" s="32" t="s">
-        <v>89</v>
+      <c r="A23" s="33" t="s">
+        <v>88</v>
       </c>
-      <c r="B23" s="32" t="s">
-        <v>123</v>
+      <c r="B23" s="34" t="s">
+        <v>84</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
@@ -2407,13 +2514,13 @@
     </row>
     <row r="24" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A24" s="32" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
@@ -2440,54 +2547,50 @@
     </row>
     <row r="25" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A25" s="32" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>124</v>
+        <v>3</v>
       </c>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
     </row>
     <row r="26" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A26" s="32" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>4</v>
+        <v>123</v>
       </c>
-      <c r="D26" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F26" s="44"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
       <c r="I26" s="1"/>
@@ -2510,19 +2613,19 @@
     </row>
     <row r="27" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A27" s="32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="D27" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F27" s="44"/>
       <c r="G27" s="31"/>
@@ -2545,17 +2648,25 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" s="12" customFormat="1" ht="13.2">
-      <c r="A28" s="33" t="s">
-        <v>108</v>
+    <row r="28" spans="1:25" s="25" customFormat="1" ht="13.2">
+      <c r="A28" s="32" t="s">
+        <v>7</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
+      <c r="B28" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" s="44"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -2576,7 +2687,7 @@
     </row>
     <row r="29" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A29" s="33" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="24"/>
@@ -2605,14 +2716,10 @@
     </row>
     <row r="30" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A30" s="33" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
-      <c r="B30" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>109</v>
-      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="24"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
@@ -2636,57 +2743,53 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" ht="13.2">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:25" s="12" customFormat="1" ht="13.2">
+      <c r="A31" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+    </row>
+    <row r="32" spans="1:25" ht="13.2">
+      <c r="A32" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B32" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
-    </row>
-    <row r="32" spans="1:25" ht="13.2">
-      <c r="A32" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>78</v>
-      </c>
+      <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="19"/>
       <c r="H32" s="22"/>
@@ -2710,17 +2813,19 @@
     </row>
     <row r="33" spans="1:25" ht="13.2">
       <c r="A33" s="6" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>12</v>
+      <c r="C33" s="5" t="s">
+        <v>72</v>
       </c>
-      <c r="D33" s="8"/>
+      <c r="D33" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="E33" s="6" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="19"/>
@@ -2745,55 +2850,55 @@
     </row>
     <row r="34" spans="1:25" ht="13.2">
       <c r="A34" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+    </row>
+    <row r="35" spans="1:25" ht="13.2">
+      <c r="A35" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-    </row>
-    <row r="35" spans="1:25" ht="13.2">
-      <c r="A35" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="4"/>
+      <c r="E35" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="F35" s="4"/>
       <c r="G35" s="18"/>
       <c r="H35" s="21"/>
@@ -2817,19 +2922,19 @@
     </row>
     <row r="36" spans="1:25" ht="13.2">
       <c r="A36" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>68</v>
+      <c r="C36" s="2" t="s">
+        <v>67</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
       <c r="G36" s="18"/>
       <c r="H36" s="21"/>
       <c r="I36" s="1"/>
@@ -2852,19 +2957,19 @@
     </row>
     <row r="37" spans="1:25" ht="13.2">
       <c r="A37" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>44</v>
+      <c r="B37" s="3" t="s">
+        <v>43</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>69</v>
+      <c r="C37" s="3" t="s">
+        <v>68</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
       <c r="G37" s="18"/>
       <c r="H37" s="21"/>
       <c r="I37" s="1"/>
@@ -2887,19 +2992,19 @@
     </row>
     <row r="38" spans="1:25" ht="13.2">
       <c r="A38" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>45</v>
+      <c r="B38" s="10" t="s">
+        <v>44</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>70</v>
+      <c r="C38" s="9" t="s">
+        <v>69</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
       <c r="G38" s="18"/>
       <c r="H38" s="21"/>
       <c r="I38" s="1"/>
@@ -2921,16 +3026,22 @@
       <c r="Y38" s="1"/>
     </row>
     <row r="39" spans="1:25" ht="13.2">
-      <c r="A39" s="1" t="s">
-        <v>86</v>
+      <c r="A39" s="6" t="s">
+        <v>59</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+      <c r="B39" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="21"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -2950,7 +3061,9 @@
       <c r="Y39" s="1"/>
     </row>
     <row r="40" spans="1:25" ht="13.2">
-      <c r="A40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -29274,330 +29387,407 @@
       <c r="X1014" s="1"/>
       <c r="Y1014" s="1"/>
     </row>
+    <row r="1015" spans="1:25" ht="13.2">
+      <c r="A1015" s="1"/>
+      <c r="B1015" s="1"/>
+      <c r="C1015" s="1"/>
+      <c r="D1015" s="1"/>
+      <c r="E1015" s="1"/>
+      <c r="F1015" s="1"/>
+      <c r="G1015" s="1"/>
+      <c r="H1015" s="1"/>
+      <c r="I1015" s="1"/>
+      <c r="J1015" s="1"/>
+      <c r="K1015" s="1"/>
+      <c r="L1015" s="1"/>
+      <c r="M1015" s="1"/>
+      <c r="N1015" s="1"/>
+      <c r="O1015" s="1"/>
+      <c r="P1015" s="1"/>
+      <c r="Q1015" s="1"/>
+      <c r="R1015" s="1"/>
+      <c r="S1015" s="1"/>
+      <c r="T1015" s="1"/>
+      <c r="U1015" s="1"/>
+      <c r="V1015" s="1"/>
+      <c r="W1015" s="1"/>
+      <c r="X1015" s="1"/>
+      <c r="Y1015" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:C7 A17:C24">
-    <cfRule type="expression" dxfId="64" priority="36">
+  <conditionalFormatting sqref="A2:C7 A17:C18 A20:C25">
+    <cfRule type="expression" dxfId="74" priority="46">
       <formula>AND($A2="begin group", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C7 A17:C17 A24:C24 A20:C20">
-    <cfRule type="expression" dxfId="63" priority="37">
+  <conditionalFormatting sqref="A2:C7 A17:C17 A25:C25 A21:C21">
+    <cfRule type="expression" dxfId="73" priority="47">
       <formula>AND($A2="end group", $B2 = "", $C2 = "", $E2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $N2 = "", $O2 = "", $P2 = "", $R2 = "", $S2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C7 A17:C24">
-    <cfRule type="cellIs" dxfId="62" priority="38" operator="equal">
+  <conditionalFormatting sqref="A2:C7 A17:C18 A20:C25">
+    <cfRule type="cellIs" dxfId="72" priority="48" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B7 B17:B24">
-    <cfRule type="expression" dxfId="61" priority="39">
+  <conditionalFormatting sqref="B2:B7 B17:B18 B20:B25">
+    <cfRule type="expression" dxfId="71" priority="49">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $B2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C7 A17:C24">
-    <cfRule type="expression" dxfId="60" priority="41">
+  <conditionalFormatting sqref="A2:C7 A17:C18 A20:C25">
+    <cfRule type="expression" dxfId="70" priority="51">
       <formula>AND($A2="begin repeat", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C7 A17:C17 A24:C24 A20:C20">
-    <cfRule type="expression" dxfId="59" priority="42">
+  <conditionalFormatting sqref="A2:C7 A17:C17 A25:C25 A21:C21">
+    <cfRule type="expression" dxfId="69" priority="52">
       <formula>AND($A2="end repeat", $B2 = "", $C2 = "", $E2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $N2 = "", $O2 = "", $P2 = "", $R2 = "", $S2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27 A2:A7 A17:A24">
-    <cfRule type="containsText" dxfId="58" priority="46" operator="containsText" text="calculate">
+  <conditionalFormatting sqref="A28 A2:A7 A17:A18 A20:A25">
+    <cfRule type="containsText" dxfId="68" priority="56" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C7 C17:C24">
-    <cfRule type="expression" dxfId="57" priority="47">
+  <conditionalFormatting sqref="C2:C7 C17:C18 C20:C25">
+    <cfRule type="expression" dxfId="67" priority="57">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $C2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A7 A17:A24">
-    <cfRule type="cellIs" dxfId="56" priority="48" operator="equal">
+  <conditionalFormatting sqref="A2:A7 A17:A18 A20:A25">
+    <cfRule type="cellIs" dxfId="66" priority="58" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:C28">
+    <cfRule type="expression" dxfId="65" priority="59">
+      <formula>AND($A28="begin group", NOT($B28 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:C28">
+    <cfRule type="expression" dxfId="64" priority="60">
+      <formula>AND($A28="end group", $B28 = "", $C28 = "", $E28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $N28 = "", $O28 = "", $P28 = "", $R28 = "", $S28 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:C28">
+    <cfRule type="cellIs" dxfId="63" priority="61" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="62" priority="62">
+      <formula>AND(AND(NOT($A28 = "end group"), NOT($A28 = "end repeat"), NOT($A28 = "")), $C28 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="expression" dxfId="61" priority="63">
+      <formula>AND(AND(NOT($A28 = "end group"), NOT($A28 = "end repeat"), NOT($A28 = "")), $B28 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="cellIs" dxfId="60" priority="64" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:C28">
+    <cfRule type="expression" dxfId="59" priority="65">
+      <formula>AND($A28="begin repeat", NOT($B28 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:C28">
+    <cfRule type="expression" dxfId="58" priority="66">
+      <formula>AND($A28="end repeat", $B28 = "", $C28 = "", $E28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $N28 = "", $O28 = "", $P28 = "", $R28 = "", $S28 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:C26">
+    <cfRule type="containsText" dxfId="57" priority="76" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:C26">
+    <cfRule type="expression" dxfId="56" priority="77">
+      <formula>AND($A26="begin group", NOT($B26 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:C26">
+    <cfRule type="expression" dxfId="55" priority="78">
+      <formula>AND($A26="end group", $B26 = "", $C26 = "", $E26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $N26 = "", $O26 = "", $P26 = "", $R26 = "", $S26 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:C26">
+    <cfRule type="cellIs" dxfId="54" priority="79" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:C26">
+    <cfRule type="cellIs" dxfId="53" priority="80" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:C26">
+    <cfRule type="expression" dxfId="52" priority="81">
+      <formula>AND($A26="begin repeat", NOT($B26 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:C26">
+    <cfRule type="expression" dxfId="51" priority="82">
+      <formula>AND($A26="end repeat", $B26 = "", $C26 = "", $E26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $N26 = "", $O26 = "", $P26 = "", $R26 = "", $S26 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27">
+    <cfRule type="containsText" dxfId="50" priority="83" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:C27">
+    <cfRule type="expression" dxfId="49" priority="67">
+      <formula>AND($A27="begin group", NOT($B27 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:C27">
+    <cfRule type="expression" dxfId="48" priority="68">
+      <formula>AND($A27="end group", $B27 = "", $C27 = "", $E27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $N27 = "", $O27 = "", $P27 = "", $R27 = "", $S27 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:C27">
+    <cfRule type="cellIs" dxfId="47" priority="69" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="expression" dxfId="46" priority="70">
+      <formula>AND(AND(NOT($A27 = "end group"), NOT($A27 = "end repeat"), NOT($A27 = "")), $C27 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="expression" dxfId="45" priority="71">
+      <formula>AND(AND(NOT($A27 = "end group"), NOT($A27 = "end repeat"), NOT($A27 = "")), $B27 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27">
+    <cfRule type="cellIs" dxfId="44" priority="72" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="55" priority="49">
-      <formula>AND($A27="begin group", NOT($B27 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="54" priority="50">
-      <formula>AND($A27="end group", $B27 = "", $C27 = "", $E27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $N27 = "", $O27 = "", $P27 = "", $R27 = "", $S27 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:C27">
-    <cfRule type="cellIs" dxfId="53" priority="51" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="52" priority="52">
-      <formula>AND(AND(NOT($A27 = "end group"), NOT($A27 = "end repeat"), NOT($A27 = "")), $C27 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="51" priority="53">
-      <formula>AND(AND(NOT($A27 = "end group"), NOT($A27 = "end repeat"), NOT($A27 = "")), $B27 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27">
-    <cfRule type="cellIs" dxfId="50" priority="54" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="49" priority="55">
+    <cfRule type="expression" dxfId="43" priority="74">
       <formula>AND($A27="begin repeat", NOT($B27 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="48" priority="56">
+    <cfRule type="expression" dxfId="42" priority="75">
       <formula>AND($A27="end repeat", $B27 = "", $C27 = "", $E27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $N27 = "", $O27 = "", $P27 = "", $R27 = "", $S27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25:C25">
-    <cfRule type="containsText" dxfId="47" priority="66" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:C25">
-    <cfRule type="expression" dxfId="46" priority="67">
-      <formula>AND($A25="begin group", NOT($B25 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:C25">
-    <cfRule type="expression" dxfId="45" priority="68">
-      <formula>AND($A25="end group", $B25 = "", $C25 = "", $E25 = "", $I25 = "", $J25 = "", $K25 = "", $L25 = "", $N25 = "", $O25 = "", $P25 = "", $R25 = "", $S25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:C25">
-    <cfRule type="cellIs" dxfId="44" priority="69" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:C25">
-    <cfRule type="cellIs" dxfId="43" priority="70" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:C25">
-    <cfRule type="expression" dxfId="42" priority="71">
-      <formula>AND($A25="begin repeat", NOT($B25 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:C25">
-    <cfRule type="expression" dxfId="41" priority="72">
-      <formula>AND($A25="end repeat", $B25 = "", $C25 = "", $E25 = "", $I25 = "", $J25 = "", $K25 = "", $L25 = "", $N25 = "", $O25 = "", $P25 = "", $R25 = "", $S25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
-    <cfRule type="containsText" dxfId="40" priority="73" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A26))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="39" priority="57">
-      <formula>AND($A26="begin group", NOT($B26 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="38" priority="58">
-      <formula>AND($A26="end group", $B26 = "", $C26 = "", $E26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $N26 = "", $O26 = "", $P26 = "", $R26 = "", $S26 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:C26">
-    <cfRule type="cellIs" dxfId="37" priority="59" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="36" priority="60">
-      <formula>AND(AND(NOT($A26 = "end group"), NOT($A26 = "end repeat"), NOT($A26 = "")), $C26 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26">
-    <cfRule type="expression" dxfId="35" priority="61">
-      <formula>AND(AND(NOT($A26 = "end group"), NOT($A26 = "end repeat"), NOT($A26 = "")), $B26 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="34" priority="62" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="33" priority="64">
-      <formula>AND($A26="begin repeat", NOT($B26 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="32" priority="65">
-      <formula>AND($A26="end repeat", $B26 = "", $C26 = "", $E26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $N26 = "", $O26 = "", $P26 = "", $R26 = "", $S26 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="41" priority="39" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="30" priority="30">
+    <cfRule type="expression" dxfId="40" priority="40">
       <formula>AND($A8="begin group", NOT($B8 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="29" priority="31">
+    <cfRule type="expression" dxfId="39" priority="41">
       <formula>AND($A8="end group", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="27" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="43" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="26" priority="34">
+    <cfRule type="expression" dxfId="36" priority="44">
       <formula>AND($A8="begin repeat", NOT($B8 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="25" priority="35">
+    <cfRule type="expression" dxfId="35" priority="45">
       <formula>AND($A8="end repeat", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="24" priority="22">
+    <cfRule type="expression" dxfId="34" priority="32">
       <formula>AND($A8="begin group", NOT($B8 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="23" priority="23">
+    <cfRule type="expression" dxfId="33" priority="33">
       <formula>AND($A8="end group", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="21" priority="25">
+    <cfRule type="expression" dxfId="31" priority="35">
       <formula>AND(AND(NOT($A8 = "end group"), NOT($A8 = "end repeat"), NOT($A8 = "")), $B8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="20" priority="27">
+    <cfRule type="expression" dxfId="30" priority="37">
       <formula>AND($A8="begin repeat", NOT($B8 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="19" priority="28">
+    <cfRule type="expression" dxfId="29" priority="38">
       <formula>AND($A8="end repeat", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:A29">
-    <cfRule type="expression" dxfId="18" priority="8">
-      <formula>AND($A28="begin group", NOT($B28 = ""))</formula>
+  <conditionalFormatting sqref="A29:A30">
+    <cfRule type="expression" dxfId="28" priority="18">
+      <formula>AND($A29="begin group", NOT($B29 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:A29">
-    <cfRule type="expression" dxfId="17" priority="9">
-      <formula>AND($A28="end group", $B28 = "", $C28 = "", $E28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $N28 = "", $O28 = "", $P28 = "", $R28 = "", $S28 = "")</formula>
+  <conditionalFormatting sqref="A29:A30">
+    <cfRule type="expression" dxfId="27" priority="19">
+      <formula>AND($A29="end group", $B29 = "", $C29 = "", $E29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $N29 = "", $O29 = "", $P29 = "", $R29 = "", $S29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:A29">
-    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
+  <conditionalFormatting sqref="A29:A30">
+    <cfRule type="cellIs" dxfId="26" priority="20" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:A29">
-    <cfRule type="expression" dxfId="15" priority="11">
-      <formula>AND($A28="begin repeat", NOT($B28 = ""))</formula>
+  <conditionalFormatting sqref="A29:A30">
+    <cfRule type="expression" dxfId="25" priority="21">
+      <formula>AND($A29="begin repeat", NOT($B29 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:A29">
-    <cfRule type="expression" dxfId="14" priority="12">
-      <formula>AND($A28="end repeat", $B28 = "", $C28 = "", $E28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $N28 = "", $O28 = "", $P28 = "", $R28 = "", $S28 = "")</formula>
+  <conditionalFormatting sqref="A29:A30">
+    <cfRule type="expression" dxfId="24" priority="22">
+      <formula>AND($A29="end repeat", $B29 = "", $C29 = "", $E29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $N29 = "", $O29 = "", $P29 = "", $R29 = "", $S29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:A29">
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A28))))</formula>
+  <conditionalFormatting sqref="A29:A30">
+    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A29))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="12" priority="183">
-      <formula>COUNTIF($B$2:$B$1095,B8)&gt;1</formula>
+    <cfRule type="expression" dxfId="22" priority="193">
+      <formula>COUNTIF($B$2:$B$1096,B8)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17:B24 B26:B27">
-    <cfRule type="expression" dxfId="11" priority="184">
-      <formula>COUNTIF($B$9:$B$1102,B17)&gt;1</formula>
+  <conditionalFormatting sqref="B17:B18 B27:B28 B20:B25">
+    <cfRule type="expression" dxfId="21" priority="194">
+      <formula>COUNTIF($B$9:$B$1103,B17)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B7">
-    <cfRule type="expression" dxfId="10" priority="187">
-      <formula>COUNTIF($B$2:$B$1094,B2)&gt;1</formula>
+    <cfRule type="expression" dxfId="20" priority="197">
+      <formula>COUNTIF($B$2:$B$1095,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19:C19 A21:C23">
-    <cfRule type="expression" dxfId="9" priority="190">
-      <formula>AND($A19="end group", $B19 = "", $C19 = "", #REF! = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
+  <conditionalFormatting sqref="A20:C20 A22:C24">
+    <cfRule type="expression" dxfId="19" priority="200">
+      <formula>AND($A20="end group", $B20 = "", $C20 = "", #REF! = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $N20 = "", $O20 = "", $P20 = "", $R20 = "", $S20 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19:C19 A21:C23">
-    <cfRule type="expression" dxfId="8" priority="193">
-      <formula>AND($A19="end repeat", $B19 = "", $C19 = "", #REF! = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
+  <conditionalFormatting sqref="A20:C20 A22:C24">
+    <cfRule type="expression" dxfId="18" priority="203">
+      <formula>AND($A20="end repeat", $B20 = "", $C20 = "", #REF! = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $N20 = "", $O20 = "", $P20 = "", $R20 = "", $S20 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="7" priority="1">
-      <formula>AND($A30="begin group", NOT($B30 = ""))</formula>
+  <conditionalFormatting sqref="A31">
+    <cfRule type="expression" dxfId="17" priority="11">
+      <formula>AND($A31="begin group", NOT($B31 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="6" priority="2">
-      <formula>AND($A30="end group", $B30 = "", $C30 = "", $E30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $N30 = "", $O30 = "", $P30 = "", $R30 = "", $S30 = "")</formula>
+  <conditionalFormatting sqref="A31">
+    <cfRule type="expression" dxfId="16" priority="12">
+      <formula>AND($A31="end group", $B31 = "", $C31 = "", $E31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $N31 = "", $O31 = "", $P31 = "", $R31 = "", $S31 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+  <conditionalFormatting sqref="A31">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="4" priority="4">
-      <formula>AND($A30="begin repeat", NOT($B30 = ""))</formula>
+  <conditionalFormatting sqref="A31">
+    <cfRule type="expression" dxfId="14" priority="14">
+      <formula>AND($A31="begin repeat", NOT($B31 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>AND($A30="end repeat", $B30 = "", $C30 = "", $E30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $N30 = "", $O30 = "", $P30 = "", $R30 = "", $S30 = "")</formula>
+  <conditionalFormatting sqref="A31">
+    <cfRule type="expression" dxfId="13" priority="15">
+      <formula>AND($A31="end repeat", $B31 = "", $C31 = "", $E31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $N31 = "", $O31 = "", $P31 = "", $R31 = "", $S31 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A30))))</formula>
+  <conditionalFormatting sqref="A31">
+    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A31))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:C18">
-    <cfRule type="expression" dxfId="1" priority="215">
-      <formula>AND($A18="end group", $B18 = "", $C18 = "", $E19 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $N18 = "", $O18 = "", $P18 = "", $R18 = "", $S18 = "")</formula>
+    <cfRule type="expression" dxfId="11" priority="225">
+      <formula>AND($A18="end group", $B18 = "", $C18 = "", $E20 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $N18 = "", $O18 = "", $P18 = "", $R18 = "", $S18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:C18">
-    <cfRule type="expression" dxfId="0" priority="216">
-      <formula>AND($A18="end repeat", $B18 = "", $C18 = "", $E19 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $N18 = "", $O18 = "", $P18 = "", $R18 = "", $S18 = "")</formula>
+    <cfRule type="expression" dxfId="10" priority="226">
+      <formula>AND($A18="end repeat", $B18 = "", $C18 = "", $E20 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $N18 = "", $O18 = "", $P18 = "", $R18 = "", $S18 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:C19">
+    <cfRule type="expression" dxfId="9" priority="1">
+      <formula>AND($A19="begin group", NOT($B19 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:C19">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>AND(AND(NOT($A19 = "end group"), NOT($A19 = "end repeat"), NOT($A19 = "")), $B19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:C19">
+    <cfRule type="expression" dxfId="6" priority="4">
+      <formula>AND($A19="begin repeat", NOT($B19 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>AND(AND(NOT($A19 = "end group"), NOT($A19 = "end repeat"), NOT($A19 = "")), $C19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="expression" dxfId="2" priority="8">
+      <formula>COUNTIF($B$9:$B$1103,B19)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:C19">
+    <cfRule type="expression" dxfId="1" priority="9">
+      <formula>AND($A19="end group", $B19 = "", $C19 = "", $E21 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:C19">
+    <cfRule type="expression" dxfId="0" priority="10">
+      <formula>AND($A19="end repeat", $B19 = "", $C19 = "", $E21 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29987,14 +30177,14 @@
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C2" s="14" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-09-22 15-33</v>
+        <v>2022-10-03 15-25</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>20</v>

--- a/forms/contact/house_hold-edit.xlsx
+++ b/forms/contact/house_hold-edit.xlsx
@@ -1715,10 +1715,10 @@
   <dimension ref="A1:Y1015"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -30184,7 +30184,7 @@
       </c>
       <c r="C2" s="14" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-03 15-25</v>
+        <v>2022-10-05 16-19</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>20</v>

--- a/forms/contact/house_hold-edit.xlsx
+++ b/forms/contact/house_hold-edit.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="127">
   <si>
     <t xml:space="preserve">Name of Household Head </t>
   </si>
@@ -256,9 +256,6 @@
     <t>constraint_message</t>
   </si>
   <si>
-    <t>selected(../house_member, 'no')</t>
-  </si>
-  <si>
     <t>selected(../health_insurance, 'yes')</t>
   </si>
   <si>
@@ -334,9 +331,6 @@
     <t>hh_child</t>
   </si>
   <si>
-    <t>add_family</t>
-  </si>
-  <si>
     <t>Family Members' Information</t>
   </si>
   <si>
@@ -407,7 +401,10 @@
     <t>Do you want to register the household members now?</t>
   </si>
   <si>
-    <t>selected(../register_house_member, 'yes')</t>
+    <t>selected(../register_house_member, 'no')</t>
+  </si>
+  <si>
+    <t>selected(../house_member, 'yes')</t>
   </si>
 </sst>
 </file>
@@ -711,7 +708,78 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="75">
+  <dxfs count="82">
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFC27BA0"/>
@@ -1715,10 +1783,10 @@
   <dimension ref="A1:Y1015"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1744,13 +1812,13 @@
         <v>22</v>
       </c>
       <c r="D1" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="27" t="s">
-        <v>80</v>
-      </c>
       <c r="F1" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>74</v>
@@ -1778,13 +1846,13 @@
     </row>
     <row r="2" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A2" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
@@ -1811,13 +1879,13 @@
     </row>
     <row r="3" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A3" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
@@ -1844,13 +1912,13 @@
     </row>
     <row r="4" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A4" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
@@ -1877,13 +1945,13 @@
     </row>
     <row r="5" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A5" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
@@ -1910,7 +1978,7 @@
     </row>
     <row r="6" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A6" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
@@ -1939,7 +2007,7 @@
     </row>
     <row r="7" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A7" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
@@ -1968,13 +2036,13 @@
     </row>
     <row r="8" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A8" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="37"/>
@@ -2118,7 +2186,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F12" s="44"/>
       <c r="G12" s="42"/>
@@ -2155,7 +2223,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F13" s="44"/>
       <c r="G13" s="40" t="s">
@@ -2254,7 +2322,7 @@
     </row>
     <row r="16" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A16" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" s="38"/>
       <c r="C16" s="38"/>
@@ -2283,13 +2351,13 @@
     </row>
     <row r="17" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A17" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="C17" s="29" t="s">
         <v>82</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>83</v>
       </c>
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
@@ -2316,13 +2384,13 @@
     </row>
     <row r="18" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A18" s="32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B18" s="32" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
@@ -2349,13 +2417,13 @@
     </row>
     <row r="19" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A19" s="32" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B19" s="32" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
@@ -2384,18 +2452,18 @@
       <c r="A20" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="28" t="s">
-        <v>103</v>
+      <c r="B20" s="30" t="s">
+        <v>37</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D20" s="30"/>
       <c r="E20" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
@@ -2419,7 +2487,7 @@
     </row>
     <row r="21" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A21" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -2448,13 +2516,13 @@
     </row>
     <row r="22" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A22" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
@@ -2481,13 +2549,13 @@
     </row>
     <row r="23" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A23" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
@@ -2514,13 +2582,13 @@
     </row>
     <row r="24" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A24" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
@@ -2580,13 +2648,13 @@
     </row>
     <row r="26" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A26" s="32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
@@ -2625,7 +2693,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F27" s="44"/>
       <c r="G27" s="31"/>
@@ -2653,16 +2721,16 @@
         <v>7</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D28" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="44" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F28" s="44"/>
       <c r="G28" s="31"/>
@@ -2687,7 +2755,7 @@
     </row>
     <row r="29" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A29" s="33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="24"/>
@@ -2716,7 +2784,7 @@
     </row>
     <row r="30" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A30" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="24"/>
@@ -2745,13 +2813,13 @@
     </row>
     <row r="31" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A31" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
@@ -2784,12 +2852,14 @@
         <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="6"/>
+      <c r="E32" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="19"/>
       <c r="H32" s="22"/>
@@ -2825,7 +2895,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="19"/>
@@ -2860,7 +2930,7 @@
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="19"/>
@@ -2896,9 +2966,7 @@
       <c r="D35" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="18"/>
       <c r="H35" s="21"/>
@@ -3062,7 +3130,7 @@
     </row>
     <row r="40" spans="1:25" ht="13.2">
       <c r="A40" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -29415,379 +29483,404 @@
       <c r="Y1015" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:C7 A17:C18 A20:C25">
-    <cfRule type="expression" dxfId="74" priority="46">
+  <conditionalFormatting sqref="A2:C7 A17:C18 A21:C25 A20 C20">
+    <cfRule type="expression" dxfId="81" priority="53">
       <formula>AND($A2="begin group", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C7 A17:C17 A25:C25 A21:C21">
-    <cfRule type="expression" dxfId="73" priority="47">
+    <cfRule type="expression" dxfId="80" priority="54">
       <formula>AND($A2="end group", $B2 = "", $C2 = "", $E2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $N2 = "", $O2 = "", $P2 = "", $R2 = "", $S2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C7 A17:C18 A20:C25">
-    <cfRule type="cellIs" dxfId="72" priority="48" operator="equal">
+  <conditionalFormatting sqref="A2:C7 A17:C18 A21:C25 A20 C20">
+    <cfRule type="cellIs" dxfId="79" priority="55" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B7 B17:B18 B20:B25">
-    <cfRule type="expression" dxfId="71" priority="49">
+  <conditionalFormatting sqref="B2:B7 B17:B18 B21:B25">
+    <cfRule type="expression" dxfId="78" priority="56">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $B2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C7 A17:C18 A20:C25">
-    <cfRule type="expression" dxfId="70" priority="51">
+  <conditionalFormatting sqref="A2:C7 A17:C18 A21:C25 A20 C20">
+    <cfRule type="expression" dxfId="77" priority="58">
       <formula>AND($A2="begin repeat", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C7 A17:C17 A25:C25 A21:C21">
-    <cfRule type="expression" dxfId="69" priority="52">
+    <cfRule type="expression" dxfId="76" priority="59">
       <formula>AND($A2="end repeat", $B2 = "", $C2 = "", $E2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $N2 = "", $O2 = "", $P2 = "", $R2 = "", $S2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28 A2:A7 A17:A18 A20:A25">
-    <cfRule type="containsText" dxfId="68" priority="56" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="75" priority="63" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C7 C17:C18 C20:C25">
-    <cfRule type="expression" dxfId="67" priority="57">
+    <cfRule type="expression" dxfId="74" priority="64">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $C2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A7 A17:A18 A20:A25">
-    <cfRule type="cellIs" dxfId="66" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="65" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="65" priority="59">
+    <cfRule type="expression" dxfId="72" priority="66">
       <formula>AND($A28="begin group", NOT($B28 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="64" priority="60">
+    <cfRule type="expression" dxfId="71" priority="67">
       <formula>AND($A28="end group", $B28 = "", $C28 = "", $E28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $N28 = "", $O28 = "", $P28 = "", $R28 = "", $S28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="cellIs" dxfId="63" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="68" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="62" priority="62">
+    <cfRule type="expression" dxfId="69" priority="69">
       <formula>AND(AND(NOT($A28 = "end group"), NOT($A28 = "end repeat"), NOT($A28 = "")), $C28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="61" priority="63">
+    <cfRule type="expression" dxfId="68" priority="70">
       <formula>AND(AND(NOT($A28 = "end group"), NOT($A28 = "end repeat"), NOT($A28 = "")), $B28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="60" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="71" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="59" priority="65">
+    <cfRule type="expression" dxfId="66" priority="72">
       <formula>AND($A28="begin repeat", NOT($B28 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="58" priority="66">
+    <cfRule type="expression" dxfId="65" priority="73">
       <formula>AND($A28="end repeat", $B28 = "", $C28 = "", $E28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $N28 = "", $O28 = "", $P28 = "", $R28 = "", $S28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="containsText" dxfId="57" priority="76" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="64" priority="83" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A26))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="56" priority="77">
+    <cfRule type="expression" dxfId="63" priority="84">
       <formula>AND($A26="begin group", NOT($B26 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="55" priority="78">
+    <cfRule type="expression" dxfId="62" priority="85">
       <formula>AND($A26="end group", $B26 = "", $C26 = "", $E26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $N26 = "", $O26 = "", $P26 = "", $R26 = "", $S26 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="cellIs" dxfId="54" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="86" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="cellIs" dxfId="53" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="87" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="52" priority="81">
+    <cfRule type="expression" dxfId="59" priority="88">
       <formula>AND($A26="begin repeat", NOT($B26 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="51" priority="82">
+    <cfRule type="expression" dxfId="58" priority="89">
       <formula>AND($A26="end repeat", $B26 = "", $C26 = "", $E26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $N26 = "", $O26 = "", $P26 = "", $R26 = "", $S26 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="containsText" dxfId="50" priority="83" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="57" priority="90" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="49" priority="67">
+    <cfRule type="expression" dxfId="56" priority="74">
       <formula>AND($A27="begin group", NOT($B27 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="48" priority="68">
+    <cfRule type="expression" dxfId="55" priority="75">
       <formula>AND($A27="end group", $B27 = "", $C27 = "", $E27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $N27 = "", $O27 = "", $P27 = "", $R27 = "", $S27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="cellIs" dxfId="47" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="76" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="46" priority="70">
+    <cfRule type="expression" dxfId="53" priority="77">
       <formula>AND(AND(NOT($A27 = "end group"), NOT($A27 = "end repeat"), NOT($A27 = "")), $C27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="45" priority="71">
+    <cfRule type="expression" dxfId="52" priority="78">
       <formula>AND(AND(NOT($A27 = "end group"), NOT($A27 = "end repeat"), NOT($A27 = "")), $B27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="cellIs" dxfId="44" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="79" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="43" priority="74">
+    <cfRule type="expression" dxfId="50" priority="81">
       <formula>AND($A27="begin repeat", NOT($B27 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="42" priority="75">
+    <cfRule type="expression" dxfId="49" priority="82">
       <formula>AND($A27="end repeat", $B27 = "", $C27 = "", $E27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $N27 = "", $O27 = "", $P27 = "", $R27 = "", $S27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="containsText" dxfId="41" priority="39" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="48" priority="46" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="40" priority="40">
+    <cfRule type="expression" dxfId="47" priority="47">
       <formula>AND($A8="begin group", NOT($B8 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="39" priority="41">
+    <cfRule type="expression" dxfId="46" priority="48">
       <formula>AND($A8="end group", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="49" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="37" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="50" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="36" priority="44">
+    <cfRule type="expression" dxfId="43" priority="51">
       <formula>AND($A8="begin repeat", NOT($B8 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="35" priority="45">
+    <cfRule type="expression" dxfId="42" priority="52">
       <formula>AND($A8="end repeat", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="34" priority="32">
+    <cfRule type="expression" dxfId="41" priority="39">
       <formula>AND($A8="begin group", NOT($B8 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="33" priority="33">
+    <cfRule type="expression" dxfId="40" priority="40">
       <formula>AND($A8="end group", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="31" priority="35">
+    <cfRule type="expression" dxfId="38" priority="42">
       <formula>AND(AND(NOT($A8 = "end group"), NOT($A8 = "end repeat"), NOT($A8 = "")), $B8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="30" priority="37">
+    <cfRule type="expression" dxfId="37" priority="44">
       <formula>AND($A8="begin repeat", NOT($B8 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="29" priority="38">
+    <cfRule type="expression" dxfId="36" priority="45">
       <formula>AND($A8="end repeat", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A30">
-    <cfRule type="expression" dxfId="28" priority="18">
+    <cfRule type="expression" dxfId="35" priority="25">
       <formula>AND($A29="begin group", NOT($B29 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A30">
-    <cfRule type="expression" dxfId="27" priority="19">
+    <cfRule type="expression" dxfId="34" priority="26">
       <formula>AND($A29="end group", $B29 = "", $C29 = "", $E29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $N29 = "", $O29 = "", $P29 = "", $R29 = "", $S29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A30">
-    <cfRule type="cellIs" dxfId="26" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="27" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A30">
-    <cfRule type="expression" dxfId="25" priority="21">
+    <cfRule type="expression" dxfId="32" priority="28">
       <formula>AND($A29="begin repeat", NOT($B29 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A30">
-    <cfRule type="expression" dxfId="24" priority="22">
+    <cfRule type="expression" dxfId="31" priority="29">
       <formula>AND($A29="end repeat", $B29 = "", $C29 = "", $E29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $N29 = "", $O29 = "", $P29 = "", $R29 = "", $S29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A30">
-    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A29))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="22" priority="193">
+    <cfRule type="expression" dxfId="29" priority="200">
       <formula>COUNTIF($B$2:$B$1096,B8)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17:B18 B27:B28 B20:B25">
-    <cfRule type="expression" dxfId="21" priority="194">
+  <conditionalFormatting sqref="B17:B18 B27:B28 B21:B25">
+    <cfRule type="expression" dxfId="28" priority="201">
       <formula>COUNTIF($B$9:$B$1103,B17)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B7">
-    <cfRule type="expression" dxfId="20" priority="197">
+    <cfRule type="expression" dxfId="27" priority="204">
       <formula>COUNTIF($B$2:$B$1095,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:C20 A22:C24">
-    <cfRule type="expression" dxfId="19" priority="200">
+  <conditionalFormatting sqref="A20 A22:C24 C20">
+    <cfRule type="expression" dxfId="26" priority="207">
       <formula>AND($A20="end group", $B20 = "", $C20 = "", #REF! = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $N20 = "", $O20 = "", $P20 = "", $R20 = "", $S20 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:C20 A22:C24">
-    <cfRule type="expression" dxfId="18" priority="203">
+  <conditionalFormatting sqref="A20 A22:C24 C20">
+    <cfRule type="expression" dxfId="25" priority="210">
       <formula>AND($A20="end repeat", $B20 = "", $C20 = "", #REF! = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $N20 = "", $O20 = "", $P20 = "", $R20 = "", $S20 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="17" priority="11">
+    <cfRule type="expression" dxfId="24" priority="18">
       <formula>AND($A31="begin group", NOT($B31 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="16" priority="12">
+    <cfRule type="expression" dxfId="23" priority="19">
       <formula>AND($A31="end group", $B31 = "", $C31 = "", $E31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $N31 = "", $O31 = "", $P31 = "", $R31 = "", $S31 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="14" priority="14">
+    <cfRule type="expression" dxfId="21" priority="21">
       <formula>AND($A31="begin repeat", NOT($B31 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="13" priority="15">
+    <cfRule type="expression" dxfId="20" priority="22">
       <formula>AND($A31="end repeat", $B31 = "", $C31 = "", $E31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $N31 = "", $O31 = "", $P31 = "", $R31 = "", $S31 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A31))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:C18">
-    <cfRule type="expression" dxfId="11" priority="225">
+    <cfRule type="expression" dxfId="18" priority="232">
       <formula>AND($A18="end group", $B18 = "", $C18 = "", $E20 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $N18 = "", $O18 = "", $P18 = "", $R18 = "", $S18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:C18">
-    <cfRule type="expression" dxfId="10" priority="226">
+    <cfRule type="expression" dxfId="17" priority="233">
       <formula>AND($A18="end repeat", $B18 = "", $C18 = "", $E20 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $N18 = "", $O18 = "", $P18 = "", $R18 = "", $S18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19:C19">
-    <cfRule type="expression" dxfId="9" priority="1">
+  <conditionalFormatting sqref="A19 C19">
+    <cfRule type="expression" dxfId="16" priority="8">
       <formula>AND($A19="begin group", NOT($B19 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19:C19">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+  <conditionalFormatting sqref="A19 C19">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19 C19">
+    <cfRule type="expression" dxfId="13" priority="11">
+      <formula>AND($A19="begin repeat", NOT($B19 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>AND(AND(NOT($A19 = "end group"), NOT($A19 = "end repeat"), NOT($A19 = "")), $C19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19 C19">
+    <cfRule type="expression" dxfId="8" priority="16">
+      <formula>AND($A19="end group", $B19 = "", $C19 = "", $E21 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19 C19">
+    <cfRule type="expression" dxfId="7" priority="17">
+      <formula>AND($A19="end repeat", $B19 = "", $C19 = "", $E21 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="7" priority="3">
-      <formula>AND(AND(NOT($A19 = "end group"), NOT($A19 = "end repeat"), NOT($A19 = "")), $B19 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:C19">
-    <cfRule type="expression" dxfId="6" priority="4">
-      <formula>AND($A19="begin repeat", NOT($B19 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A19))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>AND(AND(NOT($A19 = "end group"), NOT($A19 = "end repeat"), NOT($A19 = "")), $C19 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
-      <formula>"hidden"</formula>
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>COUNTIF($B$9:$B$1103,B19)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="2" priority="8">
-      <formula>COUNTIF($B$9:$B$1103,B19)&gt;1</formula>
+    <cfRule type="expression" dxfId="4" priority="3">
+      <formula>AND($A20="begin group", NOT($B19 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19:C19">
-    <cfRule type="expression" dxfId="1" priority="9">
-      <formula>AND($A19="end group", $B19 = "", $C19 = "", $E21 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>AND(AND(NOT($A20 = "end group"), NOT($A20 = "end repeat"), NOT($A20 = "")), $B19 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19:C19">
-    <cfRule type="expression" dxfId="0" priority="10">
-      <formula>AND($A19="end repeat", $B19 = "", $C19 = "", $E21 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>AND($A20="begin repeat", NOT($B19 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="expression" dxfId="1" priority="6">
+      <formula>AND($A20="end group", $B19 = "", $C20 = "", $E22 = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $N20 = "", $O20 = "", $P20 = "", $R20 = "", $S20 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>AND($A20="end repeat", $B19 = "", $C20 = "", $E22 = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $N20 = "", $O20 = "", $P20 = "", $R20 = "", $S20 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30080,7 +30173,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>2</v>
@@ -30091,7 +30184,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>9</v>
@@ -30102,7 +30195,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>2</v>
@@ -30113,7 +30206,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B28" s="16" t="s">
         <v>9</v>
@@ -30177,14 +30270,14 @@
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C2" s="14" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-05 16-19</v>
+        <v>2022-10-05 19-35</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>20</v>

--- a/forms/contact/house_hold-edit.xlsx
+++ b/forms/contact/house_hold-edit.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="128">
   <si>
     <t xml:space="preserve">Name of Household Head </t>
   </si>
@@ -274,9 +274,6 @@
     <t>Other Household Members</t>
   </si>
   <si>
-    <t>child</t>
-  </si>
-  <si>
     <t>_Please follow the steps on the next page to add other family members._</t>
   </si>
   <si>
@@ -338,9 +335,6 @@
   </si>
   <si>
     <t>hm_age</t>
-  </si>
-  <si>
-    <t>select_one hh_child</t>
   </si>
   <si>
     <t>end repeat</t>
@@ -405,6 +399,15 @@
   </si>
   <si>
     <t>selected(../house_member, 'yes')</t>
+  </si>
+  <si>
+    <t>add_family</t>
+  </si>
+  <si>
+    <t>select_one register_house_member</t>
+  </si>
+  <si>
+    <t>hh_member</t>
   </si>
 </sst>
 </file>
@@ -708,7 +711,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="82">
+  <dxfs count="94">
     <dxf>
       <font>
         <color rgb="FFC27BA0"/>
@@ -812,6 +815,140 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFCCCCCC"/>
       </font>
       <fill>
@@ -848,14 +985,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFD9D2E9"/>
           <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1783,10 +1912,10 @@
   <dimension ref="A1:Y1015"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1818,7 +1947,7 @@
         <v>79</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>74</v>
@@ -1849,10 +1978,10 @@
         <v>80</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
@@ -1882,10 +2011,10 @@
         <v>80</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
@@ -1912,13 +2041,13 @@
     </row>
     <row r="4" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A4" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
@@ -1945,13 +2074,13 @@
     </row>
     <row r="5" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A5" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
@@ -1978,7 +2107,7 @@
     </row>
     <row r="6" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A6" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
@@ -2007,7 +2136,7 @@
     </row>
     <row r="7" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A7" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
@@ -2039,10 +2168,10 @@
         <v>80</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="37"/>
@@ -2186,7 +2315,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F12" s="44"/>
       <c r="G12" s="42"/>
@@ -2223,7 +2352,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F13" s="44"/>
       <c r="G13" s="40" t="s">
@@ -2322,7 +2451,7 @@
     </row>
     <row r="16" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A16" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" s="38"/>
       <c r="C16" s="38"/>
@@ -2384,13 +2513,13 @@
     </row>
     <row r="18" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A18" s="32" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
@@ -2417,13 +2546,13 @@
     </row>
     <row r="19" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A19" s="32" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
@@ -2452,18 +2581,18 @@
       <c r="A20" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="30" t="s">
-        <v>37</v>
+      <c r="B20" s="28" t="s">
+        <v>125</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D20" s="30"/>
       <c r="E20" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
@@ -2487,7 +2616,7 @@
     </row>
     <row r="21" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A21" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -2519,10 +2648,10 @@
         <v>80</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
@@ -2549,13 +2678,13 @@
     </row>
     <row r="23" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A23" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
@@ -2582,13 +2711,13 @@
     </row>
     <row r="24" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A24" s="32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
@@ -2648,13 +2777,13 @@
     </row>
     <row r="26" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A26" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
@@ -2693,7 +2822,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F27" s="44"/>
       <c r="G27" s="31"/>
@@ -2721,16 +2850,16 @@
         <v>7</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="44" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F28" s="44"/>
       <c r="G28" s="31"/>
@@ -2755,7 +2884,7 @@
     </row>
     <row r="29" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A29" s="33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="24"/>
@@ -2784,7 +2913,7 @@
     </row>
     <row r="30" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A30" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="24"/>
@@ -2816,10 +2945,10 @@
         <v>80</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
@@ -2852,13 +2981,13 @@
         <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="19"/>
@@ -2930,7 +3059,7 @@
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="19"/>
@@ -3130,7 +3259,7 @@
     </row>
     <row r="40" spans="1:25" ht="13.2">
       <c r="A40" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -29483,404 +29612,474 @@
       <c r="Y1015" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:C7 A17:C18 A21:C25 A20 C20">
-    <cfRule type="expression" dxfId="81" priority="53">
+  <conditionalFormatting sqref="A2:C7 A17:C17 A21:C25 A20 C20 A18 C18">
+    <cfRule type="expression" dxfId="93" priority="67">
       <formula>AND($A2="begin group", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C7 A17:C17 A25:C25 A21:C21">
-    <cfRule type="expression" dxfId="80" priority="54">
+    <cfRule type="expression" dxfId="92" priority="68">
       <formula>AND($A2="end group", $B2 = "", $C2 = "", $E2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $N2 = "", $O2 = "", $P2 = "", $R2 = "", $S2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C7 A17:C18 A21:C25 A20 C20">
-    <cfRule type="cellIs" dxfId="79" priority="55" operator="equal">
+  <conditionalFormatting sqref="A2:C7 A17:C17 A21:C25 A20 C20 A18 C18">
+    <cfRule type="cellIs" dxfId="91" priority="69" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B7 B17:B18 B21:B25">
-    <cfRule type="expression" dxfId="78" priority="56">
+  <conditionalFormatting sqref="B2:B7 B17 B21:B25">
+    <cfRule type="expression" dxfId="90" priority="70">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $B2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C7 A17:C18 A21:C25 A20 C20">
-    <cfRule type="expression" dxfId="77" priority="58">
+  <conditionalFormatting sqref="A2:C7 A17:C17 A21:C25 A20 C20 A18 C18">
+    <cfRule type="expression" dxfId="89" priority="72">
       <formula>AND($A2="begin repeat", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C7 A17:C17 A25:C25 A21:C21">
-    <cfRule type="expression" dxfId="76" priority="59">
+    <cfRule type="expression" dxfId="88" priority="73">
       <formula>AND($A2="end repeat", $B2 = "", $C2 = "", $E2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $N2 = "", $O2 = "", $P2 = "", $R2 = "", $S2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28 A2:A7 A17:A18 A20:A25">
-    <cfRule type="containsText" dxfId="75" priority="63" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="87" priority="77" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C7 C17:C18 C20:C25">
-    <cfRule type="expression" dxfId="74" priority="64">
+    <cfRule type="expression" dxfId="86" priority="78">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $C2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A7 A17:A18 A20:A25">
-    <cfRule type="cellIs" dxfId="73" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="79" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="72" priority="66">
+    <cfRule type="expression" dxfId="84" priority="80">
       <formula>AND($A28="begin group", NOT($B28 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="71" priority="67">
+    <cfRule type="expression" dxfId="83" priority="81">
       <formula>AND($A28="end group", $B28 = "", $C28 = "", $E28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $N28 = "", $O28 = "", $P28 = "", $R28 = "", $S28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="cellIs" dxfId="70" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="82" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="69" priority="69">
+    <cfRule type="expression" dxfId="81" priority="83">
       <formula>AND(AND(NOT($A28 = "end group"), NOT($A28 = "end repeat"), NOT($A28 = "")), $C28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="68" priority="70">
+    <cfRule type="expression" dxfId="80" priority="84">
       <formula>AND(AND(NOT($A28 = "end group"), NOT($A28 = "end repeat"), NOT($A28 = "")), $B28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="67" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="85" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="66" priority="72">
+    <cfRule type="expression" dxfId="78" priority="86">
       <formula>AND($A28="begin repeat", NOT($B28 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="65" priority="73">
+    <cfRule type="expression" dxfId="77" priority="87">
       <formula>AND($A28="end repeat", $B28 = "", $C28 = "", $E28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $N28 = "", $O28 = "", $P28 = "", $R28 = "", $S28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="containsText" dxfId="64" priority="83" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="76" priority="97" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A26))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="63" priority="84">
+    <cfRule type="expression" dxfId="75" priority="98">
       <formula>AND($A26="begin group", NOT($B26 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="62" priority="85">
+    <cfRule type="expression" dxfId="74" priority="99">
       <formula>AND($A26="end group", $B26 = "", $C26 = "", $E26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $N26 = "", $O26 = "", $P26 = "", $R26 = "", $S26 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="cellIs" dxfId="61" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="100" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="cellIs" dxfId="60" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="101" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="59" priority="88">
+    <cfRule type="expression" dxfId="71" priority="102">
       <formula>AND($A26="begin repeat", NOT($B26 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="58" priority="89">
+    <cfRule type="expression" dxfId="70" priority="103">
       <formula>AND($A26="end repeat", $B26 = "", $C26 = "", $E26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $N26 = "", $O26 = "", $P26 = "", $R26 = "", $S26 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="containsText" dxfId="57" priority="90" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="69" priority="104" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="56" priority="74">
+    <cfRule type="expression" dxfId="68" priority="88">
       <formula>AND($A27="begin group", NOT($B27 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="55" priority="75">
+    <cfRule type="expression" dxfId="67" priority="89">
       <formula>AND($A27="end group", $B27 = "", $C27 = "", $E27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $N27 = "", $O27 = "", $P27 = "", $R27 = "", $S27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="cellIs" dxfId="54" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="90" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="53" priority="77">
+    <cfRule type="expression" dxfId="65" priority="91">
       <formula>AND(AND(NOT($A27 = "end group"), NOT($A27 = "end repeat"), NOT($A27 = "")), $C27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="52" priority="78">
+    <cfRule type="expression" dxfId="64" priority="92">
       <formula>AND(AND(NOT($A27 = "end group"), NOT($A27 = "end repeat"), NOT($A27 = "")), $B27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="cellIs" dxfId="51" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="93" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="50" priority="81">
+    <cfRule type="expression" dxfId="62" priority="95">
       <formula>AND($A27="begin repeat", NOT($B27 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="49" priority="82">
+    <cfRule type="expression" dxfId="61" priority="96">
       <formula>AND($A27="end repeat", $B27 = "", $C27 = "", $E27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $N27 = "", $O27 = "", $P27 = "", $R27 = "", $S27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="containsText" dxfId="48" priority="46" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="60" priority="60" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="47" priority="47">
+    <cfRule type="expression" dxfId="59" priority="61">
       <formula>AND($A8="begin group", NOT($B8 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="46" priority="48">
+    <cfRule type="expression" dxfId="58" priority="62">
       <formula>AND($A8="end group", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="45" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="63" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="44" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="64" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="43" priority="51">
+    <cfRule type="expression" dxfId="55" priority="65">
       <formula>AND($A8="begin repeat", NOT($B8 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="42" priority="52">
+    <cfRule type="expression" dxfId="54" priority="66">
       <formula>AND($A8="end repeat", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="41" priority="39">
+    <cfRule type="expression" dxfId="53" priority="53">
       <formula>AND($A8="begin group", NOT($B8 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="40" priority="40">
+    <cfRule type="expression" dxfId="52" priority="54">
       <formula>AND($A8="end group", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="55" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="38" priority="42">
+    <cfRule type="expression" dxfId="50" priority="56">
       <formula>AND(AND(NOT($A8 = "end group"), NOT($A8 = "end repeat"), NOT($A8 = "")), $B8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="37" priority="44">
+    <cfRule type="expression" dxfId="49" priority="58">
       <formula>AND($A8="begin repeat", NOT($B8 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="36" priority="45">
+    <cfRule type="expression" dxfId="48" priority="59">
       <formula>AND($A8="end repeat", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A30">
-    <cfRule type="expression" dxfId="35" priority="25">
+    <cfRule type="expression" dxfId="47" priority="39">
       <formula>AND($A29="begin group", NOT($B29 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A30">
-    <cfRule type="expression" dxfId="34" priority="26">
+    <cfRule type="expression" dxfId="46" priority="40">
       <formula>AND($A29="end group", $B29 = "", $C29 = "", $E29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $N29 = "", $O29 = "", $P29 = "", $R29 = "", $S29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A30">
-    <cfRule type="cellIs" dxfId="33" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="41" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A30">
-    <cfRule type="expression" dxfId="32" priority="28">
+    <cfRule type="expression" dxfId="44" priority="42">
       <formula>AND($A29="begin repeat", NOT($B29 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A30">
-    <cfRule type="expression" dxfId="31" priority="29">
+    <cfRule type="expression" dxfId="43" priority="43">
       <formula>AND($A29="end repeat", $B29 = "", $C29 = "", $E29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $N29 = "", $O29 = "", $P29 = "", $R29 = "", $S29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A30">
-    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="42" priority="44" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A29))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="29" priority="200">
+    <cfRule type="expression" dxfId="41" priority="214">
       <formula>COUNTIF($B$2:$B$1096,B8)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17:B18 B27:B28 B21:B25">
-    <cfRule type="expression" dxfId="28" priority="201">
+  <conditionalFormatting sqref="B17 B27:B28 B21:B25">
+    <cfRule type="expression" dxfId="40" priority="215">
       <formula>COUNTIF($B$9:$B$1103,B17)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B7">
-    <cfRule type="expression" dxfId="27" priority="204">
+    <cfRule type="expression" dxfId="39" priority="218">
       <formula>COUNTIF($B$2:$B$1095,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20 A22:C24 C20">
-    <cfRule type="expression" dxfId="26" priority="207">
+    <cfRule type="expression" dxfId="38" priority="221">
       <formula>AND($A20="end group", $B20 = "", $C20 = "", #REF! = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $N20 = "", $O20 = "", $P20 = "", $R20 = "", $S20 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20 A22:C24 C20">
-    <cfRule type="expression" dxfId="25" priority="210">
+    <cfRule type="expression" dxfId="37" priority="224">
       <formula>AND($A20="end repeat", $B20 = "", $C20 = "", #REF! = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $N20 = "", $O20 = "", $P20 = "", $R20 = "", $S20 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="24" priority="18">
+    <cfRule type="expression" dxfId="36" priority="32">
       <formula>AND($A31="begin group", NOT($B31 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="23" priority="19">
+    <cfRule type="expression" dxfId="35" priority="33">
       <formula>AND($A31="end group", $B31 = "", $C31 = "", $E31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $N31 = "", $O31 = "", $P31 = "", $R31 = "", $S31 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="21" priority="21">
+    <cfRule type="expression" dxfId="33" priority="35">
       <formula>AND($A31="begin repeat", NOT($B31 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="20" priority="22">
+    <cfRule type="expression" dxfId="32" priority="36">
       <formula>AND($A31="end repeat", $B31 = "", $C31 = "", $E31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $N31 = "", $O31 = "", $P31 = "", $R31 = "", $S31 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="31" priority="37" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A31))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18:C18">
-    <cfRule type="expression" dxfId="18" priority="232">
+  <conditionalFormatting sqref="A18 C18">
+    <cfRule type="expression" dxfId="30" priority="246">
       <formula>AND($A18="end group", $B18 = "", $C18 = "", $E20 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $N18 = "", $O18 = "", $P18 = "", $R18 = "", $S18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18:C18">
-    <cfRule type="expression" dxfId="17" priority="233">
+  <conditionalFormatting sqref="A18 C18">
+    <cfRule type="expression" dxfId="29" priority="247">
       <formula>AND($A18="end repeat", $B18 = "", $C18 = "", $E20 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $N18 = "", $O18 = "", $P18 = "", $R18 = "", $S18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19 C19">
-    <cfRule type="expression" dxfId="16" priority="8">
+    <cfRule type="expression" dxfId="28" priority="22">
       <formula>AND($A19="begin group", NOT($B19 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19 C19">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="23" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19 C19">
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="26" priority="25">
       <formula>AND($A19="begin repeat", NOT($B19 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A19))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="11" priority="13">
+    <cfRule type="expression" dxfId="24" priority="27">
       <formula>AND(AND(NOT($A19 = "end group"), NOT($A19 = "end repeat"), NOT($A19 = "")), $C19 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19 C19">
-    <cfRule type="expression" dxfId="8" priority="16">
+    <cfRule type="expression" dxfId="22" priority="30">
       <formula>AND($A19="end group", $B19 = "", $C19 = "", $E21 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19 C19">
-    <cfRule type="expression" dxfId="7" priority="17">
+    <cfRule type="expression" dxfId="21" priority="31">
       <formula>AND($A19="end repeat", $B19 = "", $C19 = "", $E21 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
+    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="expression" dxfId="19" priority="16">
+      <formula>COUNTIF($B$9:$B$1103,B19)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="expression" dxfId="18" priority="17">
+      <formula>AND($A20="begin group", NOT($B19 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>AND(AND(NOT($A20 = "end group"), NOT($A20 = "end repeat"), NOT($A20 = "")), $B19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="expression" dxfId="16" priority="19">
+      <formula>AND($A20="begin repeat", NOT($B19 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="expression" dxfId="15" priority="20">
+      <formula>AND($A20="end group", $B19 = "", $C20 = "", $E22 = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $N20 = "", $O20 = "", $P20 = "", $R20 = "", $S20 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="expression" dxfId="14" priority="21">
+      <formula>AND($A20="end repeat", $B19 = "", $C20 = "", $E22 = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $N20 = "", $O20 = "", $P20 = "", $R20 = "", $S20 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="expression" dxfId="13" priority="8">
+      <formula>AND($A20="begin group", NOT($B20 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="expression" dxfId="11" priority="10">
+      <formula>AND(AND(NOT($A20 = "end group"), NOT($A20 = "end repeat"), NOT($A20 = "")), $B20 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>AND($A20="begin repeat", NOT($B20 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="expression" dxfId="9" priority="12">
+      <formula>COUNTIF($B$9:$B$1103,B20)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="expression" dxfId="8" priority="13">
+      <formula>AND($A20="end group", $B20 = "", $C20 = "", #REF! = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $N20 = "", $O20 = "", $P20 = "", $R20 = "", $S20 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="expression" dxfId="7" priority="14">
+      <formula>AND($A20="end repeat", $B20 = "", $C20 = "", #REF! = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $N20 = "", $O20 = "", $P20 = "", $R20 = "", $S20 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
+  <conditionalFormatting sqref="B18">
     <cfRule type="expression" dxfId="5" priority="2">
-      <formula>COUNTIF($B$9:$B$1103,B19)&gt;1</formula>
+      <formula>COUNTIF($B$9:$B$1103,B18)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
+  <conditionalFormatting sqref="B18">
     <cfRule type="expression" dxfId="4" priority="3">
-      <formula>AND($A20="begin group", NOT($B19 = ""))</formula>
+      <formula>AND($A19="begin group", NOT($B18 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
+  <conditionalFormatting sqref="B18">
     <cfRule type="expression" dxfId="3" priority="4">
-      <formula>AND(AND(NOT($A20 = "end group"), NOT($A20 = "end repeat"), NOT($A20 = "")), $B19 = "")</formula>
+      <formula>AND(AND(NOT($A19 = "end group"), NOT($A19 = "end repeat"), NOT($A19 = "")), $B18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
+  <conditionalFormatting sqref="B18">
     <cfRule type="expression" dxfId="2" priority="5">
-      <formula>AND($A20="begin repeat", NOT($B19 = ""))</formula>
+      <formula>AND($A19="begin repeat", NOT($B18 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
+  <conditionalFormatting sqref="B18">
     <cfRule type="expression" dxfId="1" priority="6">
-      <formula>AND($A20="end group", $B19 = "", $C20 = "", $E22 = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $N20 = "", $O20 = "", $P20 = "", $R20 = "", $S20 = "")</formula>
+      <formula>AND($A19="end group", $B18 = "", $C19 = "", $E21 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
+  <conditionalFormatting sqref="B18">
     <cfRule type="expression" dxfId="0" priority="7">
-      <formula>AND($A20="end repeat", $B19 = "", $C20 = "", $E22 = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $N20 = "", $O20 = "", $P20 = "", $R20 = "", $S20 = "")</formula>
+      <formula>AND($A19="end repeat", $B18 = "", $C19 = "", $E21 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30173,7 +30372,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>2</v>
@@ -30184,7 +30383,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>9</v>
@@ -30195,7 +30394,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>2</v>
@@ -30206,7 +30405,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B28" s="16" t="s">
         <v>9</v>
@@ -30270,14 +30469,14 @@
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C2" s="14" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-05 19-35</v>
+        <v>2022-10-05 19-55</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>20</v>

--- a/forms/contact/house_hold-edit.xlsx
+++ b/forms/contact/house_hold-edit.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="127">
   <si>
     <t xml:space="preserve">Name of Household Head </t>
   </si>
@@ -283,9 +283,6 @@
     <t>repeat</t>
   </si>
   <si>
-    <t>begin repeat</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -325,7 +322,7 @@
     <t>house_contact_name</t>
   </si>
   <si>
-    <t>hh_child</t>
+    <t>add_family</t>
   </si>
   <si>
     <t>Family Members' Information</t>
@@ -335,9 +332,6 @@
   </si>
   <si>
     <t>hm_age</t>
-  </si>
-  <si>
-    <t>end repeat</t>
   </si>
   <si>
     <t>Health Insurance</t>
@@ -358,56 +352,59 @@
     <t>field-list</t>
   </si>
   <si>
-    <t>Edit House Hold</t>
+    <t>hm_name</t>
   </si>
   <si>
-    <t>contact:house_hold:edit</t>
-  </si>
-  <si>
-    <t>selected(../knows_dob, 'yes')</t>
-  </si>
-  <si>
-    <t>selected(../knows_dob, 'no')</t>
-  </si>
-  <si>
-    <t>selected(../health_insurance, 'other')</t>
-  </si>
-  <si>
-    <t>selected(../date_of_birth, 'no')</t>
+    <t>Does ${hm_name} know their date of birth?</t>
   </si>
   <si>
     <t xml:space="preserve">selected(../date_of_birth, 'yes')
 </t>
   </si>
   <si>
-    <t>hm_name</t>
+    <t>selected(../date_of_birth, 'no')</t>
   </si>
   <si>
-    <t>Does ${hm_name} know their date of birth?</t>
+    <t>selected(../knows_dob, 'yes')</t>
+  </si>
+  <si>
+    <t>selected(../knows_dob,  'no')</t>
+  </si>
+  <si>
+    <t>selected(../health_insurance, 'other')</t>
   </si>
   <si>
     <t>Family Members</t>
   </si>
   <si>
+    <t>Do you want to register the household members now?</t>
+  </si>
+  <si>
     <t>select_one house_member</t>
   </si>
   <si>
-    <t>Do you want to register the household members now?</t>
+    <t>select_one register_house_member</t>
+  </si>
+  <si>
+    <t>selected(../house_member, 'yes')</t>
   </si>
   <si>
     <t>selected(../register_house_member, 'no')</t>
   </si>
   <si>
-    <t>selected(../house_member, 'yes')</t>
+    <t>hh_member</t>
   </si>
   <si>
-    <t>add_family</t>
+    <t>begin_repeat</t>
   </si>
   <si>
-    <t>select_one register_house_member</t>
+    <t>end_repeat</t>
   </si>
   <si>
-    <t>hh_member</t>
+    <t>contact:house_hold:edit</t>
+  </si>
+  <si>
+    <t>Edit House Hold</t>
   </si>
 </sst>
 </file>
@@ -483,7 +480,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -518,18 +515,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE6B8AF"/>
         <bgColor rgb="FFE6B8AF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -617,7 +602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -649,14 +634,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -667,44 +650,44 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -712,6 +695,72 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="94">
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFC27BA0"/>
@@ -736,6 +785,28 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF76A5AF"/>
       </font>
       <fill>
@@ -746,10 +817,13 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -761,25 +835,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFCFE2F3"/>
           <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -871,8 +926,63 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFCFE2F3"/>
           <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -907,123 +1017,8 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1915,44 +1910,44 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.77734375" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.109375" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="27" t="s">
-        <v>109</v>
+      <c r="F1" s="25" t="s">
+        <v>107</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="25" t="s">
         <v>76</v>
       </c>
       <c r="I1" s="1"/>
@@ -1974,20 +1969,20 @@
       <c r="Y1" s="1"/>
     </row>
     <row r="2" spans="1:25" s="12" customFormat="1" ht="13.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2007,20 +2002,20 @@
       <c r="Y2" s="1"/>
     </row>
     <row r="3" spans="1:25" s="12" customFormat="1" ht="13.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -2040,20 +2035,20 @@
       <c r="Y3" s="1"/>
     </row>
     <row r="4" spans="1:25" s="12" customFormat="1" ht="13.2">
-      <c r="A4" s="28" t="s">
-        <v>87</v>
+      <c r="A4" s="26" t="s">
+        <v>86</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -2073,20 +2068,20 @@
       <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="1:25" s="12" customFormat="1" ht="13.2">
-      <c r="A5" s="28" t="s">
-        <v>87</v>
+      <c r="A5" s="26" t="s">
+        <v>86</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>97</v>
+      <c r="C5" s="26" t="s">
+        <v>96</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -2106,16 +2101,16 @@
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="1:25" s="12" customFormat="1" ht="13.2">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -2135,16 +2130,16 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25" s="12" customFormat="1" ht="13.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -2164,20 +2159,20 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="1:25" s="12" customFormat="1" ht="13.2">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="36" t="s">
+      <c r="B8" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
+      <c r="C8" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -2197,22 +2192,22 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="13.2">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -2232,22 +2227,22 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="13.2">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="40"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="38"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -2267,22 +2262,22 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="13.2">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="40"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="38"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -2302,24 +2297,24 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="19.2" customHeight="1">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="44" t="s">
-        <v>117</v>
+      <c r="E12" s="42" t="s">
+        <v>111</v>
       </c>
-      <c r="F12" s="44"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="40"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="38"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -2339,26 +2334,26 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" ht="13.2">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="44" t="s">
-        <v>116</v>
+      <c r="E13" s="42" t="s">
+        <v>112</v>
       </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="40" t="s">
+      <c r="F13" s="42"/>
+      <c r="G13" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="H13" s="40" t="s">
+      <c r="H13" s="38" t="s">
         <v>73</v>
       </c>
       <c r="I13" s="1"/>
@@ -2380,22 +2375,22 @@
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:25" ht="13.2">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -2415,22 +2410,22 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="13.2">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -2450,16 +2445,16 @@
       <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="1:25" s="12" customFormat="1" ht="13.2">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -2478,318 +2473,318 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" s="25" customFormat="1" ht="13.2">
-      <c r="A17" s="29" t="s">
+    <row r="17" spans="1:25" s="23" customFormat="1" ht="13.2">
+      <c r="A17" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-    </row>
-    <row r="18" spans="1:25" s="25" customFormat="1" ht="13.2">
-      <c r="A18" s="32" t="s">
-        <v>121</v>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+    </row>
+    <row r="18" spans="1:25" s="23" customFormat="1" ht="13.2">
+      <c r="A18" s="30" t="s">
+        <v>118</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+    </row>
+    <row r="19" spans="1:25" s="23" customFormat="1" ht="26.4">
+      <c r="A19" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="24"/>
+    </row>
+    <row r="20" spans="1:25" s="23" customFormat="1" ht="13.2">
+      <c r="A20" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="24"/>
+    </row>
+    <row r="21" spans="1:25" s="23" customFormat="1" ht="13.2">
+      <c r="A21" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+    </row>
+    <row r="22" spans="1:25" s="23" customFormat="1" ht="13.2">
+      <c r="A22" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="24"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="24"/>
+    </row>
+    <row r="23" spans="1:25" s="23" customFormat="1" ht="13.2">
+      <c r="A23" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="24"/>
+      <c r="X23" s="24"/>
+      <c r="Y23" s="24"/>
+    </row>
+    <row r="24" spans="1:25" s="23" customFormat="1" ht="13.2">
+      <c r="A24" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="24"/>
+    </row>
+    <row r="25" spans="1:25" s="23" customFormat="1" ht="13.2">
+      <c r="A25" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="24"/>
+    </row>
+    <row r="26" spans="1:25" s="23" customFormat="1" ht="13.2">
+      <c r="A26" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-    </row>
-    <row r="19" spans="1:25" s="25" customFormat="1" ht="13.2">
-      <c r="A19" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="26"/>
-    </row>
-    <row r="20" spans="1:25" s="25" customFormat="1" ht="13.2">
-      <c r="A20" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F20" s="4" t="s">
+      <c r="C26" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="26"/>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="26"/>
-    </row>
-    <row r="21" spans="1:25" s="25" customFormat="1" ht="13.2">
-      <c r="A21" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="26"/>
-      <c r="Y21" s="26"/>
-    </row>
-    <row r="22" spans="1:25" s="25" customFormat="1" ht="13.2">
-      <c r="A22" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="26"/>
-    </row>
-    <row r="23" spans="1:25" s="25" customFormat="1" ht="13.2">
-      <c r="A23" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="26"/>
-      <c r="W23" s="26"/>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="26"/>
-    </row>
-    <row r="24" spans="1:25" s="25" customFormat="1" ht="13.2">
-      <c r="A24" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="26"/>
-    </row>
-    <row r="25" spans="1:25" s="25" customFormat="1" ht="13.2">
-      <c r="A25" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="26"/>
-      <c r="X25" s="26"/>
-      <c r="Y25" s="26"/>
-    </row>
-    <row r="26" spans="1:25" s="25" customFormat="1" ht="13.2">
-      <c r="A26" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -2808,25 +2803,25 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" s="25" customFormat="1" ht="13.2">
-      <c r="A27" s="32" t="s">
+    <row r="27" spans="1:25" s="23" customFormat="1" ht="13.2">
+      <c r="A27" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="44" t="s">
+      <c r="E27" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="F27" s="44"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -2845,25 +2840,25 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" s="25" customFormat="1" ht="13.2">
-      <c r="A28" s="32" t="s">
+    <row r="28" spans="1:25" s="23" customFormat="1" ht="13.2">
+      <c r="A28" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="32" t="s">
-        <v>103</v>
+      <c r="B28" s="30" t="s">
+        <v>102</v>
       </c>
-      <c r="C28" s="32" t="s">
-        <v>90</v>
+      <c r="C28" s="30" t="s">
+        <v>89</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="44" t="s">
+      <c r="E28" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="F28" s="44"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -2883,16 +2878,16 @@
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="1:25" s="12" customFormat="1" ht="13.2">
-      <c r="A29" s="33" t="s">
-        <v>104</v>
+      <c r="A29" s="31" t="s">
+        <v>124</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -2912,16 +2907,16 @@
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="1:25" s="12" customFormat="1" ht="13.2">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -2941,20 +2936,20 @@
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="1:25" s="12" customFormat="1" ht="13.2">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="23" t="s">
-        <v>106</v>
+      <c r="B31" s="21" t="s">
+        <v>104</v>
       </c>
-      <c r="C31" s="24" t="s">
-        <v>105</v>
+      <c r="C31" s="22" t="s">
+        <v>103</v>
       </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -2981,17 +2976,17 @@
         <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>123</v>
+      <c r="E32" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="F32" s="6"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="22"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="20"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
@@ -3027,8 +3022,8 @@
         <v>77</v>
       </c>
       <c r="F33" s="6"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="22"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="20"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
@@ -3062,8 +3057,8 @@
         <v>115</v>
       </c>
       <c r="F34" s="6"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="22"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="20"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
@@ -3097,8 +3092,8 @@
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="21"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="19"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -3118,7 +3113,7 @@
       <c r="Y35" s="1"/>
     </row>
     <row r="36" spans="1:25" ht="13.2">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -3132,8 +3127,8 @@
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="21"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="19"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -3153,7 +3148,7 @@
       <c r="Y36" s="1"/>
     </row>
     <row r="37" spans="1:25" ht="13.2">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -3167,8 +3162,8 @@
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="21"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="19"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -3188,7 +3183,7 @@
       <c r="Y37" s="1"/>
     </row>
     <row r="38" spans="1:25" ht="13.2">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B38" s="10" t="s">
@@ -3202,8 +3197,8 @@
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="21"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="19"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -3223,7 +3218,7 @@
       <c r="Y38" s="1"/>
     </row>
     <row r="39" spans="1:25" ht="13.2">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -3237,8 +3232,8 @@
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="21"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="19"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -29612,474 +29607,474 @@
       <c r="Y1015" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:C7 A17:C17 A21:C25 A20 C20 A18 C18">
-    <cfRule type="expression" dxfId="93" priority="67">
+  <conditionalFormatting sqref="A2:C7 A17:C17 A20:C22 A24:C25 C23">
+    <cfRule type="expression" dxfId="93" priority="56">
       <formula>AND($A2="begin group", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C7 A17:C17 A25:C25 A21:C21">
-    <cfRule type="expression" dxfId="92" priority="68">
+    <cfRule type="expression" dxfId="92" priority="57">
       <formula>AND($A2="end group", $B2 = "", $C2 = "", $E2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $N2 = "", $O2 = "", $P2 = "", $R2 = "", $S2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C7 A17:C17 A21:C25 A20 C20 A18 C18">
-    <cfRule type="cellIs" dxfId="91" priority="69" operator="equal">
+  <conditionalFormatting sqref="A2:C7 A20:C22 A19 C19 A17:C18 A24:C25 C23">
+    <cfRule type="cellIs" dxfId="91" priority="58" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B7 B17 B21:B25">
-    <cfRule type="expression" dxfId="90" priority="70">
+  <conditionalFormatting sqref="B2:B7 B17 B20:B22 B24:B25">
+    <cfRule type="expression" dxfId="90" priority="59">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $B2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C7 A17:C17 A21:C25 A20 C20 A18 C18">
-    <cfRule type="expression" dxfId="89" priority="72">
+  <conditionalFormatting sqref="A2:C7 A17:C17 A20:C22 A24:C25 C23">
+    <cfRule type="expression" dxfId="89" priority="61">
       <formula>AND($A2="begin repeat", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C7 A17:C17 A25:C25 A21:C21">
-    <cfRule type="expression" dxfId="88" priority="73">
+    <cfRule type="expression" dxfId="88" priority="62">
       <formula>AND($A2="end repeat", $B2 = "", $C2 = "", $E2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $N2 = "", $O2 = "", $P2 = "", $R2 = "", $S2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28 A2:A7 A17:A18 A20:A25">
-    <cfRule type="containsText" dxfId="87" priority="77" operator="containsText" text="calculate">
+  <conditionalFormatting sqref="A28 A2:A7 A17:A22 A24:A25">
+    <cfRule type="containsText" dxfId="87" priority="66" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C7 C17:C18 C20:C25">
-    <cfRule type="expression" dxfId="86" priority="78">
+  <conditionalFormatting sqref="C2:C7 C17:C25">
+    <cfRule type="expression" dxfId="86" priority="67">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $C2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A7 A17:A18 A20:A25">
-    <cfRule type="cellIs" dxfId="85" priority="79" operator="equal">
+  <conditionalFormatting sqref="A2:A7 A17:A22 A24:A25">
+    <cfRule type="cellIs" dxfId="85" priority="68" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="84" priority="80">
+    <cfRule type="expression" dxfId="84" priority="69">
       <formula>AND($A28="begin group", NOT($B28 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="83" priority="81">
+    <cfRule type="expression" dxfId="83" priority="70">
       <formula>AND($A28="end group", $B28 = "", $C28 = "", $E28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $N28 = "", $O28 = "", $P28 = "", $R28 = "", $S28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="cellIs" dxfId="82" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="71" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="81" priority="83">
+    <cfRule type="expression" dxfId="81" priority="72">
       <formula>AND(AND(NOT($A28 = "end group"), NOT($A28 = "end repeat"), NOT($A28 = "")), $C28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="80" priority="84">
+    <cfRule type="expression" dxfId="80" priority="73">
       <formula>AND(AND(NOT($A28 = "end group"), NOT($A28 = "end repeat"), NOT($A28 = "")), $B28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="79" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="74" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="78" priority="86">
+    <cfRule type="expression" dxfId="78" priority="75">
       <formula>AND($A28="begin repeat", NOT($B28 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="77" priority="87">
+    <cfRule type="expression" dxfId="77" priority="76">
       <formula>AND($A28="end repeat", $B28 = "", $C28 = "", $E28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $N28 = "", $O28 = "", $P28 = "", $R28 = "", $S28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="containsText" dxfId="76" priority="97" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="76" priority="86" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A26))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="75" priority="98">
+    <cfRule type="expression" dxfId="75" priority="87">
       <formula>AND($A26="begin group", NOT($B26 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="74" priority="99">
+    <cfRule type="expression" dxfId="74" priority="88">
       <formula>AND($A26="end group", $B26 = "", $C26 = "", $E26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $N26 = "", $O26 = "", $P26 = "", $R26 = "", $S26 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="cellIs" dxfId="73" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="89" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="cellIs" dxfId="72" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="90" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="71" priority="102">
+    <cfRule type="expression" dxfId="71" priority="91">
       <formula>AND($A26="begin repeat", NOT($B26 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="70" priority="103">
+    <cfRule type="expression" dxfId="70" priority="92">
       <formula>AND($A26="end repeat", $B26 = "", $C26 = "", $E26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $N26 = "", $O26 = "", $P26 = "", $R26 = "", $S26 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="containsText" dxfId="69" priority="104" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="69" priority="93" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="68" priority="88">
+    <cfRule type="expression" dxfId="68" priority="77">
       <formula>AND($A27="begin group", NOT($B27 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="67" priority="89">
+    <cfRule type="expression" dxfId="67" priority="78">
       <formula>AND($A27="end group", $B27 = "", $C27 = "", $E27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $N27 = "", $O27 = "", $P27 = "", $R27 = "", $S27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="cellIs" dxfId="66" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="79" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="65" priority="91">
+    <cfRule type="expression" dxfId="65" priority="80">
       <formula>AND(AND(NOT($A27 = "end group"), NOT($A27 = "end repeat"), NOT($A27 = "")), $C27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="64" priority="92">
+    <cfRule type="expression" dxfId="64" priority="81">
       <formula>AND(AND(NOT($A27 = "end group"), NOT($A27 = "end repeat"), NOT($A27 = "")), $B27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="cellIs" dxfId="63" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="82" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="62" priority="95">
+    <cfRule type="expression" dxfId="62" priority="84">
       <formula>AND($A27="begin repeat", NOT($B27 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="61" priority="96">
+    <cfRule type="expression" dxfId="61" priority="85">
       <formula>AND($A27="end repeat", $B27 = "", $C27 = "", $E27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $N27 = "", $O27 = "", $P27 = "", $R27 = "", $S27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="containsText" dxfId="60" priority="60" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="60" priority="49" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="59" priority="61">
+    <cfRule type="expression" dxfId="59" priority="50">
       <formula>AND($A8="begin group", NOT($B8 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="58" priority="62">
+    <cfRule type="expression" dxfId="58" priority="51">
       <formula>AND($A8="end group", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="57" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="52" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="56" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="53" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="55" priority="65">
+    <cfRule type="expression" dxfId="55" priority="54">
       <formula>AND($A8="begin repeat", NOT($B8 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="54" priority="66">
+    <cfRule type="expression" dxfId="54" priority="55">
       <formula>AND($A8="end repeat", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="53" priority="53">
+    <cfRule type="expression" dxfId="53" priority="42">
       <formula>AND($A8="begin group", NOT($B8 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="52" priority="54">
+    <cfRule type="expression" dxfId="52" priority="43">
       <formula>AND($A8="end group", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="51" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="44" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="50" priority="56">
+    <cfRule type="expression" dxfId="50" priority="45">
       <formula>AND(AND(NOT($A8 = "end group"), NOT($A8 = "end repeat"), NOT($A8 = "")), $B8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="49" priority="58">
+    <cfRule type="expression" dxfId="49" priority="47">
       <formula>AND($A8="begin repeat", NOT($B8 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="48" priority="59">
+    <cfRule type="expression" dxfId="48" priority="48">
       <formula>AND($A8="end repeat", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29:A30">
-    <cfRule type="expression" dxfId="47" priority="39">
-      <formula>AND($A29="begin group", NOT($B29 = ""))</formula>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="expression" dxfId="47" priority="28">
+      <formula>AND($A30="begin group", NOT($B30 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29:A30">
-    <cfRule type="expression" dxfId="46" priority="40">
-      <formula>AND($A29="end group", $B29 = "", $C29 = "", $E29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $N29 = "", $O29 = "", $P29 = "", $R29 = "", $S29 = "")</formula>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="expression" dxfId="46" priority="29">
+      <formula>AND($A30="end group", $B30 = "", $C30 = "", $E30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $N30 = "", $O30 = "", $P30 = "", $R30 = "", $S30 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29:A30">
-    <cfRule type="cellIs" dxfId="45" priority="41" operator="equal">
+  <conditionalFormatting sqref="A30">
+    <cfRule type="cellIs" dxfId="45" priority="30" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29:A30">
-    <cfRule type="expression" dxfId="44" priority="42">
-      <formula>AND($A29="begin repeat", NOT($B29 = ""))</formula>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="expression" dxfId="44" priority="31">
+      <formula>AND($A30="begin repeat", NOT($B30 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29:A30">
-    <cfRule type="expression" dxfId="43" priority="43">
-      <formula>AND($A29="end repeat", $B29 = "", $C29 = "", $E29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $N29 = "", $O29 = "", $P29 = "", $R29 = "", $S29 = "")</formula>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="expression" dxfId="43" priority="32">
+      <formula>AND($A30="end repeat", $B30 = "", $C30 = "", $E30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $N30 = "", $O30 = "", $P30 = "", $R30 = "", $S30 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29:A30">
-    <cfRule type="containsText" dxfId="42" priority="44" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A29))))</formula>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="containsText" dxfId="42" priority="33" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A30))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="41" priority="214">
+    <cfRule type="expression" dxfId="41" priority="203">
       <formula>COUNTIF($B$2:$B$1096,B8)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17 B27:B28 B21:B25">
-    <cfRule type="expression" dxfId="40" priority="215">
+  <conditionalFormatting sqref="B27:B28 B20:B22 B17:B18 B24:B25">
+    <cfRule type="expression" dxfId="40" priority="204">
       <formula>COUNTIF($B$9:$B$1103,B17)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B7">
-    <cfRule type="expression" dxfId="39" priority="218">
+    <cfRule type="expression" dxfId="39" priority="207">
       <formula>COUNTIF($B$2:$B$1095,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20 A22:C24 C20">
-    <cfRule type="expression" dxfId="38" priority="221">
+  <conditionalFormatting sqref="A20:C20 A22:C22 A24:C24 C23">
+    <cfRule type="expression" dxfId="38" priority="210">
       <formula>AND($A20="end group", $B20 = "", $C20 = "", #REF! = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $N20 = "", $O20 = "", $P20 = "", $R20 = "", $S20 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20 A22:C24 C20">
-    <cfRule type="expression" dxfId="37" priority="224">
+  <conditionalFormatting sqref="A20:C20 A22:C22 A24:C24 C23">
+    <cfRule type="expression" dxfId="37" priority="213">
       <formula>AND($A20="end repeat", $B20 = "", $C20 = "", #REF! = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $N20 = "", $O20 = "", $P20 = "", $R20 = "", $S20 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="36" priority="32">
+    <cfRule type="expression" dxfId="36" priority="21">
       <formula>AND($A31="begin group", NOT($B31 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="35" priority="33">
+    <cfRule type="expression" dxfId="35" priority="22">
       <formula>AND($A31="end group", $B31 = "", $C31 = "", $E31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $N31 = "", $O31 = "", $P31 = "", $R31 = "", $S31 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="23" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="33" priority="35">
+    <cfRule type="expression" dxfId="33" priority="24">
       <formula>AND($A31="begin repeat", NOT($B31 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="32" priority="36">
+    <cfRule type="expression" dxfId="32" priority="25">
       <formula>AND($A31="end repeat", $B31 = "", $C31 = "", $E31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $N31 = "", $O31 = "", $P31 = "", $R31 = "", $S31 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="containsText" dxfId="31" priority="37" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="31" priority="26" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A31))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18 C18">
-    <cfRule type="expression" dxfId="30" priority="246">
-      <formula>AND($A18="end group", $B18 = "", $C18 = "", $E20 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $N18 = "", $O18 = "", $P18 = "", $R18 = "", $S18 = "")</formula>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="expression" dxfId="30" priority="238">
+      <formula>AND($A19="begin group", NOT($B18 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18 C18">
-    <cfRule type="expression" dxfId="29" priority="247">
-      <formula>AND($A18="end repeat", $B18 = "", $C18 = "", $E20 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $N18 = "", $O18 = "", $P18 = "", $R18 = "", $S18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19 C19">
-    <cfRule type="expression" dxfId="28" priority="22">
-      <formula>AND($A19="begin group", NOT($B19 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19 C19">
-    <cfRule type="cellIs" dxfId="27" priority="23" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19 C19">
-    <cfRule type="expression" dxfId="26" priority="25">
-      <formula>AND($A19="begin repeat", NOT($B19 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
-    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A19))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="24" priority="27">
-      <formula>AND(AND(NOT($A19 = "end group"), NOT($A19 = "end repeat"), NOT($A19 = "")), $C19 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19 C19">
-    <cfRule type="expression" dxfId="22" priority="30">
-      <formula>AND($A19="end group", $B19 = "", $C19 = "", $E21 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19 C19">
-    <cfRule type="expression" dxfId="21" priority="31">
-      <formula>AND($A19="end repeat", $B19 = "", $C19 = "", $E21 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="19" priority="16">
-      <formula>COUNTIF($B$9:$B$1103,B19)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="18" priority="17">
-      <formula>AND($A20="begin group", NOT($B19 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="17" priority="18">
-      <formula>AND(AND(NOT($A20 = "end group"), NOT($A20 = "end repeat"), NOT($A20 = "")), $B19 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="16" priority="19">
-      <formula>AND($A20="begin repeat", NOT($B19 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="15" priority="20">
-      <formula>AND($A20="end group", $B19 = "", $C20 = "", $E22 = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $N20 = "", $O20 = "", $P20 = "", $R20 = "", $S20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="14" priority="21">
-      <formula>AND($A20="end repeat", $B19 = "", $C20 = "", $E22 = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $N20 = "", $O20 = "", $P20 = "", $R20 = "", $S20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="13" priority="8">
-      <formula>AND($A20="begin group", NOT($B20 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="11" priority="10">
-      <formula>AND(AND(NOT($A20 = "end group"), NOT($A20 = "end repeat"), NOT($A20 = "")), $B20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>AND($A20="begin repeat", NOT($B20 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="9" priority="12">
-      <formula>COUNTIF($B$9:$B$1103,B20)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="8" priority="13">
-      <formula>AND($A20="end group", $B20 = "", $C20 = "", #REF! = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $N20 = "", $O20 = "", $P20 = "", $R20 = "", $S20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="7" priority="14">
-      <formula>AND($A20="end repeat", $B20 = "", $C20 = "", #REF! = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $N20 = "", $O20 = "", $P20 = "", $R20 = "", $S20 = "")</formula>
+  <conditionalFormatting sqref="A18:A19 C18:C19">
+    <cfRule type="expression" dxfId="29" priority="239">
+      <formula>AND($A18="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="5" priority="2">
-      <formula>COUNTIF($B$9:$B$1103,B18)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="4" priority="3">
-      <formula>AND($A19="begin group", NOT($B18 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="28" priority="244">
       <formula>AND(AND(NOT($A19 = "end group"), NOT($A19 = "end repeat"), NOT($A19 = "")), $B18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="27" priority="246">
       <formula>AND($A19="begin repeat", NOT($B18 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="1" priority="6">
+  <conditionalFormatting sqref="A18:A19 C18:C19">
+    <cfRule type="expression" dxfId="26" priority="247">
+      <formula>AND($A18="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19 C19">
+    <cfRule type="expression" dxfId="25" priority="256">
       <formula>AND($A19="end group", $B18 = "", $C19 = "", $E21 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="0" priority="7">
+    <cfRule type="expression" dxfId="24" priority="257">
+      <formula>AND($A19="end group", $B18 = "", $C19 = "", $E21 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18 C18">
+    <cfRule type="expression" dxfId="23" priority="258">
+      <formula>AND($A18="end group", #REF! = "", $C18 = "", $E20 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $N18 = "", $O18 = "", $P18 = "", $R18 = "", $S18 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19 C19">
+    <cfRule type="expression" dxfId="22" priority="260">
       <formula>AND($A19="end repeat", $B18 = "", $C19 = "", $E21 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="expression" dxfId="21" priority="261">
+      <formula>AND($A19="end repeat", $B18 = "", $C19 = "", $E21 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18 C18">
+    <cfRule type="expression" dxfId="20" priority="262">
+      <formula>AND($A18="end repeat", #REF! = "", $C18 = "", $E20 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $N18 = "", $O18 = "", $P18 = "", $R18 = "", $S18 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="19" priority="14">
+      <formula>AND($A23="begin group", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="17" priority="16">
+      <formula>AND(AND(NOT($A23 = "end group"), NOT($A23 = "end repeat"), NOT($A23 = "")), $B23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>AND($A23="begin repeat", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="15" priority="18">
+      <formula>COUNTIF($B$9:$B$1103,B23)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="14" priority="19">
+      <formula>AND($A23="end group", $B23 = "", $C23 = "", #REF! = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $N23 = "", $O23 = "", $P23 = "", $R23 = "", $S23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="13" priority="20">
+      <formula>AND($A23="end repeat", $B23 = "", $C23 = "", #REF! = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $N23 = "", $O23 = "", $P23 = "", $R23 = "", $S23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="expression" dxfId="12" priority="7">
+      <formula>AND($A23="begin group", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="expression" dxfId="10" priority="9">
+      <formula>AND($A23="begin repeat", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="expression" dxfId="7" priority="12">
+      <formula>AND($A23="end group", $B23 = "", $C23 = "", #REF! = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $N23 = "", $O23 = "", $P23 = "", $R23 = "", $S23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="expression" dxfId="6" priority="13">
+      <formula>AND($A23="end repeat", $B23 = "", $C23 = "", #REF! = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $N23 = "", $O23 = "", $P23 = "", $R23 = "", $S23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>AND($A29="begin group", NOT($B29 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>AND($A29="end group", $B29 = "", $C29 = "", $E29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $N29 = "", $O29 = "", $P29 = "", $R29 = "", $S29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>AND($A29="begin repeat", NOT($B29 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="expression" dxfId="1" priority="5">
+      <formula>AND($A29="end repeat", $B29 = "", $C29 = "", $E29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $N29 = "", $O29 = "", $P29 = "", $R29 = "", $S29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A29))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30091,8 +30086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -30372,7 +30367,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>2</v>
@@ -30383,7 +30378,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>9</v>
@@ -30393,26 +30388,12 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>33</v>
-      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30424,19 +30405,20 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="14" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.6640625" style="12" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="34" style="12" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="16" width="7.6640625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="21.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="16" width="7.6640625" style="12" customWidth="1"/>
     <col min="17" max="26" width="15.109375" style="12" customWidth="1"/>
     <col min="27" max="16384" width="14.44140625" style="12"/>
   </cols>
@@ -30463,20 +30445,20 @@
       <c r="G1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="13" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C2" s="14" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-05 19-55</v>
+        <v>2022-10-05 22-50</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>20</v>

--- a/forms/contact/house_hold-edit.xlsx
+++ b/forms/contact/house_hold-edit.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="117">
   <si>
     <t xml:space="preserve">Name of Household Head </t>
   </si>
@@ -190,21 +190,6 @@
     <t>select_one health_insurance_cover</t>
   </si>
   <si>
-    <t>select_one latrine</t>
-  </si>
-  <si>
-    <t>select_one handwashing_basin</t>
-  </si>
-  <si>
-    <t>select_one safe_water</t>
-  </si>
-  <si>
-    <t>select_one treated_water</t>
-  </si>
-  <si>
-    <t>select_one refuse_disposal</t>
-  </si>
-  <si>
     <t>allow_choice_duplicates</t>
   </si>
   <si>
@@ -221,21 +206,6 @@
   </si>
   <si>
     <t>other</t>
-  </si>
-  <si>
-    <t>Does ${house_name} household have a functional latrine?</t>
-  </si>
-  <si>
-    <t>Does ${house_name} household have functional handwashing facilities?</t>
-  </si>
-  <si>
-    <t>Does ${house_name} household have access to safe water?</t>
-  </si>
-  <si>
-    <t>Does ${house_name} household use treated water?</t>
-  </si>
-  <si>
-    <t>Does ${house_name} household have functional refuse disposal facility?</t>
   </si>
   <si>
     <t>Does ${house_name} know their date of birth</t>
@@ -480,7 +450,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -513,12 +483,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6B8AF"/>
-        <bgColor rgb="FFE6B8AF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -533,12 +497,6 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -602,15 +560,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -618,13 +570,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -633,13 +578,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -650,51 +594,75 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="94">
+  <dxfs count="93">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFB7B7B7"/>
@@ -857,14 +825,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFCFE2F3"/>
           <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1112,30 +1072,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFCFE2F3"/>
           <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1904,51 +1840,51 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y1015"/>
+  <dimension ref="A1:Y1010"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>78</v>
+      <c r="D1" s="19" t="s">
+        <v>68</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>79</v>
+      <c r="E1" s="19" t="s">
+        <v>69</v>
       </c>
-      <c r="F1" s="25" t="s">
-        <v>107</v>
+      <c r="F1" s="19" t="s">
+        <v>97</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>74</v>
+      <c r="G1" s="19" t="s">
+        <v>64</v>
       </c>
-      <c r="H1" s="25" t="s">
-        <v>76</v>
+      <c r="H1" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1968,21 +1904,21 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" s="12" customFormat="1" ht="13.2">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:25" s="7" customFormat="1" ht="13.2">
+      <c r="A2" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>90</v>
+      <c r="C2" s="20" t="s">
+        <v>81</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2001,21 +1937,21 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" s="12" customFormat="1" ht="13.2">
-      <c r="A3" s="26" t="s">
-        <v>80</v>
+    <row r="3" spans="1:25" s="7" customFormat="1" ht="13.2">
+      <c r="A3" s="20" t="s">
+        <v>70</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>92</v>
+      <c r="B3" s="20" t="s">
+        <v>82</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>93</v>
+      <c r="C3" s="20" t="s">
+        <v>83</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -2034,21 +1970,21 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" s="12" customFormat="1" ht="13.2">
-      <c r="A4" s="26" t="s">
-        <v>86</v>
+    <row r="4" spans="1:25" s="7" customFormat="1" ht="13.2">
+      <c r="A4" s="20" t="s">
+        <v>76</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>94</v>
+      <c r="B4" s="20" t="s">
+        <v>84</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>95</v>
+      <c r="C4" s="20" t="s">
+        <v>85</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -2067,21 +2003,21 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" s="12" customFormat="1" ht="13.2">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:25" s="7" customFormat="1" ht="13.2">
+      <c r="A5" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -2100,17 +2036,17 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" s="12" customFormat="1" ht="13.2">
-      <c r="A6" s="26" t="s">
-        <v>84</v>
+    <row r="6" spans="1:25" s="7" customFormat="1" ht="13.2">
+      <c r="A6" s="20" t="s">
+        <v>74</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -2129,17 +2065,17 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" s="12" customFormat="1" ht="13.2">
-      <c r="A7" s="26" t="s">
-        <v>84</v>
+    <row r="7" spans="1:25" s="7" customFormat="1" ht="13.2">
+      <c r="A7" s="20" t="s">
+        <v>74</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -2158,21 +2094,21 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" s="12" customFormat="1" ht="13.2">
-      <c r="A8" s="33" t="s">
-        <v>80</v>
+    <row r="8" spans="1:25" s="7" customFormat="1" ht="13.2">
+      <c r="A8" s="27" t="s">
+        <v>70</v>
       </c>
-      <c r="B8" s="33" t="s">
-        <v>98</v>
+      <c r="B8" s="27" t="s">
+        <v>88</v>
       </c>
-      <c r="C8" s="34" t="s">
-        <v>97</v>
+      <c r="C8" s="28" t="s">
+        <v>87</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -2192,22 +2128,22 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="13.2">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -2227,22 +2163,22 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="13.2">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="38"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="32"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -2262,22 +2198,22 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="13.2">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="37" t="s">
-        <v>71</v>
+      <c r="C11" s="31" t="s">
+        <v>61</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="38"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="32"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -2297,24 +2233,24 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="19.2" customHeight="1">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="42" t="s">
-        <v>111</v>
+      <c r="E12" s="36" t="s">
+        <v>101</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="38"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="32"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -2334,27 +2270,27 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" ht="13.2">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="42" t="s">
-        <v>112</v>
+      <c r="E13" s="36" t="s">
+        <v>102</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="38" t="s">
-        <v>75</v>
+      <c r="F13" s="36"/>
+      <c r="G13" s="32" t="s">
+        <v>65</v>
       </c>
-      <c r="H13" s="38" t="s">
-        <v>73</v>
+      <c r="H13" s="32" t="s">
+        <v>63</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -2375,22 +2311,22 @@
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:25" ht="13.2">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -2410,22 +2346,22 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="13.2">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -2444,17 +2380,17 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" s="12" customFormat="1" ht="13.2">
-      <c r="A16" s="36" t="s">
-        <v>84</v>
+    <row r="16" spans="1:25" s="7" customFormat="1" ht="13.2">
+      <c r="A16" s="30" t="s">
+        <v>74</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -2473,318 +2409,318 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" s="23" customFormat="1" ht="13.2">
-      <c r="A17" s="27" t="s">
-        <v>80</v>
+    <row r="17" spans="1:25" s="17" customFormat="1" ht="13.2">
+      <c r="A17" s="21" t="s">
+        <v>70</v>
       </c>
-      <c r="B17" s="27" t="s">
-        <v>81</v>
+      <c r="B17" s="21" t="s">
+        <v>71</v>
       </c>
-      <c r="C17" s="27" t="s">
-        <v>82</v>
+      <c r="C17" s="21" t="s">
+        <v>72</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-    </row>
-    <row r="18" spans="1:25" s="23" customFormat="1" ht="13.2">
-      <c r="A18" s="30" t="s">
-        <v>118</v>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+    </row>
+    <row r="18" spans="1:25" s="17" customFormat="1" ht="13.2">
+      <c r="A18" s="24" t="s">
+        <v>108</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="30" t="s">
-        <v>87</v>
+      <c r="C18" s="24" t="s">
+        <v>77</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
-    </row>
-    <row r="19" spans="1:25" s="23" customFormat="1" ht="26.4">
-      <c r="A19" s="30" t="s">
-        <v>119</v>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+    </row>
+    <row r="19" spans="1:25" s="17" customFormat="1" ht="26.4">
+      <c r="A19" s="24" t="s">
+        <v>109</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="30" t="s">
-        <v>117</v>
+      <c r="C19" s="24" t="s">
+        <v>107</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="24"/>
-    </row>
-    <row r="20" spans="1:25" s="23" customFormat="1" ht="13.2">
-      <c r="A20" s="26" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+    </row>
+    <row r="20" spans="1:25" s="17" customFormat="1" ht="13.2">
+      <c r="A20" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+    </row>
+    <row r="21" spans="1:25" s="17" customFormat="1" ht="13.2">
+      <c r="A21" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+    </row>
+    <row r="22" spans="1:25" s="17" customFormat="1" ht="13.2">
+      <c r="A22" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+    </row>
+    <row r="23" spans="1:25" s="17" customFormat="1" ht="13.2">
+      <c r="A23" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="18"/>
+    </row>
+    <row r="24" spans="1:25" s="17" customFormat="1" ht="13.2">
+      <c r="A24" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="26" t="s">
-        <v>83</v>
+      <c r="C24" s="24" t="s">
+        <v>96</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="4" t="s">
-        <v>120</v>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="18"/>
+    </row>
+    <row r="25" spans="1:25" s="17" customFormat="1" ht="13.2">
+      <c r="A25" s="24" t="s">
+        <v>51</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>108</v>
+      <c r="B25" s="24" t="s">
+        <v>29</v>
       </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="24"/>
-      <c r="Y20" s="24"/>
-    </row>
-    <row r="21" spans="1:25" s="23" customFormat="1" ht="13.2">
-      <c r="A21" s="30" t="s">
-        <v>84</v>
+      <c r="C25" s="24" t="s">
+        <v>3</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24"/>
-    </row>
-    <row r="22" spans="1:25" s="23" customFormat="1" ht="13.2">
-      <c r="A22" s="30" t="s">
-        <v>80</v>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="18"/>
+    </row>
+    <row r="26" spans="1:25" s="17" customFormat="1" ht="13.2">
+      <c r="A26" s="24" t="s">
+        <v>91</v>
       </c>
-      <c r="B22" s="30" t="s">
-        <v>85</v>
+      <c r="B26" s="24" t="s">
+        <v>78</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C26" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="24"/>
-    </row>
-    <row r="23" spans="1:25" s="23" customFormat="1" ht="13.2">
-      <c r="A23" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="24"/>
-    </row>
-    <row r="24" spans="1:25" s="23" customFormat="1" ht="13.2">
-      <c r="A24" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="24"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="24"/>
-    </row>
-    <row r="25" spans="1:25" s="23" customFormat="1" ht="13.2">
-      <c r="A25" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="24"/>
-    </row>
-    <row r="26" spans="1:25" s="23" customFormat="1" ht="13.2">
-      <c r="A26" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -2803,25 +2739,25 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" s="23" customFormat="1" ht="13.2">
-      <c r="A27" s="30" t="s">
+    <row r="27" spans="1:25" s="17" customFormat="1" ht="13.2">
+      <c r="A27" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="42" t="s">
-        <v>113</v>
+      <c r="E27" s="36" t="s">
+        <v>103</v>
       </c>
-      <c r="F27" s="42"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -2840,25 +2776,25 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" s="23" customFormat="1" ht="13.2">
-      <c r="A28" s="30" t="s">
+    <row r="28" spans="1:25" s="17" customFormat="1" ht="13.2">
+      <c r="A28" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="30" t="s">
-        <v>102</v>
+      <c r="B28" s="24" t="s">
+        <v>92</v>
       </c>
-      <c r="C28" s="30" t="s">
-        <v>89</v>
+      <c r="C28" s="24" t="s">
+        <v>79</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="42" t="s">
-        <v>114</v>
+      <c r="E28" s="36" t="s">
+        <v>104</v>
       </c>
-      <c r="F28" s="42"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -2877,17 +2813,17 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" s="12" customFormat="1" ht="13.2">
-      <c r="A29" s="31" t="s">
-        <v>124</v>
+    <row r="29" spans="1:25" s="7" customFormat="1" ht="13.2">
+      <c r="A29" s="25" t="s">
+        <v>114</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -2906,17 +2842,17 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" s="12" customFormat="1" ht="13.2">
-      <c r="A30" s="31" t="s">
-        <v>84</v>
+    <row r="30" spans="1:25" s="7" customFormat="1" ht="13.2">
+      <c r="A30" s="25" t="s">
+        <v>74</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -2935,21 +2871,21 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" s="12" customFormat="1" ht="13.2">
-      <c r="A31" s="31" t="s">
-        <v>80</v>
+    <row r="31" spans="1:25" s="7" customFormat="1" ht="13.2">
+      <c r="A31" s="25" t="s">
+        <v>70</v>
       </c>
-      <c r="B31" s="21" t="s">
-        <v>104</v>
+      <c r="B31" s="15" t="s">
+        <v>94</v>
       </c>
-      <c r="C31" s="22" t="s">
-        <v>103</v>
+      <c r="C31" s="16" t="s">
+        <v>93</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -2969,131 +2905,125 @@
       <c r="Y31" s="1"/>
     </row>
     <row r="32" spans="1:25" ht="13.2">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+    </row>
+    <row r="33" spans="1:25" ht="13.2">
+      <c r="A33" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+    </row>
+    <row r="34" spans="1:25" ht="13.2">
+      <c r="A34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>2</v>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+    </row>
+    <row r="35" spans="1:25" ht="13.2">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="7"/>
-      <c r="X32" s="7"/>
-      <c r="Y32" s="7"/>
-    </row>
-    <row r="33" spans="1:25" ht="13.2">
-      <c r="A33" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
-      <c r="W33" s="7"/>
-      <c r="X33" s="7"/>
-      <c r="Y33" s="7"/>
-    </row>
-    <row r="34" spans="1:25" ht="13.2">
-      <c r="A34" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7"/>
-      <c r="W34" s="7"/>
-      <c r="X34" s="7"/>
-      <c r="Y34" s="7"/>
-    </row>
-    <row r="35" spans="1:25" ht="13.2">
-      <c r="A35" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="19"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -3113,22 +3043,14 @@
       <c r="Y35" s="1"/>
     </row>
     <row r="36" spans="1:25" ht="13.2">
-      <c r="A36" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="19"/>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -3148,22 +3070,14 @@
       <c r="Y36" s="1"/>
     </row>
     <row r="37" spans="1:25" ht="13.2">
-      <c r="A37" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="19"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -3183,22 +3097,14 @@
       <c r="Y37" s="1"/>
     </row>
     <row r="38" spans="1:25" ht="13.2">
-      <c r="A38" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="19"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -3218,22 +3124,14 @@
       <c r="Y38" s="1"/>
     </row>
     <row r="39" spans="1:25" ht="13.2">
-      <c r="A39" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="19"/>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -3253,9 +3151,7 @@
       <c r="Y39" s="1"/>
     </row>
     <row r="40" spans="1:25" ht="13.2">
-      <c r="A40" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -29471,610 +29367,470 @@
       <c r="X1010" s="1"/>
       <c r="Y1010" s="1"/>
     </row>
-    <row r="1011" spans="1:25" ht="13.2">
-      <c r="A1011" s="1"/>
-      <c r="B1011" s="1"/>
-      <c r="C1011" s="1"/>
-      <c r="D1011" s="1"/>
-      <c r="E1011" s="1"/>
-      <c r="F1011" s="1"/>
-      <c r="G1011" s="1"/>
-      <c r="H1011" s="1"/>
-      <c r="I1011" s="1"/>
-      <c r="J1011" s="1"/>
-      <c r="K1011" s="1"/>
-      <c r="L1011" s="1"/>
-      <c r="M1011" s="1"/>
-      <c r="N1011" s="1"/>
-      <c r="O1011" s="1"/>
-      <c r="P1011" s="1"/>
-      <c r="Q1011" s="1"/>
-      <c r="R1011" s="1"/>
-      <c r="S1011" s="1"/>
-      <c r="T1011" s="1"/>
-      <c r="U1011" s="1"/>
-      <c r="V1011" s="1"/>
-      <c r="W1011" s="1"/>
-      <c r="X1011" s="1"/>
-      <c r="Y1011" s="1"/>
-    </row>
-    <row r="1012" spans="1:25" ht="13.2">
-      <c r="A1012" s="1"/>
-      <c r="B1012" s="1"/>
-      <c r="C1012" s="1"/>
-      <c r="D1012" s="1"/>
-      <c r="E1012" s="1"/>
-      <c r="F1012" s="1"/>
-      <c r="G1012" s="1"/>
-      <c r="H1012" s="1"/>
-      <c r="I1012" s="1"/>
-      <c r="J1012" s="1"/>
-      <c r="K1012" s="1"/>
-      <c r="L1012" s="1"/>
-      <c r="M1012" s="1"/>
-      <c r="N1012" s="1"/>
-      <c r="O1012" s="1"/>
-      <c r="P1012" s="1"/>
-      <c r="Q1012" s="1"/>
-      <c r="R1012" s="1"/>
-      <c r="S1012" s="1"/>
-      <c r="T1012" s="1"/>
-      <c r="U1012" s="1"/>
-      <c r="V1012" s="1"/>
-      <c r="W1012" s="1"/>
-      <c r="X1012" s="1"/>
-      <c r="Y1012" s="1"/>
-    </row>
-    <row r="1013" spans="1:25" ht="13.2">
-      <c r="A1013" s="1"/>
-      <c r="B1013" s="1"/>
-      <c r="C1013" s="1"/>
-      <c r="D1013" s="1"/>
-      <c r="E1013" s="1"/>
-      <c r="F1013" s="1"/>
-      <c r="G1013" s="1"/>
-      <c r="H1013" s="1"/>
-      <c r="I1013" s="1"/>
-      <c r="J1013" s="1"/>
-      <c r="K1013" s="1"/>
-      <c r="L1013" s="1"/>
-      <c r="M1013" s="1"/>
-      <c r="N1013" s="1"/>
-      <c r="O1013" s="1"/>
-      <c r="P1013" s="1"/>
-      <c r="Q1013" s="1"/>
-      <c r="R1013" s="1"/>
-      <c r="S1013" s="1"/>
-      <c r="T1013" s="1"/>
-      <c r="U1013" s="1"/>
-      <c r="V1013" s="1"/>
-      <c r="W1013" s="1"/>
-      <c r="X1013" s="1"/>
-      <c r="Y1013" s="1"/>
-    </row>
-    <row r="1014" spans="1:25" ht="13.2">
-      <c r="A1014" s="1"/>
-      <c r="B1014" s="1"/>
-      <c r="C1014" s="1"/>
-      <c r="D1014" s="1"/>
-      <c r="E1014" s="1"/>
-      <c r="F1014" s="1"/>
-      <c r="G1014" s="1"/>
-      <c r="H1014" s="1"/>
-      <c r="I1014" s="1"/>
-      <c r="J1014" s="1"/>
-      <c r="K1014" s="1"/>
-      <c r="L1014" s="1"/>
-      <c r="M1014" s="1"/>
-      <c r="N1014" s="1"/>
-      <c r="O1014" s="1"/>
-      <c r="P1014" s="1"/>
-      <c r="Q1014" s="1"/>
-      <c r="R1014" s="1"/>
-      <c r="S1014" s="1"/>
-      <c r="T1014" s="1"/>
-      <c r="U1014" s="1"/>
-      <c r="V1014" s="1"/>
-      <c r="W1014" s="1"/>
-      <c r="X1014" s="1"/>
-      <c r="Y1014" s="1"/>
-    </row>
-    <row r="1015" spans="1:25" ht="13.2">
-      <c r="A1015" s="1"/>
-      <c r="B1015" s="1"/>
-      <c r="C1015" s="1"/>
-      <c r="D1015" s="1"/>
-      <c r="E1015" s="1"/>
-      <c r="F1015" s="1"/>
-      <c r="G1015" s="1"/>
-      <c r="H1015" s="1"/>
-      <c r="I1015" s="1"/>
-      <c r="J1015" s="1"/>
-      <c r="K1015" s="1"/>
-      <c r="L1015" s="1"/>
-      <c r="M1015" s="1"/>
-      <c r="N1015" s="1"/>
-      <c r="O1015" s="1"/>
-      <c r="P1015" s="1"/>
-      <c r="Q1015" s="1"/>
-      <c r="R1015" s="1"/>
-      <c r="S1015" s="1"/>
-      <c r="T1015" s="1"/>
-      <c r="U1015" s="1"/>
-      <c r="V1015" s="1"/>
-      <c r="W1015" s="1"/>
-      <c r="X1015" s="1"/>
-      <c r="Y1015" s="1"/>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="A2:C7 A17:C17 A20:C22 A24:C25 C23">
-    <cfRule type="expression" dxfId="93" priority="56">
+    <cfRule type="expression" dxfId="92" priority="56">
       <formula>AND($A2="begin group", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C7 A17:C17 A25:C25 A21:C21">
-    <cfRule type="expression" dxfId="92" priority="57">
+    <cfRule type="expression" dxfId="91" priority="57">
       <formula>AND($A2="end group", $B2 = "", $C2 = "", $E2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $N2 = "", $O2 = "", $P2 = "", $R2 = "", $S2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C7 A20:C22 A19 C19 A17:C18 A24:C25 C23">
-    <cfRule type="cellIs" dxfId="91" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="58" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B7 B17 B20:B22 B24:B25">
-    <cfRule type="expression" dxfId="90" priority="59">
+    <cfRule type="expression" dxfId="89" priority="59">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $B2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C7 A17:C17 A20:C22 A24:C25 C23">
-    <cfRule type="expression" dxfId="89" priority="61">
+    <cfRule type="expression" dxfId="88" priority="61">
       <formula>AND($A2="begin repeat", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C7 A17:C17 A25:C25 A21:C21">
-    <cfRule type="expression" dxfId="88" priority="62">
+    <cfRule type="expression" dxfId="87" priority="62">
       <formula>AND($A2="end repeat", $B2 = "", $C2 = "", $E2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $N2 = "", $O2 = "", $P2 = "", $R2 = "", $S2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28 A2:A7 A17:A22 A24:A25">
-    <cfRule type="containsText" dxfId="87" priority="66" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="86" priority="66" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C7 C17:C25">
-    <cfRule type="expression" dxfId="86" priority="67">
+    <cfRule type="expression" dxfId="85" priority="67">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $C2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A7 A17:A22 A24:A25">
-    <cfRule type="cellIs" dxfId="85" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="68" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="84" priority="69">
+    <cfRule type="expression" dxfId="83" priority="69">
       <formula>AND($A28="begin group", NOT($B28 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="83" priority="70">
+    <cfRule type="expression" dxfId="82" priority="70">
       <formula>AND($A28="end group", $B28 = "", $C28 = "", $E28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $N28 = "", $O28 = "", $P28 = "", $R28 = "", $S28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="cellIs" dxfId="82" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="71" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="81" priority="72">
+    <cfRule type="expression" dxfId="80" priority="72">
       <formula>AND(AND(NOT($A28 = "end group"), NOT($A28 = "end repeat"), NOT($A28 = "")), $C28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="80" priority="73">
+    <cfRule type="expression" dxfId="79" priority="73">
       <formula>AND(AND(NOT($A28 = "end group"), NOT($A28 = "end repeat"), NOT($A28 = "")), $B28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="79" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="74" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="78" priority="75">
+    <cfRule type="expression" dxfId="77" priority="75">
       <formula>AND($A28="begin repeat", NOT($B28 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="77" priority="76">
+    <cfRule type="expression" dxfId="76" priority="76">
       <formula>AND($A28="end repeat", $B28 = "", $C28 = "", $E28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $N28 = "", $O28 = "", $P28 = "", $R28 = "", $S28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="containsText" dxfId="76" priority="86" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="75" priority="86" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A26))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="75" priority="87">
+    <cfRule type="expression" dxfId="74" priority="87">
       <formula>AND($A26="begin group", NOT($B26 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="74" priority="88">
+    <cfRule type="expression" dxfId="73" priority="88">
       <formula>AND($A26="end group", $B26 = "", $C26 = "", $E26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $N26 = "", $O26 = "", $P26 = "", $R26 = "", $S26 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="cellIs" dxfId="73" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="89" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="cellIs" dxfId="72" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="90" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="71" priority="91">
+    <cfRule type="expression" dxfId="70" priority="91">
       <formula>AND($A26="begin repeat", NOT($B26 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="70" priority="92">
+    <cfRule type="expression" dxfId="69" priority="92">
       <formula>AND($A26="end repeat", $B26 = "", $C26 = "", $E26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $N26 = "", $O26 = "", $P26 = "", $R26 = "", $S26 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="containsText" dxfId="69" priority="93" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="68" priority="93" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="68" priority="77">
+    <cfRule type="expression" dxfId="67" priority="77">
       <formula>AND($A27="begin group", NOT($B27 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="67" priority="78">
+    <cfRule type="expression" dxfId="66" priority="78">
       <formula>AND($A27="end group", $B27 = "", $C27 = "", $E27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $N27 = "", $O27 = "", $P27 = "", $R27 = "", $S27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="cellIs" dxfId="66" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="79" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="65" priority="80">
+    <cfRule type="expression" dxfId="64" priority="80">
       <formula>AND(AND(NOT($A27 = "end group"), NOT($A27 = "end repeat"), NOT($A27 = "")), $C27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="64" priority="81">
+    <cfRule type="expression" dxfId="63" priority="81">
       <formula>AND(AND(NOT($A27 = "end group"), NOT($A27 = "end repeat"), NOT($A27 = "")), $B27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="cellIs" dxfId="63" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="82" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="62" priority="84">
+    <cfRule type="expression" dxfId="61" priority="84">
       <formula>AND($A27="begin repeat", NOT($B27 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="61" priority="85">
+    <cfRule type="expression" dxfId="60" priority="85">
       <formula>AND($A27="end repeat", $B27 = "", $C27 = "", $E27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $N27 = "", $O27 = "", $P27 = "", $R27 = "", $S27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="containsText" dxfId="60" priority="49" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="59" priority="49" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="59" priority="50">
+    <cfRule type="expression" dxfId="58" priority="50">
       <formula>AND($A8="begin group", NOT($B8 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="58" priority="51">
+    <cfRule type="expression" dxfId="57" priority="51">
       <formula>AND($A8="end group", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="57" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="52" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="56" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="53" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="55" priority="54">
+    <cfRule type="expression" dxfId="54" priority="54">
       <formula>AND($A8="begin repeat", NOT($B8 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="54" priority="55">
+    <cfRule type="expression" dxfId="53" priority="55">
       <formula>AND($A8="end repeat", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="53" priority="42">
+    <cfRule type="expression" dxfId="52" priority="42">
       <formula>AND($A8="begin group", NOT($B8 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="52" priority="43">
+    <cfRule type="expression" dxfId="51" priority="43">
       <formula>AND($A8="end group", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="51" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="44" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="50" priority="45">
+    <cfRule type="expression" dxfId="49" priority="45">
       <formula>AND(AND(NOT($A8 = "end group"), NOT($A8 = "end repeat"), NOT($A8 = "")), $B8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="49" priority="47">
+    <cfRule type="expression" dxfId="48" priority="47">
       <formula>AND($A8="begin repeat", NOT($B8 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="48" priority="48">
+    <cfRule type="expression" dxfId="47" priority="48">
       <formula>AND($A8="end repeat", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="47" priority="28">
+    <cfRule type="expression" dxfId="46" priority="28">
       <formula>AND($A30="begin group", NOT($B30 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="46" priority="29">
+    <cfRule type="expression" dxfId="45" priority="29">
       <formula>AND($A30="end group", $B30 = "", $C30 = "", $E30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $N30 = "", $O30 = "", $P30 = "", $R30 = "", $S30 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="cellIs" dxfId="45" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="30" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="44" priority="31">
+    <cfRule type="expression" dxfId="43" priority="31">
       <formula>AND($A30="begin repeat", NOT($B30 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="43" priority="32">
+    <cfRule type="expression" dxfId="42" priority="32">
       <formula>AND($A30="end repeat", $B30 = "", $C30 = "", $E30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $N30 = "", $O30 = "", $P30 = "", $R30 = "", $S30 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="containsText" dxfId="42" priority="33" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="41" priority="33" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A30))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="41" priority="203">
-      <formula>COUNTIF($B$2:$B$1096,B8)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27:B28 B20:B22 B17:B18 B24:B25">
-    <cfRule type="expression" dxfId="40" priority="204">
-      <formula>COUNTIF($B$9:$B$1103,B17)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B7">
-    <cfRule type="expression" dxfId="39" priority="207">
-      <formula>COUNTIF($B$2:$B$1095,B2)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A20:C20 A22:C22 A24:C24 C23">
-    <cfRule type="expression" dxfId="38" priority="210">
+    <cfRule type="expression" dxfId="40" priority="210">
       <formula>AND($A20="end group", $B20 = "", $C20 = "", #REF! = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $N20 = "", $O20 = "", $P20 = "", $R20 = "", $S20 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:C20 A22:C22 A24:C24 C23">
-    <cfRule type="expression" dxfId="37" priority="213">
+    <cfRule type="expression" dxfId="39" priority="213">
       <formula>AND($A20="end repeat", $B20 = "", $C20 = "", #REF! = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $N20 = "", $O20 = "", $P20 = "", $R20 = "", $S20 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="36" priority="21">
+    <cfRule type="expression" dxfId="38" priority="21">
       <formula>AND($A31="begin group", NOT($B31 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="35" priority="22">
+    <cfRule type="expression" dxfId="37" priority="22">
       <formula>AND($A31="end group", $B31 = "", $C31 = "", $E31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $N31 = "", $O31 = "", $P31 = "", $R31 = "", $S31 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="cellIs" dxfId="34" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="23" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="33" priority="24">
+    <cfRule type="expression" dxfId="35" priority="24">
       <formula>AND($A31="begin repeat", NOT($B31 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="32" priority="25">
+    <cfRule type="expression" dxfId="34" priority="25">
       <formula>AND($A31="end repeat", $B31 = "", $C31 = "", $E31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $N31 = "", $O31 = "", $P31 = "", $R31 = "", $S31 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="containsText" dxfId="31" priority="26" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="33" priority="26" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A31))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="30" priority="238">
+    <cfRule type="expression" dxfId="32" priority="238">
       <formula>AND($A19="begin group", NOT($B18 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A19 C18:C19">
-    <cfRule type="expression" dxfId="29" priority="239">
+    <cfRule type="expression" dxfId="31" priority="239">
       <formula>AND($A18="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="28" priority="244">
+    <cfRule type="expression" dxfId="30" priority="244">
       <formula>AND(AND(NOT($A19 = "end group"), NOT($A19 = "end repeat"), NOT($A19 = "")), $B18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="27" priority="246">
+    <cfRule type="expression" dxfId="29" priority="246">
       <formula>AND($A19="begin repeat", NOT($B18 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A19 C18:C19">
-    <cfRule type="expression" dxfId="26" priority="247">
+    <cfRule type="expression" dxfId="28" priority="247">
       <formula>AND($A18="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19 C19">
-    <cfRule type="expression" dxfId="25" priority="256">
+    <cfRule type="expression" dxfId="27" priority="256">
       <formula>AND($A19="end group", $B18 = "", $C19 = "", $E21 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="24" priority="257">
+    <cfRule type="expression" dxfId="26" priority="257">
       <formula>AND($A19="end group", $B18 = "", $C19 = "", $E21 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18 C18">
-    <cfRule type="expression" dxfId="23" priority="258">
+    <cfRule type="expression" dxfId="25" priority="258">
       <formula>AND($A18="end group", #REF! = "", $C18 = "", $E20 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $N18 = "", $O18 = "", $P18 = "", $R18 = "", $S18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19 C19">
-    <cfRule type="expression" dxfId="22" priority="260">
+    <cfRule type="expression" dxfId="24" priority="260">
       <formula>AND($A19="end repeat", $B18 = "", $C19 = "", $E21 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="21" priority="261">
+    <cfRule type="expression" dxfId="23" priority="261">
       <formula>AND($A19="end repeat", $B18 = "", $C19 = "", $E21 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18 C18">
-    <cfRule type="expression" dxfId="20" priority="262">
+    <cfRule type="expression" dxfId="22" priority="262">
       <formula>AND($A18="end repeat", #REF! = "", $C18 = "", $E20 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $N18 = "", $O18 = "", $P18 = "", $R18 = "", $S18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="19" priority="14">
+    <cfRule type="expression" dxfId="21" priority="14">
       <formula>AND($A23="begin group", NOT($B23 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="17" priority="16">
+    <cfRule type="expression" dxfId="19" priority="16">
       <formula>AND(AND(NOT($A23 = "end group"), NOT($A23 = "end repeat"), NOT($A23 = "")), $B23 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="18" priority="17">
       <formula>AND($A23="begin repeat", NOT($B23 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="15" priority="18">
-      <formula>COUNTIF($B$9:$B$1103,B23)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="14" priority="19">
+    <cfRule type="expression" dxfId="17" priority="19">
       <formula>AND($A23="end group", $B23 = "", $C23 = "", #REF! = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $N23 = "", $O23 = "", $P23 = "", $R23 = "", $S23 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="13" priority="20">
+    <cfRule type="expression" dxfId="16" priority="20">
       <formula>AND($A23="end repeat", $B23 = "", $C23 = "", #REF! = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $N23 = "", $O23 = "", $P23 = "", $R23 = "", $S23 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="12" priority="7">
+    <cfRule type="expression" dxfId="15" priority="7">
       <formula>AND($A23="begin group", NOT($B23 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="10" priority="9">
+    <cfRule type="expression" dxfId="13" priority="9">
       <formula>AND($A23="begin repeat", NOT($B23 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A23))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="7" priority="12">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>AND($A23="end group", $B23 = "", $C23 = "", #REF! = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $N23 = "", $O23 = "", $P23 = "", $R23 = "", $S23 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="6" priority="13">
+    <cfRule type="expression" dxfId="9" priority="13">
       <formula>AND($A23="end repeat", $B23 = "", $C23 = "", #REF! = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $N23 = "", $O23 = "", $P23 = "", $R23 = "", $S23 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>AND($A29="begin group", NOT($B29 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>AND($A29="end group", $B29 = "", $C29 = "", $E29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $N29 = "", $O29 = "", $P29 = "", $R29 = "", $S29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>AND($A29="begin repeat", NOT($B29 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>AND($A29="end repeat", $B29 = "", $C29 = "", $E29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $N29 = "", $O29 = "", $P29 = "", $R29 = "", $S29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="expression" dxfId="2" priority="263">
+      <formula>COUNTIF($B$2:$B$1091,B8)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:B28 B17:B18 B20:B25">
+    <cfRule type="expression" dxfId="1" priority="264">
+      <formula>COUNTIF($B$9:$B$1098,B17)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B7">
+    <cfRule type="expression" dxfId="0" priority="268">
+      <formula>COUNTIF($B$2:$B$1090,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30097,303 +29853,303 @@
     <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="16" customFormat="1" ht="14.4">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:6" s="11" customFormat="1" ht="14.4">
+      <c r="A1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="16" customFormat="1">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:6" s="11" customFormat="1">
+      <c r="A2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>61</v>
+      <c r="B2" s="11" t="s">
+        <v>56</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="16" customFormat="1">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:6" s="11" customFormat="1">
+      <c r="A3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>62</v>
+      <c r="B3" s="11" t="s">
+        <v>57</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="16" customFormat="1">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:6" s="11" customFormat="1">
+      <c r="A4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="16" customFormat="1">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:6" s="11" customFormat="1">
+      <c r="A5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="16" customFormat="1">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:6" s="11" customFormat="1">
+      <c r="A6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="12"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="12"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="12"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>63</v>
+      <c r="B12" s="11" t="s">
+        <v>58</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>64</v>
+      <c r="B13" s="11" t="s">
+        <v>59</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>65</v>
+      <c r="B14" s="11" t="s">
+        <v>60</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30410,63 +30166,63 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="14" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="16" width="7.6640625" style="12" customWidth="1"/>
-    <col min="17" max="26" width="15.109375" style="12" customWidth="1"/>
-    <col min="27" max="16384" width="14.44140625" style="12"/>
+    <col min="1" max="1" width="14" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="16" width="7.6640625" style="7" customWidth="1"/>
+    <col min="17" max="26" width="15.109375" style="7" customWidth="1"/>
+    <col min="27" max="16384" width="14.44140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>60</v>
+      <c r="H1" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>126</v>
+      <c r="A2" s="7" t="s">
+        <v>116</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>125</v>
+      <c r="B2" s="7" t="s">
+        <v>115</v>
       </c>
-      <c r="C2" s="14" t="str">
+      <c r="C2" s="9" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-05 22-50</v>
+        <v>2022-10-05 23-17</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="7" t="s">
         <v>32</v>
       </c>
     </row>

--- a/forms/contact/house_hold-edit.xlsx
+++ b/forms/contact/house_hold-edit.xlsx
@@ -359,9 +359,6 @@
     <t>selected(../house_member, 'yes')</t>
   </si>
   <si>
-    <t>selected(../register_house_member, 'no')</t>
-  </si>
-  <si>
     <t>hh_member</t>
   </si>
   <si>
@@ -375,6 +372,9 @@
   </si>
   <si>
     <t>Edit House Hold</t>
+  </si>
+  <si>
+    <t>selected(../inputs/user/repeat-relevant/house_member, 'no')</t>
   </si>
 </sst>
 </file>
@@ -1846,7 +1846,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
+      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1855,7 +1855,7 @@
     <col min="2" max="2" width="25.77734375" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.109375" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.88671875" bestFit="1" customWidth="1"/>
@@ -2609,10 +2609,10 @@
     </row>
     <row r="23" spans="1:25" s="17" customFormat="1" ht="13.2">
       <c r="A23" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C23" s="24" t="s">
         <v>106</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="29" spans="1:25" s="7" customFormat="1" ht="13.2">
       <c r="A29" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
@@ -2918,7 +2918,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -30207,14 +30207,14 @@
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" s="9" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-05 23-17</v>
+        <v>2022-10-05 23-26</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>20</v>

--- a/forms/contact/house_hold-edit.xlsx
+++ b/forms/contact/house_hold-edit.xlsx
@@ -374,7 +374,7 @@
     <t>Edit House Hold</t>
   </si>
   <si>
-    <t>selected(../inputs/user/repeat-relevant/house_member, 'no')</t>
+    <t>selected(../repeat-relevant/house_member, 'no')</t>
   </si>
 </sst>
 </file>
@@ -1846,7 +1846,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomRight" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -30214,7 +30214,7 @@
       </c>
       <c r="C2" s="9" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-05 23-26</v>
+        <v>2022-10-05 23-32</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>20</v>

--- a/forms/contact/house_hold-edit.xlsx
+++ b/forms/contact/house_hold-edit.xlsx
@@ -638,7 +638,221 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="93">
+  <dxfs count="104">
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -731,28 +945,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFCCCCCC"/>
       </font>
       <fill>
@@ -775,12 +967,12 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF76A5AF"/>
+        <color rgb="FFCCCCCC"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -792,80 +984,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFCE5CD"/>
           <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1843,10 +1961,10 @@
   <dimension ref="A1:Y1010"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2413,8 +2531,8 @@
       <c r="A17" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>71</v>
+      <c r="B17" s="26" t="s">
+        <v>111</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>72</v>
@@ -2611,8 +2729,8 @@
       <c r="A23" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="26" t="s">
-        <v>111</v>
+      <c r="B23" s="21" t="s">
+        <v>71</v>
       </c>
       <c r="C23" s="24" t="s">
         <v>106</v>
@@ -2651,7 +2769,6 @@
         <v>96</v>
       </c>
       <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
       <c r="F24" s="22"/>
       <c r="G24" s="23"/>
       <c r="H24" s="23"/>
@@ -29368,469 +29485,524 @@
       <c r="Y1010" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:C7 A17:C17 A20:C22 A24:C25 C23">
-    <cfRule type="expression" dxfId="92" priority="56">
+  <conditionalFormatting sqref="A2:C7 A20:C22 A24:C25">
+    <cfRule type="expression" dxfId="103" priority="56">
       <formula>AND($A2="begin group", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C7 A17:C17 A25:C25 A21:C21">
-    <cfRule type="expression" dxfId="91" priority="57">
+  <conditionalFormatting sqref="A2:C7 A25:C25 A21:C21">
+    <cfRule type="expression" dxfId="102" priority="57">
       <formula>AND($A2="end group", $B2 = "", $C2 = "", $E2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $N2 = "", $O2 = "", $P2 = "", $R2 = "", $S2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C7 A20:C22 A19 C19 A17:C18 A24:C25 C23">
-    <cfRule type="cellIs" dxfId="90" priority="58" operator="equal">
+  <conditionalFormatting sqref="A2:C7 A20:C22 A19 C19 A24:C25 A18:C18 A17 C17 B23:C23">
+    <cfRule type="cellIs" dxfId="101" priority="58" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B7 B17 B20:B22 B24:B25">
-    <cfRule type="expression" dxfId="89" priority="59">
+  <conditionalFormatting sqref="B2:B7 B20:B22 B24:B25">
+    <cfRule type="expression" dxfId="100" priority="59">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $B2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C7 A17:C17 A20:C22 A24:C25 C23">
-    <cfRule type="expression" dxfId="88" priority="61">
+  <conditionalFormatting sqref="A2:C7 A20:C22 A24:C25">
+    <cfRule type="expression" dxfId="99" priority="61">
       <formula>AND($A2="begin repeat", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C7 A17:C17 A25:C25 A21:C21">
-    <cfRule type="expression" dxfId="87" priority="62">
+  <conditionalFormatting sqref="A2:C7 A25:C25 A21:C21">
+    <cfRule type="expression" dxfId="98" priority="62">
       <formula>AND($A2="end repeat", $B2 = "", $C2 = "", $E2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $N2 = "", $O2 = "", $P2 = "", $R2 = "", $S2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28 A2:A7 A17:A22 A24:A25">
-    <cfRule type="containsText" dxfId="86" priority="66" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="97" priority="66" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C7 C17:C25">
-    <cfRule type="expression" dxfId="85" priority="67">
+    <cfRule type="expression" dxfId="96" priority="67">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $C2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A7 A17:A22 A24:A25">
-    <cfRule type="cellIs" dxfId="84" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="68" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="83" priority="69">
+    <cfRule type="expression" dxfId="94" priority="69">
       <formula>AND($A28="begin group", NOT($B28 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="82" priority="70">
+    <cfRule type="expression" dxfId="93" priority="70">
       <formula>AND($A28="end group", $B28 = "", $C28 = "", $E28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $N28 = "", $O28 = "", $P28 = "", $R28 = "", $S28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="cellIs" dxfId="81" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="71" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="80" priority="72">
+    <cfRule type="expression" dxfId="91" priority="72">
       <formula>AND(AND(NOT($A28 = "end group"), NOT($A28 = "end repeat"), NOT($A28 = "")), $C28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="79" priority="73">
+    <cfRule type="expression" dxfId="90" priority="73">
       <formula>AND(AND(NOT($A28 = "end group"), NOT($A28 = "end repeat"), NOT($A28 = "")), $B28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="78" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="74" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="77" priority="75">
+    <cfRule type="expression" dxfId="88" priority="75">
       <formula>AND($A28="begin repeat", NOT($B28 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="76" priority="76">
+    <cfRule type="expression" dxfId="87" priority="76">
       <formula>AND($A28="end repeat", $B28 = "", $C28 = "", $E28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $N28 = "", $O28 = "", $P28 = "", $R28 = "", $S28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="containsText" dxfId="75" priority="86" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="86" priority="86" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A26))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="74" priority="87">
+    <cfRule type="expression" dxfId="85" priority="87">
       <formula>AND($A26="begin group", NOT($B26 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="73" priority="88">
+    <cfRule type="expression" dxfId="84" priority="88">
       <formula>AND($A26="end group", $B26 = "", $C26 = "", $E26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $N26 = "", $O26 = "", $P26 = "", $R26 = "", $S26 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="cellIs" dxfId="72" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="89" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="cellIs" dxfId="71" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="90" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="70" priority="91">
+    <cfRule type="expression" dxfId="81" priority="91">
       <formula>AND($A26="begin repeat", NOT($B26 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="69" priority="92">
+    <cfRule type="expression" dxfId="80" priority="92">
       <formula>AND($A26="end repeat", $B26 = "", $C26 = "", $E26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $N26 = "", $O26 = "", $P26 = "", $R26 = "", $S26 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="containsText" dxfId="68" priority="93" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="79" priority="93" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="67" priority="77">
+    <cfRule type="expression" dxfId="78" priority="77">
       <formula>AND($A27="begin group", NOT($B27 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="66" priority="78">
+    <cfRule type="expression" dxfId="77" priority="78">
       <formula>AND($A27="end group", $B27 = "", $C27 = "", $E27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $N27 = "", $O27 = "", $P27 = "", $R27 = "", $S27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="cellIs" dxfId="65" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="79" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="64" priority="80">
+    <cfRule type="expression" dxfId="75" priority="80">
       <formula>AND(AND(NOT($A27 = "end group"), NOT($A27 = "end repeat"), NOT($A27 = "")), $C27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="63" priority="81">
+    <cfRule type="expression" dxfId="74" priority="81">
       <formula>AND(AND(NOT($A27 = "end group"), NOT($A27 = "end repeat"), NOT($A27 = "")), $B27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="cellIs" dxfId="62" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="82" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="61" priority="84">
+    <cfRule type="expression" dxfId="72" priority="84">
       <formula>AND($A27="begin repeat", NOT($B27 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="60" priority="85">
+    <cfRule type="expression" dxfId="71" priority="85">
       <formula>AND($A27="end repeat", $B27 = "", $C27 = "", $E27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $N27 = "", $O27 = "", $P27 = "", $R27 = "", $S27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="containsText" dxfId="59" priority="49" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="70" priority="49" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="58" priority="50">
+    <cfRule type="expression" dxfId="69" priority="50">
       <formula>AND($A8="begin group", NOT($B8 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="57" priority="51">
+    <cfRule type="expression" dxfId="68" priority="51">
       <formula>AND($A8="end group", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="56" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="52" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="55" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="53" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="54" priority="54">
+    <cfRule type="expression" dxfId="65" priority="54">
       <formula>AND($A8="begin repeat", NOT($B8 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="53" priority="55">
+    <cfRule type="expression" dxfId="64" priority="55">
       <formula>AND($A8="end repeat", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="52" priority="42">
+    <cfRule type="expression" dxfId="63" priority="42">
       <formula>AND($A8="begin group", NOT($B8 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="51" priority="43">
+    <cfRule type="expression" dxfId="62" priority="43">
       <formula>AND($A8="end group", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="50" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="44" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="49" priority="45">
+    <cfRule type="expression" dxfId="60" priority="45">
       <formula>AND(AND(NOT($A8 = "end group"), NOT($A8 = "end repeat"), NOT($A8 = "")), $B8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="48" priority="47">
+    <cfRule type="expression" dxfId="59" priority="47">
       <formula>AND($A8="begin repeat", NOT($B8 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="47" priority="48">
+    <cfRule type="expression" dxfId="58" priority="48">
       <formula>AND($A8="end repeat", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="46" priority="28">
+    <cfRule type="expression" dxfId="57" priority="28">
       <formula>AND($A30="begin group", NOT($B30 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="45" priority="29">
+    <cfRule type="expression" dxfId="56" priority="29">
       <formula>AND($A30="end group", $B30 = "", $C30 = "", $E30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $N30 = "", $O30 = "", $P30 = "", $R30 = "", $S30 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="cellIs" dxfId="44" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="30" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="43" priority="31">
+    <cfRule type="expression" dxfId="54" priority="31">
       <formula>AND($A30="begin repeat", NOT($B30 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="42" priority="32">
+    <cfRule type="expression" dxfId="53" priority="32">
       <formula>AND($A30="end repeat", $B30 = "", $C30 = "", $E30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $N30 = "", $O30 = "", $P30 = "", $R30 = "", $S30 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="containsText" dxfId="41" priority="33" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="52" priority="33" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A30))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:C20 A22:C22 A24:C24 C23">
-    <cfRule type="expression" dxfId="40" priority="210">
+  <conditionalFormatting sqref="A20:C20 A22:C22 A24:C24">
+    <cfRule type="expression" dxfId="51" priority="210">
       <formula>AND($A20="end group", $B20 = "", $C20 = "", #REF! = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $N20 = "", $O20 = "", $P20 = "", $R20 = "", $S20 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:C20 A22:C22 A24:C24 C23">
-    <cfRule type="expression" dxfId="39" priority="213">
+  <conditionalFormatting sqref="A20:C20 A22:C22 A24:C24">
+    <cfRule type="expression" dxfId="50" priority="213">
       <formula>AND($A20="end repeat", $B20 = "", $C20 = "", #REF! = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $N20 = "", $O20 = "", $P20 = "", $R20 = "", $S20 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="38" priority="21">
+    <cfRule type="expression" dxfId="49" priority="21">
       <formula>AND($A31="begin group", NOT($B31 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="37" priority="22">
+    <cfRule type="expression" dxfId="48" priority="22">
       <formula>AND($A31="end group", $B31 = "", $C31 = "", $E31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $N31 = "", $O31 = "", $P31 = "", $R31 = "", $S31 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="cellIs" dxfId="36" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="23" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="35" priority="24">
+    <cfRule type="expression" dxfId="46" priority="24">
       <formula>AND($A31="begin repeat", NOT($B31 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="34" priority="25">
+    <cfRule type="expression" dxfId="45" priority="25">
       <formula>AND($A31="end repeat", $B31 = "", $C31 = "", $E31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $N31 = "", $O31 = "", $P31 = "", $R31 = "", $S31 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="containsText" dxfId="33" priority="26" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="44" priority="26" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A31))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="32" priority="238">
+    <cfRule type="expression" dxfId="43" priority="238">
       <formula>AND($A19="begin group", NOT($B18 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A19 C18:C19">
-    <cfRule type="expression" dxfId="31" priority="239">
+    <cfRule type="expression" dxfId="42" priority="239">
       <formula>AND($A18="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="30" priority="244">
+    <cfRule type="expression" dxfId="41" priority="244">
       <formula>AND(AND(NOT($A19 = "end group"), NOT($A19 = "end repeat"), NOT($A19 = "")), $B18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="29" priority="246">
+    <cfRule type="expression" dxfId="40" priority="246">
       <formula>AND($A19="begin repeat", NOT($B18 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A19 C18:C19">
-    <cfRule type="expression" dxfId="28" priority="247">
+    <cfRule type="expression" dxfId="39" priority="247">
       <formula>AND($A18="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19 C19">
-    <cfRule type="expression" dxfId="27" priority="256">
+    <cfRule type="expression" dxfId="38" priority="256">
       <formula>AND($A19="end group", $B18 = "", $C19 = "", $E21 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="26" priority="257">
+    <cfRule type="expression" dxfId="37" priority="257">
       <formula>AND($A19="end group", $B18 = "", $C19 = "", $E21 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18 C18">
-    <cfRule type="expression" dxfId="25" priority="258">
+    <cfRule type="expression" dxfId="36" priority="258">
       <formula>AND($A18="end group", #REF! = "", $C18 = "", $E20 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $N18 = "", $O18 = "", $P18 = "", $R18 = "", $S18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19 C19">
-    <cfRule type="expression" dxfId="24" priority="260">
+    <cfRule type="expression" dxfId="35" priority="260">
       <formula>AND($A19="end repeat", $B18 = "", $C19 = "", $E21 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="23" priority="261">
+    <cfRule type="expression" dxfId="34" priority="261">
       <formula>AND($A19="end repeat", $B18 = "", $C19 = "", $E21 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18 C18">
-    <cfRule type="expression" dxfId="22" priority="262">
+    <cfRule type="expression" dxfId="33" priority="262">
       <formula>AND($A18="end repeat", #REF! = "", $C18 = "", $E20 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $N18 = "", $O18 = "", $P18 = "", $R18 = "", $S18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="21" priority="14">
-      <formula>AND($A23="begin group", NOT($B23 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="19" priority="16">
-      <formula>AND(AND(NOT($A23 = "end group"), NOT($A23 = "end repeat"), NOT($A23 = "")), $B23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="18" priority="17">
-      <formula>AND($A23="begin repeat", NOT($B23 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="17" priority="19">
-      <formula>AND($A23="end group", $B23 = "", $C23 = "", #REF! = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $N23 = "", $O23 = "", $P23 = "", $R23 = "", $S23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="16" priority="20">
-      <formula>AND($A23="end repeat", $B23 = "", $C23 = "", #REF! = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $N23 = "", $O23 = "", $P23 = "", $R23 = "", $S23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="15" priority="7">
-      <formula>AND($A23="begin group", NOT($B23 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+  <conditionalFormatting sqref="B17">
+    <cfRule type="cellIs" dxfId="32" priority="15" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="13" priority="9">
-      <formula>AND($A23="begin repeat", NOT($B23 = ""))</formula>
+    <cfRule type="cellIs" dxfId="31" priority="8" operator="equal">
+      <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="30" priority="10" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A23))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="11" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="10" priority="12">
-      <formula>AND($A23="end group", $B23 = "", $C23 = "", #REF! = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $N23 = "", $O23 = "", $P23 = "", $R23 = "", $S23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="9" priority="13">
-      <formula>AND($A23="end repeat", $B23 = "", $C23 = "", #REF! = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $N23 = "", $O23 = "", $P23 = "", $R23 = "", $S23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="28" priority="1">
       <formula>AND($A29="begin group", NOT($B29 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>AND($A29="end group", $B29 = "", $C29 = "", $E29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $N29 = "", $O29 = "", $P29 = "", $R29 = "", $S29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="25" priority="4">
       <formula>AND($A29="begin repeat", NOT($B29 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="24" priority="5">
       <formula>AND($A29="end repeat", $B29 = "", $C29 = "", $E29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $N29 = "", $O29 = "", $P29 = "", $R29 = "", $S29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="23" priority="6" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A29))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="2" priority="263">
+    <cfRule type="expression" dxfId="22" priority="263">
       <formula>COUNTIF($B$2:$B$1091,B8)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:B28 B17:B18 B20:B25">
-    <cfRule type="expression" dxfId="1" priority="264">
+  <conditionalFormatting sqref="B27:B28 B20:B25 B17:B18">
+    <cfRule type="expression" dxfId="21" priority="264">
       <formula>COUNTIF($B$9:$B$1098,B17)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B7">
-    <cfRule type="expression" dxfId="0" priority="268">
+    <cfRule type="expression" dxfId="20" priority="268">
       <formula>COUNTIF($B$2:$B$1090,B2)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23 A23">
+    <cfRule type="expression" dxfId="19" priority="280">
+      <formula>AND($A23="begin group", NOT($B17 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23 A23">
+    <cfRule type="expression" dxfId="18" priority="281">
+      <formula>AND($A23="begin repeat", NOT($B17 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="17" priority="283">
+      <formula>AND($A23="end group", $B17 = "", $C23 = "", #REF! = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $N23 = "", $O23 = "", $P23 = "", $R23 = "", $S23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="16" priority="284">
+      <formula>AND($A23="end repeat", $B17 = "", $C23 = "", #REF! = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $N23 = "", $O23 = "", $P23 = "", $R23 = "", $S23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="expression" dxfId="15" priority="285">
+      <formula>AND($A23="begin group", NOT($B17 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="expression" dxfId="14" priority="286">
+      <formula>AND(AND(NOT($A23 = "end group"), NOT($A23 = "end repeat"), NOT($A23 = "")), $B17 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="expression" dxfId="13" priority="287">
+      <formula>AND($A23="begin repeat", NOT($B17 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="expression" dxfId="12" priority="288">
+      <formula>AND($A23="end group", $B17 = "", $C23 = "", #REF! = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $N23 = "", $O23 = "", $P23 = "", $R23 = "", $S23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="expression" dxfId="11" priority="289">
+      <formula>AND($A23="end repeat", $B17 = "", $C23 = "", #REF! = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $N23 = "", $O23 = "", $P23 = "", $R23 = "", $S23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="expression" dxfId="10" priority="292">
+      <formula>AND($A23="end group", $B17 = "", $C23 = "", #REF! = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $N23 = "", $O23 = "", $P23 = "", $R23 = "", $S23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="expression" dxfId="9" priority="293">
+      <formula>AND($A23="end repeat", $B17 = "", $C23 = "", #REF! = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $N23 = "", $O23 = "", $P23 = "", $R23 = "", $S23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17 C17">
+    <cfRule type="expression" dxfId="8" priority="303">
+      <formula>AND($A17="begin group", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="7" priority="305">
+      <formula>AND($A17="begin group", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17 C17">
+    <cfRule type="expression" dxfId="6" priority="306">
+      <formula>AND($A17="end group", $B23 = "", $C17 = "", $E17 = "", $I17 = "", $J17 = "", $K17 = "", $L17 = "", $N17 = "", $O17 = "", $P17 = "", $R17 = "", $S17 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="5" priority="308">
+      <formula>AND($A17="end group", $B23 = "", $C17 = "", $E17 = "", $I17 = "", $J17 = "", $K17 = "", $L17 = "", $N17 = "", $O17 = "", $P17 = "", $R17 = "", $S17 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="4" priority="309">
+      <formula>AND(AND(NOT($A17 = "end group"), NOT($A17 = "end repeat"), NOT($A17 = "")), $B23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17 C17">
+    <cfRule type="expression" dxfId="3" priority="310">
+      <formula>AND($A17="begin repeat", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="2" priority="312">
+      <formula>AND($A17="begin repeat", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17 C17">
+    <cfRule type="expression" dxfId="1" priority="313">
+      <formula>AND($A17="end repeat", $B23 = "", $C17 = "", $E17 = "", $I17 = "", $J17 = "", $K17 = "", $L17 = "", $N17 = "", $O17 = "", $P17 = "", $R17 = "", $S17 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="0" priority="315">
+      <formula>AND($A17="end repeat", $B23 = "", $C17 = "", $E17 = "", $I17 = "", $J17 = "", $K17 = "", $L17 = "", $N17 = "", $O17 = "", $P17 = "", $R17 = "", $S17 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30214,7 +30386,7 @@
       </c>
       <c r="C2" s="9" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-05 23-32</v>
+        <v>2022-10-05 23-41</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>20</v>

--- a/forms/contact/house_hold-edit.xlsx
+++ b/forms/contact/house_hold-edit.xlsx
@@ -374,7 +374,7 @@
     <t>Edit House Hold</t>
   </si>
   <si>
-    <t>selected(../repeat-relevant/house_member, 'no')</t>
+    <t>selected(../hh_member/house_member, 'no')</t>
   </si>
 </sst>
 </file>
@@ -1964,7 +1964,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -30386,7 +30386,7 @@
       </c>
       <c r="C2" s="9" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-05 23-41</v>
+        <v>2022-10-05 23-46</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>20</v>

--- a/forms/contact/house_hold-edit.xlsx
+++ b/forms/contact/house_hold-edit.xlsx
@@ -374,7 +374,7 @@
     <t>Edit House Hold</t>
   </si>
   <si>
-    <t>selected(../hh_member/house_member, 'no')</t>
+    <t>selected(../house_contact_name/hh_member/house_member, 'no')</t>
   </si>
 </sst>
 </file>
@@ -1961,10 +1961,10 @@
   <dimension ref="A1:Y1010"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -30386,7 +30386,7 @@
       </c>
       <c r="C2" s="9" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-05 23-46</v>
+        <v>2022-10-06 15-03</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>20</v>

--- a/forms/contact/house_hold-edit.xlsx
+++ b/forms/contact/house_hold-edit.xlsx
@@ -374,7 +374,7 @@
     <t>Edit House Hold</t>
   </si>
   <si>
-    <t>selected(../house_contact_name/hh_member/house_member, 'no')</t>
+    <t>selected(../../../house_contact_name/hh_member/house_member, 'no')</t>
   </si>
 </sst>
 </file>
@@ -1961,10 +1961,10 @@
   <dimension ref="A1:Y1010"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -30386,7 +30386,7 @@
       </c>
       <c r="C2" s="9" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-06 15-03</v>
+        <v>2022-10-06 15-13</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>20</v>

--- a/forms/contact/house_hold-edit.xlsx
+++ b/forms/contact/house_hold-edit.xlsx
@@ -374,7 +374,7 @@
     <t>Edit House Hold</t>
   </si>
   <si>
-    <t>selected(../../../house_contact_name/hh_member/house_member, 'no')</t>
+    <t>selected(../../../../../inputs/user/house_contact_name/hh_member/house_member, 'no')</t>
   </si>
 </sst>
 </file>
@@ -1961,10 +1961,10 @@
   <dimension ref="A1:Y1010"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -30386,7 +30386,7 @@
       </c>
       <c r="C2" s="9" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-06 15-13</v>
+        <v>2022-10-06 15-16</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>20</v>

--- a/forms/contact/house_hold-edit.xlsx
+++ b/forms/contact/house_hold-edit.xlsx
@@ -374,7 +374,7 @@
     <t>Edit House Hold</t>
   </si>
   <si>
-    <t>selected(../../../../../inputs/user/house_contact_name/hh_member/house_member, 'no')</t>
+    <t>selected(../../hh_member/house_member, 'no')</t>
   </si>
 </sst>
 </file>
@@ -30386,7 +30386,7 @@
       </c>
       <c r="C2" s="9" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-06 15-16</v>
+        <v>2022-10-06 15-22</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>20</v>

--- a/forms/contact/house_hold-edit.xlsx
+++ b/forms/contact/house_hold-edit.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="110">
   <si>
     <t xml:space="preserve">Name of Household Head </t>
   </si>
@@ -352,12 +352,15 @@
   <si>
     <t>notes</t>
   </si>
+  <si>
+    <t>facility_id</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -436,8 +439,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -540,6 +548,18 @@
         <bgColor rgb="FFDADADA"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -586,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -659,6 +679,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2025,13 +2047,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1010"/>
+  <dimension ref="A1:Z1011"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J36" sqref="J36:J37"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2207,16 +2229,16 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" s="3" customFormat="1" ht="13.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>23</v>
+      <c r="B5" s="38" t="s">
+        <v>109</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>67</v>
+      <c r="C5" s="39" t="s">
+        <v>94</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
@@ -2242,10 +2264,14 @@
     </row>
     <row r="6" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A6" s="15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
+      <c r="B6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>67</v>
+      </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -2301,21 +2327,17 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" s="3" customFormat="1" ht="13.2">
-      <c r="A8" s="22" t="s">
-        <v>51</v>
+      <c r="A8" s="15" t="s">
+        <v>55</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -2334,24 +2356,22 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="13.2">
-      <c r="A9" s="25" t="s">
-        <v>1</v>
+    <row r="9" spans="1:26" s="3" customFormat="1" ht="13.2">
+      <c r="A9" s="22" t="s">
+        <v>51</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>38</v>
+      <c r="B9" s="22" t="s">
+        <v>69</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>0</v>
+      <c r="C9" s="23" t="s">
+        <v>68</v>
       </c>
-      <c r="D9" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -2372,21 +2392,21 @@
     </row>
     <row r="10" spans="1:26" ht="13.2">
       <c r="A10" s="25" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="29"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27"/>
       <c r="I10" s="27"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -2408,13 +2428,13 @@
     </row>
     <row r="11" spans="1:26" ht="13.2">
       <c r="A11" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>2</v>
@@ -2442,24 +2462,22 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="19.2" customHeight="1">
-      <c r="A12" s="30" t="s">
-        <v>5</v>
+    <row r="12" spans="1:26" ht="13.2">
+      <c r="A12" s="25" t="s">
+        <v>40</v>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>33</v>
+      <c r="B12" s="25" t="s">
+        <v>30</v>
       </c>
-      <c r="C12" s="30" t="s">
-        <v>4</v>
+      <c r="C12" s="26" t="s">
+        <v>44</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
       <c r="H12" s="29"/>
       <c r="I12" s="27"/>
       <c r="J12" s="1"/>
@@ -2480,30 +2498,26 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="13.2">
-      <c r="A13" s="25" t="s">
-        <v>7</v>
+    <row r="13" spans="1:26" ht="19.2" customHeight="1">
+      <c r="A13" s="30" t="s">
+        <v>5</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>29</v>
+      <c r="B13" s="30" t="s">
+        <v>33</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>6</v>
+      <c r="C13" s="30" t="s">
+        <v>4</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
-      <c r="H13" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>45</v>
-      </c>
+      <c r="H13" s="29"/>
+      <c r="I13" s="27"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -2524,22 +2538,28 @@
     </row>
     <row r="14" spans="1:26" ht="13.2">
       <c r="A14" s="25" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
+      <c r="E14" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>45</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -2563,17 +2583,17 @@
         <v>1</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
       <c r="J15" s="1"/>
@@ -2594,13 +2614,19 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" s="3" customFormat="1" ht="13.2">
+    <row r="16" spans="1:26" ht="13.2">
       <c r="A16" s="25" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="B16" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>9</v>
+      </c>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
@@ -2624,49 +2650,45 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" s="12" customFormat="1" ht="13.2">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:26" s="3" customFormat="1" ht="13.2">
+      <c r="A17" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+    </row>
+    <row r="18" spans="1:26" s="12" customFormat="1" ht="13.2">
+      <c r="A18" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B18" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C18" s="16" t="s">
         <v>53</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-    </row>
-    <row r="18" spans="1:26" s="12" customFormat="1" ht="13.2">
-      <c r="A18" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>58</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -2692,15 +2714,15 @@
       <c r="Y18" s="13"/>
       <c r="Z18" s="13"/>
     </row>
-    <row r="19" spans="1:26" s="12" customFormat="1" ht="26.4">
+    <row r="19" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A19" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>36</v>
+      <c r="B19" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -2726,24 +2748,20 @@
       <c r="Y19" s="13"/>
       <c r="Z19" s="13"/>
     </row>
-    <row r="20" spans="1:26" s="12" customFormat="1" ht="13.2">
-      <c r="A20" s="15" t="s">
-        <v>11</v>
+    <row r="20" spans="1:26" s="12" customFormat="1" ht="26.4">
+      <c r="A20" s="19" t="s">
+        <v>86</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>70</v>
+      <c r="B20" s="17" t="s">
+        <v>36</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>54</v>
+      <c r="C20" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="D20" s="17"/>
-      <c r="E20" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="2"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="J20" s="13"/>
@@ -2765,15 +2783,23 @@
       <c r="Z20" s="13"/>
     </row>
     <row r="21" spans="1:26" s="12" customFormat="1" ht="13.2">
-      <c r="A21" s="19" t="s">
-        <v>55</v>
+      <c r="A21" s="15" t="s">
+        <v>11</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
+      <c r="B21" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>54</v>
+      </c>
       <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
+      <c r="E21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="2"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="13"/>
@@ -2796,14 +2822,10 @@
     </row>
     <row r="22" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A22" s="19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>71</v>
-      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
@@ -2829,14 +2851,14 @@
       <c r="Z22" s="13"/>
     </row>
     <row r="23" spans="1:26" s="12" customFormat="1" ht="13.2">
-      <c r="A23" s="20" t="s">
-        <v>89</v>
+      <c r="A23" s="19" t="s">
+        <v>51</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>52</v>
+      <c r="B23" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
@@ -2863,16 +2885,17 @@
       <c r="Z23" s="13"/>
     </row>
     <row r="24" spans="1:26" s="12" customFormat="1" ht="13.2">
-      <c r="A24" s="19" t="s">
-        <v>57</v>
+      <c r="A24" s="20" t="s">
+        <v>89</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>77</v>
+      <c r="B24" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
       <c r="H24" s="18"/>
@@ -2897,16 +2920,15 @@
     </row>
     <row r="25" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A25" s="19" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
       <c r="H25" s="18"/>
@@ -2931,13 +2953,13 @@
     </row>
     <row r="26" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A26" s="19" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
@@ -2945,42 +2967,38 @@
       <c r="G26" s="17"/>
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="13"/>
     </row>
     <row r="27" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A27" s="19" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
       <c r="J27" s="1"/>
@@ -3003,19 +3021,19 @@
     </row>
     <row r="28" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A28" s="19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F28" s="31"/>
       <c r="G28" s="31"/>
@@ -3039,18 +3057,26 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" s="3" customFormat="1" ht="13.2">
-      <c r="A29" s="20" t="s">
-        <v>90</v>
+    <row r="29" spans="1:26" s="12" customFormat="1" ht="13.2">
+      <c r="A29" s="19" t="s">
+        <v>7</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
+      <c r="B29" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -3069,29 +3095,21 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" s="3" customFormat="1" ht="14.4">
-      <c r="A30" s="32" t="s">
-        <v>51</v>
+    <row r="30" spans="1:26" s="3" customFormat="1" ht="13.2">
+      <c r="A30" s="20" t="s">
+        <v>90</v>
       </c>
-      <c r="B30" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -3108,23 +3126,29 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" s="3" customFormat="1" ht="14.4">
-      <c r="A31" s="36" t="s">
-        <v>96</v>
+      <c r="A31" s="32" t="s">
+        <v>51</v>
       </c>
-      <c r="B31" s="37" t="s">
-        <v>97</v>
+      <c r="B31" s="33" t="s">
+        <v>93</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="34"/>
+      <c r="C31" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>94</v>
+      </c>
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
       <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
+      <c r="H31" s="35" t="s">
+        <v>95</v>
+      </c>
       <c r="I31" s="35"/>
-      <c r="J31" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="K31" s="1"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -3144,7 +3168,7 @@
         <v>96</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C32" s="35"/>
       <c r="D32" s="34"/>
@@ -3154,7 +3178,7 @@
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
       <c r="J32" s="35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K32" s="1"/>
       <c r="N32" s="1"/>
@@ -3176,7 +3200,7 @@
         <v>96</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C33" s="35"/>
       <c r="D33" s="34"/>
@@ -3186,7 +3210,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
       <c r="J33" s="35" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K33" s="1"/>
       <c r="N33" s="1"/>
@@ -3204,10 +3228,12 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" s="3" customFormat="1" ht="14.4">
-      <c r="A34" s="35" t="s">
-        <v>55</v>
+      <c r="A34" s="36" t="s">
+        <v>96</v>
       </c>
-      <c r="B34" s="35"/>
+      <c r="B34" s="37" t="s">
+        <v>101</v>
+      </c>
       <c r="C34" s="35"/>
       <c r="D34" s="34"/>
       <c r="E34" s="35"/>
@@ -3215,10 +3241,10 @@
       <c r="G34" s="35"/>
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="1"/>
+      <c r="J34" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="K34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -3233,21 +3259,21 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" s="3" customFormat="1" ht="13.2">
-      <c r="A35" s="20" t="s">
+    <row r="35" spans="1:26" s="3" customFormat="1" ht="14.4">
+      <c r="A35" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -3263,16 +3289,18 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="13.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+    <row r="36" spans="1:26" s="3" customFormat="1" ht="13.2">
+      <c r="A36" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -30563,525 +30591,553 @@
       <c r="Y1010" s="1"/>
       <c r="Z1010" s="1"/>
     </row>
+    <row r="1011" spans="1:26" ht="13.2">
+      <c r="A1011" s="1"/>
+      <c r="B1011" s="1"/>
+      <c r="C1011" s="1"/>
+      <c r="D1011" s="1"/>
+      <c r="E1011" s="1"/>
+      <c r="F1011" s="1"/>
+      <c r="G1011" s="1"/>
+      <c r="H1011" s="1"/>
+      <c r="I1011" s="1"/>
+      <c r="J1011" s="1"/>
+      <c r="K1011" s="1"/>
+      <c r="L1011" s="1"/>
+      <c r="M1011" s="1"/>
+      <c r="N1011" s="1"/>
+      <c r="O1011" s="1"/>
+      <c r="P1011" s="1"/>
+      <c r="Q1011" s="1"/>
+      <c r="R1011" s="1"/>
+      <c r="S1011" s="1"/>
+      <c r="T1011" s="1"/>
+      <c r="U1011" s="1"/>
+      <c r="V1011" s="1"/>
+      <c r="W1011" s="1"/>
+      <c r="X1011" s="1"/>
+      <c r="Y1011" s="1"/>
+      <c r="Z1011" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:C7 A20:C22 A24:C25">
+  <conditionalFormatting sqref="A2:C8 A21:C23 A25:C26">
     <cfRule type="expression" dxfId="103" priority="62">
       <formula>AND($A2="begin group", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C7 A25:C25 A21:C21">
+  <conditionalFormatting sqref="A2:C8 A26:C26 A22:C22">
     <cfRule type="expression" dxfId="102" priority="63">
       <formula>AND($A2="end group", $B2 = "", $C2 = "", $E2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "", $O2 = "", $P2 = "", $Q2 = "", $S2 = "", $T2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C7 A20:C22 A19 C19 A24:C25 A18:C18 A17 C17 B23:C23">
+  <conditionalFormatting sqref="A2:C8 A21:C23 A20 C20 A25:C26 A19:C19 A18 C18 B24:C24">
     <cfRule type="cellIs" dxfId="101" priority="64" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B7 B20:B22 B24:B25">
+  <conditionalFormatting sqref="B2:B8 B21:B23 B25:B26">
     <cfRule type="expression" dxfId="100" priority="65">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $B2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C7 A20:C22 A24:C25">
+  <conditionalFormatting sqref="A2:C8 A21:C23 A25:C26">
     <cfRule type="expression" dxfId="99" priority="67">
       <formula>AND($A2="begin repeat", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C7 A25:C25 A21:C21">
+  <conditionalFormatting sqref="A2:C8 A26:C26 A22:C22">
     <cfRule type="expression" dxfId="98" priority="68">
       <formula>AND($A2="end repeat", $B2 = "", $C2 = "", $E2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "", $O2 = "", $P2 = "", $Q2 = "", $S2 = "", $T2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28 A2:A7 A17:A22 A24:A25">
+  <conditionalFormatting sqref="A29 A2:A8 A18:A23 A25:A26">
     <cfRule type="containsText" dxfId="97" priority="72" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C7 C17:C25">
+  <conditionalFormatting sqref="C2:C8 C18:C26">
     <cfRule type="expression" dxfId="96" priority="73">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $C2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A7 A17:A22 A24:A25">
+  <conditionalFormatting sqref="A2:A8 A18:A23 A25:A26">
     <cfRule type="cellIs" dxfId="95" priority="74" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A29:C29">
+    <cfRule type="expression" dxfId="94" priority="75">
+      <formula>AND($A29="begin group", NOT($B29 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:C29">
+    <cfRule type="expression" dxfId="93" priority="76">
+      <formula>AND($A29="end group", $B29 = "", $C29 = "", $E29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "", $O29 = "", $P29 = "", $Q29 = "", $S29 = "", $T29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:C29">
+    <cfRule type="cellIs" dxfId="92" priority="77" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="91" priority="78">
+      <formula>AND(AND(NOT($A29 = "end group"), NOT($A29 = "end repeat"), NOT($A29 = "")), $C29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="expression" dxfId="90" priority="79">
+      <formula>AND(AND(NOT($A29 = "end group"), NOT($A29 = "end repeat"), NOT($A29 = "")), $B29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="cellIs" dxfId="89" priority="80" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:C29">
+    <cfRule type="expression" dxfId="88" priority="81">
+      <formula>AND($A29="begin repeat", NOT($B29 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:C29">
+    <cfRule type="expression" dxfId="87" priority="82">
+      <formula>AND($A29="end repeat", $B29 = "", $C29 = "", $E29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "", $O29 = "", $P29 = "", $Q29 = "", $S29 = "", $T29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:C27">
+    <cfRule type="containsText" dxfId="86" priority="92" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:C27">
+    <cfRule type="expression" dxfId="85" priority="93">
+      <formula>AND($A27="begin group", NOT($B27 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:C27">
+    <cfRule type="expression" dxfId="84" priority="94">
+      <formula>AND($A27="end group", $B27 = "", $C27 = "", $E27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "", $O27 = "", $P27 = "", $Q27 = "", $S27 = "", $T27 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:C27">
+    <cfRule type="cellIs" dxfId="83" priority="95" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:C27">
+    <cfRule type="cellIs" dxfId="82" priority="96" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:C27">
+    <cfRule type="expression" dxfId="81" priority="97">
+      <formula>AND($A27="begin repeat", NOT($B27 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:C27">
+    <cfRule type="expression" dxfId="80" priority="98">
+      <formula>AND($A27="end repeat", $B27 = "", $C27 = "", $E27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "", $O27 = "", $P27 = "", $Q27 = "", $S27 = "", $T27 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="containsText" dxfId="79" priority="99" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="94" priority="75">
+    <cfRule type="expression" dxfId="78" priority="83">
       <formula>AND($A28="begin group", NOT($B28 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="93" priority="76">
+    <cfRule type="expression" dxfId="77" priority="84">
       <formula>AND($A28="end group", $B28 = "", $C28 = "", $E28 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "", $O28 = "", $P28 = "", $Q28 = "", $S28 = "", $T28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="cellIs" dxfId="92" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="85" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="91" priority="78">
+    <cfRule type="expression" dxfId="75" priority="86">
       <formula>AND(AND(NOT($A28 = "end group"), NOT($A28 = "end repeat"), NOT($A28 = "")), $C28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="90" priority="79">
+    <cfRule type="expression" dxfId="74" priority="87">
       <formula>AND(AND(NOT($A28 = "end group"), NOT($A28 = "end repeat"), NOT($A28 = "")), $B28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="89" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="88" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="88" priority="81">
+    <cfRule type="expression" dxfId="72" priority="90">
       <formula>AND($A28="begin repeat", NOT($B28 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="87" priority="82">
+    <cfRule type="expression" dxfId="71" priority="91">
       <formula>AND($A28="end repeat", $B28 = "", $C28 = "", $E28 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "", $O28 = "", $P28 = "", $Q28 = "", $S28 = "", $T28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26:C26">
-    <cfRule type="containsText" dxfId="86" priority="92" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A26))))</formula>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="containsText" dxfId="70" priority="55" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A9))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="85" priority="93">
-      <formula>AND($A26="begin group", NOT($B26 = ""))</formula>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="expression" dxfId="69" priority="56">
+      <formula>AND($A9="begin group", NOT($B9 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="84" priority="94">
-      <formula>AND($A26="end group", $B26 = "", $C26 = "", $E26 = "", $J26 = "", $K26 = "", $L26 = "", $M26 = "", $O26 = "", $P26 = "", $Q26 = "", $S26 = "", $T26 = "")</formula>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="expression" dxfId="68" priority="57">
+      <formula>AND($A9="end group", $B9 = "", $C9 = "", $E9 = "", $J9 = "", $K9 = "", $L9 = "", $M9 = "", $O9 = "", $P9 = "", $Q9 = "", $S9 = "", $T9 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26:C26">
-    <cfRule type="cellIs" dxfId="83" priority="95" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:C26">
-    <cfRule type="cellIs" dxfId="82" priority="96" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="81" priority="97">
-      <formula>AND($A26="begin repeat", NOT($B26 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="80" priority="98">
-      <formula>AND($A26="end repeat", $B26 = "", $C26 = "", $E26 = "", $J26 = "", $K26 = "", $L26 = "", $M26 = "", $O26 = "", $P26 = "", $Q26 = "", $S26 = "", $T26 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27">
-    <cfRule type="containsText" dxfId="79" priority="99" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="78" priority="83">
-      <formula>AND($A27="begin group", NOT($B27 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="77" priority="84">
-      <formula>AND($A27="end group", $B27 = "", $C27 = "", $E27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "", $O27 = "", $P27 = "", $Q27 = "", $S27 = "", $T27 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:C27">
-    <cfRule type="cellIs" dxfId="76" priority="85" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="75" priority="86">
-      <formula>AND(AND(NOT($A27 = "end group"), NOT($A27 = "end repeat"), NOT($A27 = "")), $C27 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="74" priority="87">
-      <formula>AND(AND(NOT($A27 = "end group"), NOT($A27 = "end repeat"), NOT($A27 = "")), $B27 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27">
-    <cfRule type="cellIs" dxfId="73" priority="88" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="72" priority="90">
-      <formula>AND($A27="begin repeat", NOT($B27 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="71" priority="91">
-      <formula>AND($A27="end repeat", $B27 = "", $C27 = "", $E27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "", $O27 = "", $P27 = "", $Q27 = "", $S27 = "", $T27 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="containsText" dxfId="70" priority="55" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="69" priority="56">
-      <formula>AND($A8="begin group", NOT($B8 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="68" priority="57">
-      <formula>AND($A8="end group", $B8 = "", $C8 = "", $E8 = "", $J8 = "", $K8 = "", $L8 = "", $M8 = "", $O8 = "", $P8 = "", $Q8 = "", $S8 = "", $T8 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
+  <conditionalFormatting sqref="A9">
     <cfRule type="cellIs" dxfId="67" priority="58" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
+  <conditionalFormatting sqref="A9">
     <cfRule type="cellIs" dxfId="66" priority="59" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
+  <conditionalFormatting sqref="A9">
     <cfRule type="expression" dxfId="65" priority="60">
-      <formula>AND($A8="begin repeat", NOT($B8 = ""))</formula>
+      <formula>AND($A9="begin repeat", NOT($B9 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
+  <conditionalFormatting sqref="A9">
     <cfRule type="expression" dxfId="64" priority="61">
-      <formula>AND($A8="end repeat", $B8 = "", $C8 = "", $E8 = "", $J8 = "", $K8 = "", $L8 = "", $M8 = "", $O8 = "", $P8 = "", $Q8 = "", $S8 = "", $T8 = "")</formula>
+      <formula>AND($A9="end repeat", $B9 = "", $C9 = "", $E9 = "", $J9 = "", $K9 = "", $L9 = "", $M9 = "", $O9 = "", $P9 = "", $Q9 = "", $S9 = "", $T9 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
+  <conditionalFormatting sqref="B9">
     <cfRule type="expression" dxfId="63" priority="48">
-      <formula>AND($A8="begin group", NOT($B8 = ""))</formula>
+      <formula>AND($A9="begin group", NOT($B9 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
+  <conditionalFormatting sqref="B9">
     <cfRule type="expression" dxfId="62" priority="49">
-      <formula>AND($A8="end group", $B8 = "", $C8 = "", $E8 = "", $J8 = "", $K8 = "", $L8 = "", $M8 = "", $O8 = "", $P8 = "", $Q8 = "", $S8 = "", $T8 = "")</formula>
+      <formula>AND($A9="end group", $B9 = "", $C9 = "", $E9 = "", $J9 = "", $K9 = "", $L9 = "", $M9 = "", $O9 = "", $P9 = "", $Q9 = "", $S9 = "", $T9 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
+  <conditionalFormatting sqref="B9">
     <cfRule type="cellIs" dxfId="61" priority="50" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
+  <conditionalFormatting sqref="B9">
     <cfRule type="expression" dxfId="60" priority="51">
-      <formula>AND(AND(NOT($A8 = "end group"), NOT($A8 = "end repeat"), NOT($A8 = "")), $B8 = "")</formula>
+      <formula>AND(AND(NOT($A9 = "end group"), NOT($A9 = "end repeat"), NOT($A9 = "")), $B9 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
+  <conditionalFormatting sqref="B9">
     <cfRule type="expression" dxfId="59" priority="53">
-      <formula>AND($A8="begin repeat", NOT($B8 = ""))</formula>
+      <formula>AND($A9="begin repeat", NOT($B9 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
+  <conditionalFormatting sqref="B9">
     <cfRule type="expression" dxfId="58" priority="54">
-      <formula>AND($A8="end repeat", $B8 = "", $C8 = "", $E8 = "", $J8 = "", $K8 = "", $L8 = "", $M8 = "", $O8 = "", $P8 = "", $Q8 = "", $S8 = "", $T8 = "")</formula>
+      <formula>AND($A9="end repeat", $B9 = "", $C9 = "", $E9 = "", $J9 = "", $K9 = "", $L9 = "", $M9 = "", $O9 = "", $P9 = "", $Q9 = "", $S9 = "", $T9 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
+  <conditionalFormatting sqref="A36">
     <cfRule type="expression" dxfId="57" priority="34">
-      <formula>AND($A35="begin group", NOT($B35 = ""))</formula>
+      <formula>AND($A36="begin group", NOT($B36 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
+  <conditionalFormatting sqref="A36">
     <cfRule type="expression" dxfId="56" priority="35">
-      <formula>AND($A35="end group", $B35 = "", $C35 = "", $E35 = "", $J35 = "", $K35 = "", $L35 = "", $M35 = "", $O35 = "", $P35 = "", $Q35 = "", $S35 = "", $T35 = "")</formula>
+      <formula>AND($A36="end group", $B36 = "", $C36 = "", $E36 = "", $J36 = "", $K36 = "", $L36 = "", $M36 = "", $O36 = "", $P36 = "", $Q36 = "", $S36 = "", $T36 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
+  <conditionalFormatting sqref="A36">
     <cfRule type="cellIs" dxfId="55" priority="36" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
+  <conditionalFormatting sqref="A36">
     <cfRule type="expression" dxfId="54" priority="37">
-      <formula>AND($A35="begin repeat", NOT($B35 = ""))</formula>
+      <formula>AND($A36="begin repeat", NOT($B36 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
+  <conditionalFormatting sqref="A36">
     <cfRule type="expression" dxfId="53" priority="38">
-      <formula>AND($A35="end repeat", $B35 = "", $C35 = "", $E35 = "", $J35 = "", $K35 = "", $L35 = "", $M35 = "", $O35 = "", $P35 = "", $Q35 = "", $S35 = "", $T35 = "")</formula>
+      <formula>AND($A36="end repeat", $B36 = "", $C36 = "", $E36 = "", $J36 = "", $K36 = "", $L36 = "", $M36 = "", $O36 = "", $P36 = "", $Q36 = "", $S36 = "", $T36 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
+  <conditionalFormatting sqref="A36">
     <cfRule type="containsText" dxfId="52" priority="39" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A35))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A36))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:C20 A22:C22 A24:C24">
+  <conditionalFormatting sqref="A21:C21 A23:C23 A25:C25">
     <cfRule type="expression" dxfId="51" priority="216">
-      <formula>AND($A20="end group", $B20 = "", $C20 = "", #REF! = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "", $O20 = "", $P20 = "", $Q20 = "", $S20 = "", $T20 = "")</formula>
+      <formula>AND($A21="end group", $B21 = "", $C21 = "", #REF! = "", $J21 = "", $K21 = "", $L21 = "", $M21 = "", $O21 = "", $P21 = "", $Q21 = "", $S21 = "", $T21 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:C20 A22:C22 A24:C24">
+  <conditionalFormatting sqref="A21:C21 A23:C23 A25:C25">
     <cfRule type="expression" dxfId="50" priority="219">
-      <formula>AND($A20="end repeat", $B20 = "", $C20 = "", #REF! = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "", $O20 = "", $P20 = "", $Q20 = "", $S20 = "", $T20 = "")</formula>
+      <formula>AND($A21="end repeat", $B21 = "", $C21 = "", #REF! = "", $J21 = "", $K21 = "", $L21 = "", $M21 = "", $O21 = "", $P21 = "", $Q21 = "", $S21 = "", $T21 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="expression" dxfId="49" priority="244">
+      <formula>AND($A20="begin group", NOT($B19 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:A20 C19:C20">
+    <cfRule type="expression" dxfId="48" priority="245">
+      <formula>AND($A19="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="expression" dxfId="47" priority="250">
+      <formula>AND(AND(NOT($A20 = "end group"), NOT($A20 = "end repeat"), NOT($A20 = "")), $B19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="expression" dxfId="46" priority="252">
+      <formula>AND($A20="begin repeat", NOT($B19 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:A20 C19:C20">
+    <cfRule type="expression" dxfId="45" priority="253">
+      <formula>AND($A19="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20 C20">
+    <cfRule type="expression" dxfId="44" priority="262">
+      <formula>AND($A20="end group", $B19 = "", $C20 = "", $E22 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "", $O20 = "", $P20 = "", $Q20 = "", $S20 = "", $T20 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="expression" dxfId="43" priority="263">
+      <formula>AND($A20="end group", $B19 = "", $C20 = "", $E22 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "", $O20 = "", $P20 = "", $Q20 = "", $S20 = "", $T20 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19 C19">
+    <cfRule type="expression" dxfId="42" priority="264">
+      <formula>AND($A19="end group", #REF! = "", $C19 = "", $E21 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "", $O19 = "", $P19 = "", $Q19 = "", $S19 = "", $T19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20 C20">
+    <cfRule type="expression" dxfId="41" priority="266">
+      <formula>AND($A20="end repeat", $B19 = "", $C20 = "", $E22 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "", $O20 = "", $P20 = "", $Q20 = "", $S20 = "", $T20 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="expression" dxfId="40" priority="267">
+      <formula>AND($A20="end repeat", $B19 = "", $C20 = "", $E22 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "", $O20 = "", $P20 = "", $Q20 = "", $S20 = "", $T20 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19 C19">
+    <cfRule type="expression" dxfId="39" priority="268">
+      <formula>AND($A19="end repeat", #REF! = "", $C19 = "", $E21 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "", $O19 = "", $P19 = "", $Q19 = "", $S19 = "", $T19 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="49" priority="244">
-      <formula>AND($A19="begin group", NOT($B18 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:A19 C18:C19">
-    <cfRule type="expression" dxfId="48" priority="245">
-      <formula>AND($A18="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="47" priority="250">
-      <formula>AND(AND(NOT($A19 = "end group"), NOT($A19 = "end repeat"), NOT($A19 = "")), $B18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="46" priority="252">
-      <formula>AND($A19="begin repeat", NOT($B18 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:A19 C18:C19">
-    <cfRule type="expression" dxfId="45" priority="253">
-      <formula>AND($A18="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19 C19">
-    <cfRule type="expression" dxfId="44" priority="262">
-      <formula>AND($A19="end group", $B18 = "", $C19 = "", $E21 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "", $O19 = "", $P19 = "", $Q19 = "", $S19 = "", $T19 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="43" priority="263">
-      <formula>AND($A19="end group", $B18 = "", $C19 = "", $E21 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "", $O19 = "", $P19 = "", $Q19 = "", $S19 = "", $T19 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18 C18">
-    <cfRule type="expression" dxfId="42" priority="264">
-      <formula>AND($A18="end group", #REF! = "", $C18 = "", $E20 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "", $O18 = "", $P18 = "", $Q18 = "", $S18 = "", $T18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19 C19">
-    <cfRule type="expression" dxfId="41" priority="266">
-      <formula>AND($A19="end repeat", $B18 = "", $C19 = "", $E21 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "", $O19 = "", $P19 = "", $Q19 = "", $S19 = "", $T19 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="40" priority="267">
-      <formula>AND($A19="end repeat", $B18 = "", $C19 = "", $E21 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "", $O19 = "", $P19 = "", $Q19 = "", $S19 = "", $T19 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18 C18">
-    <cfRule type="expression" dxfId="39" priority="268">
-      <formula>AND($A18="end repeat", #REF! = "", $C18 = "", $E20 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "", $O18 = "", $P18 = "", $Q18 = "", $S18 = "", $T18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
     <cfRule type="cellIs" dxfId="38" priority="21" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
+  <conditionalFormatting sqref="A24">
     <cfRule type="cellIs" dxfId="37" priority="14" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
+  <conditionalFormatting sqref="A24">
     <cfRule type="containsText" dxfId="36" priority="16" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A23))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
+  <conditionalFormatting sqref="A24">
     <cfRule type="cellIs" dxfId="35" priority="17" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
+  <conditionalFormatting sqref="A30">
     <cfRule type="expression" dxfId="34" priority="7">
-      <formula>AND($A29="begin group", NOT($B29 = ""))</formula>
+      <formula>AND($A30="begin group", NOT($B30 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
+  <conditionalFormatting sqref="A30">
     <cfRule type="expression" dxfId="33" priority="8">
-      <formula>AND($A29="end group", $B29 = "", $C29 = "", $E29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "", $O29 = "", $P29 = "", $Q29 = "", $S29 = "", $T29 = "")</formula>
+      <formula>AND($A30="end group", $B30 = "", $C30 = "", $E30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "", $O30 = "", $P30 = "", $Q30 = "", $S30 = "", $T30 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
+  <conditionalFormatting sqref="A30">
     <cfRule type="cellIs" dxfId="32" priority="9" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
+  <conditionalFormatting sqref="A30">
     <cfRule type="expression" dxfId="31" priority="10">
-      <formula>AND($A29="begin repeat", NOT($B29 = ""))</formula>
+      <formula>AND($A30="begin repeat", NOT($B30 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
+  <conditionalFormatting sqref="A30">
     <cfRule type="expression" dxfId="30" priority="11">
-      <formula>AND($A29="end repeat", $B29 = "", $C29 = "", $E29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "", $O29 = "", $P29 = "", $Q29 = "", $S29 = "", $T29 = "")</formula>
+      <formula>AND($A30="end repeat", $B30 = "", $C30 = "", $E30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "", $O30 = "", $P30 = "", $Q30 = "", $S30 = "", $T30 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
+  <conditionalFormatting sqref="A30">
     <cfRule type="containsText" dxfId="29" priority="12" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A29))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A30))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23 A23">
+  <conditionalFormatting sqref="C24 A24">
     <cfRule type="expression" dxfId="28" priority="286">
-      <formula>AND($A23="begin group", NOT($B17 = ""))</formula>
+      <formula>AND($A24="begin group", NOT($B18 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23 A23">
+  <conditionalFormatting sqref="C24 A24">
     <cfRule type="expression" dxfId="27" priority="287">
-      <formula>AND($A23="begin repeat", NOT($B17 = ""))</formula>
+      <formula>AND($A24="begin repeat", NOT($B18 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
+  <conditionalFormatting sqref="C24">
     <cfRule type="expression" dxfId="26" priority="289">
-      <formula>AND($A23="end group", $B17 = "", $C23 = "", #REF! = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "", $O23 = "", $P23 = "", $Q23 = "", $S23 = "", $T23 = "")</formula>
+      <formula>AND($A24="end group", $B18 = "", $C24 = "", #REF! = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "", $O24 = "", $P24 = "", $Q24 = "", $S24 = "", $T24 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
+  <conditionalFormatting sqref="C24">
     <cfRule type="expression" dxfId="25" priority="290">
-      <formula>AND($A23="end repeat", $B17 = "", $C23 = "", #REF! = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "", $O23 = "", $P23 = "", $Q23 = "", $S23 = "", $T23 = "")</formula>
+      <formula>AND($A24="end repeat", $B18 = "", $C24 = "", #REF! = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "", $O24 = "", $P24 = "", $Q24 = "", $S24 = "", $T24 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
+  <conditionalFormatting sqref="B18">
     <cfRule type="expression" dxfId="24" priority="291">
-      <formula>AND($A23="begin group", NOT($B17 = ""))</formula>
+      <formula>AND($A24="begin group", NOT($B18 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
+  <conditionalFormatting sqref="B18">
     <cfRule type="expression" dxfId="23" priority="292">
-      <formula>AND(AND(NOT($A23 = "end group"), NOT($A23 = "end repeat"), NOT($A23 = "")), $B17 = "")</formula>
+      <formula>AND(AND(NOT($A24 = "end group"), NOT($A24 = "end repeat"), NOT($A24 = "")), $B18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
+  <conditionalFormatting sqref="B18">
     <cfRule type="expression" dxfId="22" priority="293">
-      <formula>AND($A23="begin repeat", NOT($B17 = ""))</formula>
+      <formula>AND($A24="begin repeat", NOT($B18 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
+  <conditionalFormatting sqref="B18">
     <cfRule type="expression" dxfId="21" priority="294">
-      <formula>AND($A23="end group", $B17 = "", $C23 = "", #REF! = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "", $O23 = "", $P23 = "", $Q23 = "", $S23 = "", $T23 = "")</formula>
+      <formula>AND($A24="end group", $B18 = "", $C24 = "", #REF! = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "", $O24 = "", $P24 = "", $Q24 = "", $S24 = "", $T24 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
+  <conditionalFormatting sqref="B18">
     <cfRule type="expression" dxfId="20" priority="295">
-      <formula>AND($A23="end repeat", $B17 = "", $C23 = "", #REF! = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "", $O23 = "", $P23 = "", $Q23 = "", $S23 = "", $T23 = "")</formula>
+      <formula>AND($A24="end repeat", $B18 = "", $C24 = "", #REF! = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "", $O24 = "", $P24 = "", $Q24 = "", $S24 = "", $T24 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
+  <conditionalFormatting sqref="A24">
     <cfRule type="expression" dxfId="19" priority="298">
-      <formula>AND($A23="end group", $B17 = "", $C23 = "", #REF! = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "", $O23 = "", $P23 = "", $Q23 = "", $S23 = "", $T23 = "")</formula>
+      <formula>AND($A24="end group", $B18 = "", $C24 = "", #REF! = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "", $O24 = "", $P24 = "", $Q24 = "", $S24 = "", $T24 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
+  <conditionalFormatting sqref="A24">
     <cfRule type="expression" dxfId="18" priority="299">
-      <formula>AND($A23="end repeat", $B17 = "", $C23 = "", #REF! = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "", $O23 = "", $P23 = "", $Q23 = "", $S23 = "", $T23 = "")</formula>
+      <formula>AND($A24="end repeat", $B18 = "", $C24 = "", #REF! = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "", $O24 = "", $P24 = "", $Q24 = "", $S24 = "", $T24 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17 C17">
+  <conditionalFormatting sqref="A18 C18">
     <cfRule type="expression" dxfId="17" priority="309">
-      <formula>AND($A17="begin group", NOT($B23 = ""))</formula>
+      <formula>AND($A18="begin group", NOT($B24 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
+  <conditionalFormatting sqref="B24">
     <cfRule type="expression" dxfId="16" priority="311">
-      <formula>AND($A17="begin group", NOT($B23 = ""))</formula>
+      <formula>AND($A18="begin group", NOT($B24 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17 C17">
+  <conditionalFormatting sqref="A18 C18">
     <cfRule type="expression" dxfId="15" priority="312">
-      <formula>AND($A17="end group", $B23 = "", $C17 = "", $E17 = "", $J17 = "", $K17 = "", $L17 = "", $M17 = "", $O17 = "", $P17 = "", $Q17 = "", $S17 = "", $T17 = "")</formula>
+      <formula>AND($A18="end group", $B24 = "", $C18 = "", $E18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "", $O18 = "", $P18 = "", $Q18 = "", $S18 = "", $T18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
+  <conditionalFormatting sqref="B24">
     <cfRule type="expression" dxfId="14" priority="314">
-      <formula>AND($A17="end group", $B23 = "", $C17 = "", $E17 = "", $J17 = "", $K17 = "", $L17 = "", $M17 = "", $O17 = "", $P17 = "", $Q17 = "", $S17 = "", $T17 = "")</formula>
+      <formula>AND($A18="end group", $B24 = "", $C18 = "", $E18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "", $O18 = "", $P18 = "", $Q18 = "", $S18 = "", $T18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
+  <conditionalFormatting sqref="B24">
     <cfRule type="expression" dxfId="13" priority="315">
-      <formula>AND(AND(NOT($A17 = "end group"), NOT($A17 = "end repeat"), NOT($A17 = "")), $B23 = "")</formula>
+      <formula>AND(AND(NOT($A18 = "end group"), NOT($A18 = "end repeat"), NOT($A18 = "")), $B24 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17 C17">
+  <conditionalFormatting sqref="A18 C18">
     <cfRule type="expression" dxfId="12" priority="316">
-      <formula>AND($A17="begin repeat", NOT($B23 = ""))</formula>
+      <formula>AND($A18="begin repeat", NOT($B24 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
+  <conditionalFormatting sqref="B24">
     <cfRule type="expression" dxfId="11" priority="318">
-      <formula>AND($A17="begin repeat", NOT($B23 = ""))</formula>
+      <formula>AND($A18="begin repeat", NOT($B24 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17 C17">
+  <conditionalFormatting sqref="A18 C18">
     <cfRule type="expression" dxfId="10" priority="319">
-      <formula>AND($A17="end repeat", $B23 = "", $C17 = "", $E17 = "", $J17 = "", $K17 = "", $L17 = "", $M17 = "", $O17 = "", $P17 = "", $Q17 = "", $S17 = "", $T17 = "")</formula>
+      <formula>AND($A18="end repeat", $B24 = "", $C18 = "", $E18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "", $O18 = "", $P18 = "", $Q18 = "", $S18 = "", $T18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
+  <conditionalFormatting sqref="B24">
     <cfRule type="expression" dxfId="9" priority="321">
-      <formula>AND($A17="end repeat", $B23 = "", $C17 = "", $E17 = "", $J17 = "", $K17 = "", $L17 = "", $M17 = "", $O17 = "", $P17 = "", $Q17 = "", $S17 = "", $T17 = "")</formula>
+      <formula>AND($A18="end repeat", $B24 = "", $C18 = "", $E18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "", $O18 = "", $P18 = "", $Q18 = "", $S18 = "", $T18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32:A34">
+  <conditionalFormatting sqref="A33:A35">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32:A34">
+  <conditionalFormatting sqref="A33:A35">
     <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"end group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
+  <conditionalFormatting sqref="A31">
     <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
+  <conditionalFormatting sqref="A31">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"end group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
+  <conditionalFormatting sqref="A32">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
+  <conditionalFormatting sqref="A32">
     <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"end group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
+  <conditionalFormatting sqref="B9">
     <cfRule type="expression" dxfId="2" priority="327">
-      <formula>COUNTIF($B$2:$B$1091,B8)&gt;1</formula>
+      <formula>COUNTIF($B$2:$B$1092,B9)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:B28 B20:B25 B17:B18">
+  <conditionalFormatting sqref="B28:B29 B21:B26 B18:B19">
     <cfRule type="expression" dxfId="1" priority="328">
-      <formula>COUNTIF($B$9:$B$1098,B17)&gt;1</formula>
+      <formula>COUNTIF($B$10:$B$1099,B18)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B7">
+  <conditionalFormatting sqref="B2:B8">
     <cfRule type="expression" dxfId="0" priority="331">
-      <formula>COUNTIF($B$2:$B$1090,B2)&gt;1</formula>
+      <formula>COUNTIF($B$2:$B$1091,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31299,7 +31355,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-28 22-39</v>
+        <v>2022-10-28 23-51</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>19</v>

--- a/forms/contact/house_hold-edit.xlsx
+++ b/forms/contact/house_hold-edit.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="108">
   <si>
     <t xml:space="preserve">Name of Household Head </t>
   </si>
@@ -139,9 +139,6 @@
     <t>house_member</t>
   </si>
   <si>
-    <t>house_name</t>
-  </si>
-  <si>
     <t>select_one gender</t>
   </si>
   <si>
@@ -254,9 +251,6 @@
   </si>
   <si>
     <t>field-list</t>
-  </si>
-  <si>
-    <t>hm_name</t>
   </si>
   <si>
     <t>Does ${hm_name} know their date of birth?</t>
@@ -2050,10 +2044,10 @@
   <dimension ref="A1:Z1011"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2081,37 +2075,37 @@
         <v>21</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>50</v>
-      </c>
       <c r="F1" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G1" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -2128,13 +2122,13 @@
     </row>
     <row r="2" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A2" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
@@ -2162,13 +2156,13 @@
     </row>
     <row r="3" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A3" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -2196,13 +2190,13 @@
     </row>
     <row r="4" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A4" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
@@ -2230,13 +2224,13 @@
     </row>
     <row r="5" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A5" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D5" s="39"/>
       <c r="E5" s="14"/>
@@ -2264,13 +2258,13 @@
     </row>
     <row r="6" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A6" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -2298,7 +2292,7 @@
     </row>
     <row r="7" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A7" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -2328,7 +2322,7 @@
     </row>
     <row r="8" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A8" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -2358,13 +2352,13 @@
     </row>
     <row r="9" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A9" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
@@ -2395,7 +2389,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>0</v>
@@ -2428,7 +2422,7 @@
     </row>
     <row r="11" spans="1:26" ht="13.2">
       <c r="A11" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>28</v>
@@ -2464,13 +2458,13 @@
     </row>
     <row r="12" spans="1:26" ht="13.2">
       <c r="A12" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>2</v>
@@ -2512,7 +2506,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
@@ -2550,15 +2544,15 @@
         <v>2</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
       <c r="H14" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -2652,7 +2646,7 @@
     </row>
     <row r="17" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A17" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -2682,13 +2676,13 @@
     </row>
     <row r="18" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A18" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -2716,13 +2710,13 @@
     </row>
     <row r="19" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A19" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -2750,13 +2744,13 @@
     </row>
     <row r="20" spans="1:26" s="12" customFormat="1" ht="26.4">
       <c r="A20" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
@@ -2787,17 +2781,17 @@
         <v>11</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="18"/>
@@ -2822,7 +2816,7 @@
     </row>
     <row r="22" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A22" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -2852,13 +2846,13 @@
     </row>
     <row r="23" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A23" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
@@ -2886,13 +2880,13 @@
     </row>
     <row r="24" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A24" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
@@ -2920,13 +2914,13 @@
     </row>
     <row r="25" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A25" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="17"/>
       <c r="F25" s="17"/>
@@ -2953,7 +2947,7 @@
     </row>
     <row r="26" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A26" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>28</v>
@@ -2987,13 +2981,13 @@
     </row>
     <row r="27" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A27" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
@@ -3033,7 +3027,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F28" s="31"/>
       <c r="G28" s="31"/>
@@ -3062,16 +3056,16 @@
         <v>7</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F29" s="31"/>
       <c r="G29" s="31"/>
@@ -3097,7 +3091,7 @@
     </row>
     <row r="30" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A30" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="11"/>
@@ -3127,22 +3121,22 @@
     </row>
     <row r="31" spans="1:26" s="3" customFormat="1" ht="14.4">
       <c r="A31" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
       <c r="G31" s="35"/>
       <c r="H31" s="35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I31" s="35"/>
       <c r="J31" s="35"/>
@@ -3165,10 +3159,10 @@
     </row>
     <row r="32" spans="1:26" s="3" customFormat="1" ht="14.4">
       <c r="A32" s="36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C32" s="35"/>
       <c r="D32" s="34"/>
@@ -3178,7 +3172,7 @@
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
       <c r="J32" s="35" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K32" s="1"/>
       <c r="N32" s="1"/>
@@ -3197,10 +3191,10 @@
     </row>
     <row r="33" spans="1:26" s="3" customFormat="1" ht="14.4">
       <c r="A33" s="36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C33" s="35"/>
       <c r="D33" s="34"/>
@@ -3210,7 +3204,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
       <c r="J33" s="35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K33" s="1"/>
       <c r="N33" s="1"/>
@@ -3229,10 +3223,10 @@
     </row>
     <row r="34" spans="1:26" s="3" customFormat="1" ht="14.4">
       <c r="A34" s="36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C34" s="35"/>
       <c r="D34" s="34"/>
@@ -3242,7 +3236,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
       <c r="J34" s="35" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K34" s="1"/>
       <c r="N34" s="1"/>
@@ -3261,7 +3255,7 @@
     </row>
     <row r="35" spans="1:26" s="3" customFormat="1" ht="14.4">
       <c r="A35" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
@@ -3291,7 +3285,7 @@
     </row>
     <row r="36" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A36" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="11"/>
@@ -31176,7 +31170,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>26</v>
@@ -31187,7 +31181,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>27</v>
@@ -31264,7 +31258,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>2</v>
@@ -31275,7 +31269,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>9</v>
@@ -31343,19 +31337,19 @@
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-28 23-51</v>
+        <v>2022-10-31 21-06</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>19</v>

--- a/forms/contact/house_hold-edit.xlsx
+++ b/forms/contact/house_hold-edit.xlsx
@@ -154,9 +154,6 @@
     <t>female</t>
   </si>
   <si>
-    <t>Does ${house_name} know their date of birth</t>
-  </si>
-  <si>
     <t>Age limit =&gt; 10 years=&lt;100</t>
   </si>
   <si>
@@ -194,9 +191,6 @@
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>Are there other family members currently living in ${house_name}'s homestead?</t>
   </si>
   <si>
     <t>knows_dob</t>
@@ -348,6 +342,12 @@
   </si>
   <si>
     <t>facility_id</t>
+  </si>
+  <si>
+    <t>Does ${name} know their date of birth</t>
+  </si>
+  <si>
+    <t>Are there other family members currently living in ${name}'s homestead?</t>
   </si>
 </sst>
 </file>
@@ -2044,10 +2044,10 @@
   <dimension ref="A1:Z1011"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2075,37 +2075,37 @@
         <v>21</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>49</v>
-      </c>
       <c r="F1" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G1" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -2122,13 +2122,13 @@
     </row>
     <row r="2" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A2" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
@@ -2156,13 +2156,13 @@
     </row>
     <row r="3" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A3" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -2190,13 +2190,13 @@
     </row>
     <row r="4" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A4" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
@@ -2224,13 +2224,13 @@
     </row>
     <row r="5" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A5" s="38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5" s="39"/>
       <c r="E5" s="14"/>
@@ -2258,13 +2258,13 @@
     </row>
     <row r="6" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A6" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -2292,7 +2292,7 @@
     </row>
     <row r="7" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A7" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -2322,7 +2322,7 @@
     </row>
     <row r="8" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A8" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -2352,13 +2352,13 @@
     </row>
     <row r="9" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A9" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
@@ -2464,7 +2464,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>2</v>
@@ -2506,7 +2506,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
@@ -2544,15 +2544,15 @@
         <v>2</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
       <c r="H14" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="17" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A17" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -2676,13 +2676,13 @@
     </row>
     <row r="18" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A18" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -2710,13 +2710,13 @@
     </row>
     <row r="19" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A19" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -2744,13 +2744,13 @@
     </row>
     <row r="20" spans="1:26" s="12" customFormat="1" ht="26.4">
       <c r="A20" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
@@ -2781,17 +2781,17 @@
         <v>11</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="18"/>
@@ -2816,7 +2816,7 @@
     </row>
     <row r="22" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A22" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -2846,13 +2846,13 @@
     </row>
     <row r="23" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A23" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
@@ -2880,13 +2880,13 @@
     </row>
     <row r="24" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A24" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
@@ -2914,13 +2914,13 @@
     </row>
     <row r="25" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A25" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D25" s="17"/>
       <c r="F25" s="17"/>
@@ -2981,13 +2981,13 @@
     </row>
     <row r="27" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A27" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
@@ -3027,7 +3027,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F28" s="31"/>
       <c r="G28" s="31"/>
@@ -3056,16 +3056,16 @@
         <v>7</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F29" s="31"/>
       <c r="G29" s="31"/>
@@ -3091,7 +3091,7 @@
     </row>
     <row r="30" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A30" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="11"/>
@@ -3121,22 +3121,22 @@
     </row>
     <row r="31" spans="1:26" s="3" customFormat="1" ht="14.4">
       <c r="A31" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
       <c r="G31" s="35"/>
       <c r="H31" s="35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I31" s="35"/>
       <c r="J31" s="35"/>
@@ -3159,10 +3159,10 @@
     </row>
     <row r="32" spans="1:26" s="3" customFormat="1" ht="14.4">
       <c r="A32" s="36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C32" s="35"/>
       <c r="D32" s="34"/>
@@ -3172,7 +3172,7 @@
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
       <c r="J32" s="35" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K32" s="1"/>
       <c r="N32" s="1"/>
@@ -3191,10 +3191,10 @@
     </row>
     <row r="33" spans="1:26" s="3" customFormat="1" ht="14.4">
       <c r="A33" s="36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C33" s="35"/>
       <c r="D33" s="34"/>
@@ -3204,7 +3204,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
       <c r="J33" s="35" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K33" s="1"/>
       <c r="N33" s="1"/>
@@ -3223,10 +3223,10 @@
     </row>
     <row r="34" spans="1:26" s="3" customFormat="1" ht="14.4">
       <c r="A34" s="36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C34" s="35"/>
       <c r="D34" s="34"/>
@@ -3236,7 +3236,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
       <c r="J34" s="35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K34" s="1"/>
       <c r="N34" s="1"/>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="35" spans="1:26" s="3" customFormat="1" ht="14.4">
       <c r="A35" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="36" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A36" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="11"/>
@@ -31258,7 +31258,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>2</v>
@@ -31269,7 +31269,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>9</v>
@@ -31342,14 +31342,14 @@
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-31 21-06</v>
+        <v>2022-10-31 22-06</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>19</v>

--- a/forms/contact/house_hold-edit.xlsx
+++ b/forms/contact/house_hold-edit.xlsx
@@ -247,9 +247,6 @@
     <t>field-list</t>
   </si>
   <si>
-    <t>Does ${hm_name} know their date of birth?</t>
-  </si>
-  <si>
     <t xml:space="preserve">selected(../date_of_birth, 'yes')
 </t>
   </si>
@@ -344,10 +341,13 @@
     <t>facility_id</t>
   </si>
   <si>
-    <t>Does ${name} know their date of birth</t>
+    <t>Are there other family members currently living in ${name}'s homestead?</t>
   </si>
   <si>
-    <t>Are there other family members currently living in ${name}'s homestead?</t>
+    <t>Does ${../house_contact_name/name} know their date of birth</t>
+  </si>
+  <si>
+    <t>Does ${../repeat/name} know their date of birth?</t>
   </si>
 </sst>
 </file>
@@ -2044,10 +2044,10 @@
   <dimension ref="A1:Z1011"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2084,7 +2084,7 @@
         <v>72</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>44</v>
@@ -2093,19 +2093,19 @@
         <v>46</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -2227,10 +2227,10 @@
         <v>55</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="39"/>
       <c r="E5" s="14"/>
@@ -2506,7 +2506,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
@@ -2544,7 +2544,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
@@ -2679,7 +2679,7 @@
         <v>49</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>51</v>
@@ -2710,13 +2710,13 @@
     </row>
     <row r="19" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A19" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -2744,13 +2744,13 @@
     </row>
     <row r="20" spans="1:26" s="12" customFormat="1" ht="26.4">
       <c r="A20" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
@@ -2788,7 +2788,7 @@
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>73</v>
@@ -2880,13 +2880,13 @@
     </row>
     <row r="24" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A24" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
@@ -2987,7 +2987,7 @@
         <v>56</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
@@ -3027,7 +3027,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F28" s="31"/>
       <c r="G28" s="31"/>
@@ -3065,7 +3065,7 @@
         <v>2</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F29" s="31"/>
       <c r="G29" s="31"/>
@@ -3091,7 +3091,7 @@
     </row>
     <row r="30" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A30" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="11"/>
@@ -3124,19 +3124,19 @@
         <v>49</v>
       </c>
       <c r="B31" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="D31" s="34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
       <c r="G31" s="35"/>
       <c r="H31" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I31" s="35"/>
       <c r="J31" s="35"/>
@@ -3159,10 +3159,10 @@
     </row>
     <row r="32" spans="1:26" s="3" customFormat="1" ht="14.4">
       <c r="A32" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C32" s="35"/>
       <c r="D32" s="34"/>
@@ -3172,7 +3172,7 @@
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
       <c r="J32" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K32" s="1"/>
       <c r="N32" s="1"/>
@@ -3191,10 +3191,10 @@
     </row>
     <row r="33" spans="1:26" s="3" customFormat="1" ht="14.4">
       <c r="A33" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C33" s="35"/>
       <c r="D33" s="34"/>
@@ -3204,7 +3204,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
       <c r="J33" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K33" s="1"/>
       <c r="N33" s="1"/>
@@ -3223,10 +3223,10 @@
     </row>
     <row r="34" spans="1:26" s="3" customFormat="1" ht="14.4">
       <c r="A34" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C34" s="35"/>
       <c r="D34" s="34"/>
@@ -3236,7 +3236,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
       <c r="J34" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K34" s="1"/>
       <c r="N34" s="1"/>
@@ -31342,14 +31342,14 @@
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-31 22-06</v>
+        <v>2022-10-31 22-11</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>19</v>

--- a/forms/contact/house_hold-edit.xlsx
+++ b/forms/contact/house_hold-edit.xlsx
@@ -341,13 +341,13 @@
     <t>facility_id</t>
   </si>
   <si>
-    <t>Are there other family members currently living in ${name}'s homestead?</t>
+    <t>Does ${name} know their date of birth</t>
   </si>
   <si>
-    <t>Does ${../house_contact_name/name} know their date of birth</t>
+    <t>Does ${name} know their date of birth?</t>
   </si>
   <si>
-    <t>Does ${../repeat/name} know their date of birth?</t>
+    <t>Are there other family members currently living in ${../inputs/user/house_contact_name/name}'s homestead?</t>
   </si>
 </sst>
 </file>
@@ -2044,10 +2044,10 @@
   <dimension ref="A1:Z1011"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2464,7 +2464,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>2</v>
@@ -2708,7 +2708,7 @@
       <c r="Y18" s="13"/>
       <c r="Z18" s="13"/>
     </row>
-    <row r="19" spans="1:26" s="12" customFormat="1" ht="13.2">
+    <row r="19" spans="1:26" s="12" customFormat="1" ht="26.4">
       <c r="A19" s="19" t="s">
         <v>80</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>37</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -2987,7 +2987,7 @@
         <v>56</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
@@ -31349,7 +31349,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-31 22-11</v>
+        <v>2022-10-31 22-46</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>19</v>

--- a/forms/contact/house_hold-edit.xlsx
+++ b/forms/contact/house_hold-edit.xlsx
@@ -347,7 +347,7 @@
     <t>Does ${name} know their date of birth?</t>
   </si>
   <si>
-    <t>Are there other family members currently living in ${../inputs/user/house_contact_name/name}'s homestead?</t>
+    <t>Are there other family members currently living in ${../house_contact_name/name}'s homestead?</t>
   </si>
 </sst>
 </file>
@@ -2044,7 +2044,7 @@
   <dimension ref="A1:Z1011"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
@@ -31349,7 +31349,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-31 22-46</v>
+        <v>2022-10-31 22-49</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>19</v>

--- a/forms/contact/house_hold-edit.xlsx
+++ b/forms/contact/house_hold-edit.xlsx
@@ -347,7 +347,7 @@
     <t>Does ${name} know their date of birth?</t>
   </si>
   <si>
-    <t>Are there other family members currently living in ${../house_contact_name/name}'s homestead?</t>
+    <t>Are there other family members currently living in ${../inputs/user/house_contact_name/name}'s homestead?</t>
   </si>
 </sst>
 </file>
@@ -31349,7 +31349,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-31 22-49</v>
+        <v>2022-10-31 22-53</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>19</v>

--- a/forms/contact/house_hold-edit.xlsx
+++ b/forms/contact/house_hold-edit.xlsx
@@ -347,7 +347,7 @@
     <t>Does ${name} know their date of birth?</t>
   </si>
   <si>
-    <t>Are there other family members currently living in ${../inputs/user/house_contact_name/name}'s homestead?</t>
+    <t>Are there other family members currently living in ${../house_contact_name/hh_member/name}'s homestead?</t>
   </si>
 </sst>
 </file>
@@ -31349,7 +31349,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-31 22-53</v>
+        <v>2022-10-31 22-55</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>19</v>

--- a/forms/contact/house_hold-edit.xlsx
+++ b/forms/contact/house_hold-edit.xlsx
@@ -347,7 +347,7 @@
     <t>Does ${name} know their date of birth?</t>
   </si>
   <si>
-    <t>Are there other family members currently living in ${../house_contact_name/hh_member/name}'s homestead?</t>
+    <t>Are there other family members currently living in ${../hh_member/house_contact_name/name}'s homestead?</t>
   </si>
 </sst>
 </file>
@@ -2044,7 +2044,7 @@
   <dimension ref="A1:Z1011"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
@@ -31349,7 +31349,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-31 22-55</v>
+        <v>2022-10-31 22-59</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>19</v>

--- a/forms/contact/house_hold-edit.xlsx
+++ b/forms/contact/house_hold-edit.xlsx
@@ -347,7 +347,7 @@
     <t>Does ${name} know their date of birth?</t>
   </si>
   <si>
-    <t>Are there other family members currently living in ${../hh_member/house_contact_name/name}'s homestead?</t>
+    <t>Are there other family members currently living in ${../inputs/house_contact_name/name}'s homestead?</t>
   </si>
 </sst>
 </file>
@@ -2044,7 +2044,7 @@
   <dimension ref="A1:Z1011"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
@@ -31349,7 +31349,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-31 22-59</v>
+        <v>2022-10-31 23-09</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>19</v>

--- a/forms/contact/house_hold-edit.xlsx
+++ b/forms/contact/house_hold-edit.xlsx
@@ -347,7 +347,7 @@
     <t>Does ${name} know their date of birth?</t>
   </si>
   <si>
-    <t>Are there other family members currently living in ${../inputs/house_contact_name/name}'s homestead?</t>
+    <t>Are there other family members currently living in ${../inputs/user/house_contact_name/name}'s homestead?</t>
   </si>
 </sst>
 </file>
@@ -31349,7 +31349,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-31 23-09</v>
+        <v>2022-10-31 23-11</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>19</v>

--- a/forms/contact/house_hold-edit.xlsx
+++ b/forms/contact/house_hold-edit.xlsx
@@ -347,7 +347,7 @@
     <t>Does ${name} know their date of birth?</t>
   </si>
   <si>
-    <t>Are there other family members currently living in ${../inputs/user/house_contact_name/name}'s homestead?</t>
+    <t>Are there other family members currently living in ${inputs/user/house_contact_name/name}'s homestead?</t>
   </si>
 </sst>
 </file>
@@ -2044,10 +2044,10 @@
   <dimension ref="A1:Z1011"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -31349,7 +31349,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-31 23-11</v>
+        <v>2022-10-31 23-14</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>19</v>

--- a/forms/contact/house_hold-edit.xlsx
+++ b/forms/contact/house_hold-edit.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="112">
   <si>
     <t xml:space="preserve">Name of Household Head </t>
   </si>
@@ -272,9 +272,6 @@
     <t>select_one register_house_member</t>
   </si>
   <si>
-    <t>selected(../house_member, 'yes')</t>
-  </si>
-  <si>
     <t>hh_member</t>
   </si>
   <si>
@@ -294,9 +291,6 @@
   </si>
   <si>
     <t>NO_LABEL</t>
-  </si>
-  <si>
-    <t>hidden</t>
   </si>
   <si>
     <t>calculate</t>
@@ -347,14 +341,32 @@
     <t>Does ${name} know their date of birth?</t>
   </si>
   <si>
-    <t>Are there other family members currently living in ${inputs/user/house_contact_name/name}'s homestead?</t>
+    <t>num_hh_members</t>
+  </si>
+  <si>
+    <t>Number of household members?</t>
+  </si>
+  <si>
+    <t>repeat_count</t>
+  </si>
+  <si>
+    <t>${num_hh_members}</t>
+  </si>
+  <si>
+    <t>selected(../house_member,'yes')</t>
+  </si>
+  <si>
+    <t>selected(../register_house_member, 'yes')</t>
+  </si>
+  <si>
+    <t>Are there other family members currently living in ${/house_contact_name/name}'s homestead?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -437,6 +449,20 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF76A5AF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="20">
@@ -600,7 +626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -675,16 +701,407 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="104">
+  <dxfs count="111">
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFEAD1DC"/>
           <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -814,220 +1231,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFB7B7B7"/>
       </font>
       <fill>
@@ -1138,108 +1341,12 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF76A5AF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFD9D2E9"/>
           <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2041,11 +2148,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1011"/>
+  <dimension ref="A1:Z1012"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
@@ -2055,13 +2162,14 @@
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.4">
@@ -2084,7 +2192,7 @@
         <v>72</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>44</v>
@@ -2093,21 +2201,23 @@
         <v>46</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>102</v>
+      <c r="O1" s="4" t="s">
+        <v>107</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -2227,10 +2337,10 @@
         <v>55</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" s="39"/>
       <c r="E5" s="14"/>
@@ -2464,7 +2574,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>2</v>
@@ -2679,7 +2789,7 @@
         <v>49</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>51</v>
@@ -2716,7 +2826,7 @@
         <v>37</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -2742,18 +2852,20 @@
       <c r="Y19" s="13"/>
       <c r="Z19" s="13"/>
     </row>
-    <row r="20" spans="1:26" s="12" customFormat="1" ht="26.4">
-      <c r="A20" s="19" t="s">
-        <v>81</v>
+    <row r="20" spans="1:26" s="12" customFormat="1" ht="13.2">
+      <c r="A20" s="40" t="s">
+        <v>7</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>36</v>
+      <c r="B20" s="40" t="s">
+        <v>105</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>79</v>
+      <c r="C20" s="40" t="s">
+        <v>106</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="17" t="s">
+        <v>109</v>
+      </c>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="18"/>
@@ -2763,7 +2875,6 @@
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
       <c r="P20" s="13"/>
       <c r="Q20" s="13"/>
       <c r="R20" s="13"/>
@@ -2776,24 +2887,20 @@
       <c r="Y20" s="13"/>
       <c r="Z20" s="13"/>
     </row>
-    <row r="21" spans="1:26" s="12" customFormat="1" ht="13.2">
-      <c r="A21" s="15" t="s">
-        <v>11</v>
+    <row r="21" spans="1:26" s="12" customFormat="1" ht="26.4">
+      <c r="A21" s="19" t="s">
+        <v>81</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>67</v>
+      <c r="B21" s="17" t="s">
+        <v>36</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>52</v>
+      <c r="C21" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="D21" s="17"/>
-      <c r="E21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" s="2"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="13"/>
@@ -2815,15 +2922,23 @@
       <c r="Z21" s="13"/>
     </row>
     <row r="22" spans="1:26" s="12" customFormat="1" ht="13.2">
-      <c r="A22" s="19" t="s">
-        <v>53</v>
+      <c r="A22" s="15" t="s">
+        <v>11</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
+      <c r="B22" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>52</v>
+      </c>
       <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
+      <c r="E22" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="2"/>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
       <c r="J22" s="13"/>
@@ -2846,14 +2961,10 @@
     </row>
     <row r="23" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A23" s="19" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
-      <c r="B23" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>68</v>
-      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
@@ -2879,14 +2990,14 @@
       <c r="Z23" s="13"/>
     </row>
     <row r="24" spans="1:26" s="12" customFormat="1" ht="13.2">
-      <c r="A24" s="20" t="s">
-        <v>84</v>
+      <c r="A24" s="19" t="s">
+        <v>49</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>50</v>
+      <c r="B24" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
@@ -2913,16 +3024,17 @@
       <c r="Z24" s="13"/>
     </row>
     <row r="25" spans="1:26" s="12" customFormat="1" ht="13.2">
-      <c r="A25" s="19" t="s">
-        <v>55</v>
+      <c r="A25" s="20" t="s">
+        <v>83</v>
       </c>
-      <c r="B25" s="19" t="s">
-        <v>23</v>
+      <c r="B25" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
       <c r="H25" s="18"/>
@@ -2932,7 +3044,9 @@
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
+      <c r="O25" s="41" t="s">
+        <v>108</v>
+      </c>
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
@@ -2947,16 +3061,15 @@
     </row>
     <row r="26" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A26" s="19" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
       <c r="H26" s="18"/>
@@ -2981,13 +3094,13 @@
     </row>
     <row r="27" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A27" s="19" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
@@ -2995,42 +3108,38 @@
       <c r="G27" s="17"/>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="13"/>
     </row>
     <row r="28" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A28" s="19" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
       <c r="J28" s="1"/>
@@ -3053,19 +3162,19 @@
     </row>
     <row r="29" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A29" s="19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F29" s="31"/>
       <c r="G29" s="31"/>
@@ -3089,18 +3198,26 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" s="3" customFormat="1" ht="13.2">
-      <c r="A30" s="20" t="s">
-        <v>85</v>
+    <row r="30" spans="1:26" s="12" customFormat="1" ht="13.2">
+      <c r="A30" s="19" t="s">
+        <v>7</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
+      <c r="B30" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -3119,29 +3236,21 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" s="3" customFormat="1" ht="14.4">
-      <c r="A31" s="32" t="s">
-        <v>49</v>
+    <row r="31" spans="1:26" s="3" customFormat="1" ht="13.2">
+      <c r="A31" s="20" t="s">
+        <v>84</v>
       </c>
-      <c r="B31" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -3158,23 +3267,25 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" s="3" customFormat="1" ht="14.4">
-      <c r="A32" s="36" t="s">
-        <v>91</v>
+      <c r="A32" s="32" t="s">
+        <v>49</v>
       </c>
-      <c r="B32" s="37" t="s">
-        <v>92</v>
+      <c r="B32" s="33" t="s">
+        <v>87</v>
       </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="34"/>
+      <c r="C32" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="42"/>
       <c r="E32" s="35"/>
       <c r="F32" s="35"/>
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
-      <c r="J32" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="K32" s="1"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
@@ -3191,10 +3302,10 @@
     </row>
     <row r="33" spans="1:26" s="3" customFormat="1" ht="14.4">
       <c r="A33" s="36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C33" s="35"/>
       <c r="D33" s="34"/>
@@ -3204,7 +3315,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
       <c r="J33" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K33" s="1"/>
       <c r="N33" s="1"/>
@@ -3223,10 +3334,10 @@
     </row>
     <row r="34" spans="1:26" s="3" customFormat="1" ht="14.4">
       <c r="A34" s="36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C34" s="35"/>
       <c r="D34" s="34"/>
@@ -3236,7 +3347,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
       <c r="J34" s="35" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K34" s="1"/>
       <c r="N34" s="1"/>
@@ -3254,10 +3365,12 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" s="3" customFormat="1" ht="14.4">
-      <c r="A35" s="35" t="s">
-        <v>53</v>
+      <c r="A35" s="36" t="s">
+        <v>89</v>
       </c>
-      <c r="B35" s="35"/>
+      <c r="B35" s="37" t="s">
+        <v>94</v>
+      </c>
       <c r="C35" s="35"/>
       <c r="D35" s="34"/>
       <c r="E35" s="35"/>
@@ -3265,10 +3378,10 @@
       <c r="G35" s="35"/>
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="1"/>
+      <c r="J35" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="K35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -3283,21 +3396,21 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" s="3" customFormat="1" ht="13.2">
-      <c r="A36" s="20" t="s">
+    <row r="36" spans="1:26" s="3" customFormat="1" ht="14.4">
+      <c r="A36" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -3313,16 +3426,18 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="13.2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+    <row r="37" spans="1:26" s="3" customFormat="1" ht="13.2">
+      <c r="A37" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -30613,525 +30728,588 @@
       <c r="Y1011" s="1"/>
       <c r="Z1011" s="1"/>
     </row>
+    <row r="1012" spans="1:26" ht="13.2">
+      <c r="A1012" s="1"/>
+      <c r="B1012" s="1"/>
+      <c r="C1012" s="1"/>
+      <c r="D1012" s="1"/>
+      <c r="E1012" s="1"/>
+      <c r="F1012" s="1"/>
+      <c r="G1012" s="1"/>
+      <c r="H1012" s="1"/>
+      <c r="I1012" s="1"/>
+      <c r="J1012" s="1"/>
+      <c r="K1012" s="1"/>
+      <c r="L1012" s="1"/>
+      <c r="M1012" s="1"/>
+      <c r="N1012" s="1"/>
+      <c r="O1012" s="1"/>
+      <c r="P1012" s="1"/>
+      <c r="Q1012" s="1"/>
+      <c r="R1012" s="1"/>
+      <c r="S1012" s="1"/>
+      <c r="T1012" s="1"/>
+      <c r="U1012" s="1"/>
+      <c r="V1012" s="1"/>
+      <c r="W1012" s="1"/>
+      <c r="X1012" s="1"/>
+      <c r="Y1012" s="1"/>
+      <c r="Z1012" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:C8 A21:C23 A25:C26">
-    <cfRule type="expression" dxfId="103" priority="62">
+  <conditionalFormatting sqref="A2:C8 A22:C24 A26:C27">
+    <cfRule type="expression" dxfId="110" priority="69">
       <formula>AND($A2="begin group", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C8 A26:C26 A22:C22">
-    <cfRule type="expression" dxfId="102" priority="63">
+  <conditionalFormatting sqref="A2:C8 A27:C27 A23:C23">
+    <cfRule type="expression" dxfId="109" priority="70">
       <formula>AND($A2="end group", $B2 = "", $C2 = "", $E2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "", $O2 = "", $P2 = "", $Q2 = "", $S2 = "", $T2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C8 A21:C23 A20 C20 A25:C26 A19:C19 A18 C18 B24:C24">
-    <cfRule type="cellIs" dxfId="101" priority="64" operator="equal">
+  <conditionalFormatting sqref="A2:C8 A22:C24 A21 C21 A26:C27 A19:C19 A18 C18 B25:C25">
+    <cfRule type="cellIs" dxfId="108" priority="71" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B8 B21:B23 B25:B26">
-    <cfRule type="expression" dxfId="100" priority="65">
+  <conditionalFormatting sqref="B2:B8 B22:B24 B26:B27">
+    <cfRule type="expression" dxfId="107" priority="72">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $B2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C8 A21:C23 A25:C26">
-    <cfRule type="expression" dxfId="99" priority="67">
+  <conditionalFormatting sqref="A2:C8 A22:C24 A26:C27">
+    <cfRule type="expression" dxfId="106" priority="74">
       <formula>AND($A2="begin repeat", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C8 A26:C26 A22:C22">
-    <cfRule type="expression" dxfId="98" priority="68">
+  <conditionalFormatting sqref="A2:C8 A27:C27 A23:C23">
+    <cfRule type="expression" dxfId="105" priority="75">
       <formula>AND($A2="end repeat", $B2 = "", $C2 = "", $E2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "", $O2 = "", $P2 = "", $Q2 = "", $S2 = "", $T2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29 A2:A8 A18:A23 A25:A26">
-    <cfRule type="containsText" dxfId="97" priority="72" operator="containsText" text="calculate">
+  <conditionalFormatting sqref="A30 A2:A8 A18:A19 A26:A27 A21:A24">
+    <cfRule type="containsText" dxfId="104" priority="79" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C8 C18:C26">
-    <cfRule type="expression" dxfId="96" priority="73">
+  <conditionalFormatting sqref="C2:C8 C21:C27 C18:C19">
+    <cfRule type="expression" dxfId="103" priority="80">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $C2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A8 A18:A23 A25:A26">
-    <cfRule type="cellIs" dxfId="95" priority="74" operator="equal">
+  <conditionalFormatting sqref="A2:A8 A18:A19 A26:A27 A21:A24">
+    <cfRule type="cellIs" dxfId="102" priority="81" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:C30">
+    <cfRule type="expression" dxfId="101" priority="82">
+      <formula>AND($A30="begin group", NOT($B30 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:C30">
+    <cfRule type="expression" dxfId="100" priority="83">
+      <formula>AND($A30="end group", $B30 = "", $C30 = "", $E30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "", $O30 = "", $P30 = "", $Q30 = "", $S30 = "", $T30 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:C30">
+    <cfRule type="cellIs" dxfId="99" priority="84" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="98" priority="85">
+      <formula>AND(AND(NOT($A30 = "end group"), NOT($A30 = "end repeat"), NOT($A30 = "")), $C30 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="expression" dxfId="97" priority="86">
+      <formula>AND(AND(NOT($A30 = "end group"), NOT($A30 = "end repeat"), NOT($A30 = "")), $B30 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="cellIs" dxfId="96" priority="87" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:C30">
+    <cfRule type="expression" dxfId="95" priority="88">
+      <formula>AND($A30="begin repeat", NOT($B30 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:C30">
+    <cfRule type="expression" dxfId="94" priority="89">
+      <formula>AND($A30="end repeat", $B30 = "", $C30 = "", $E30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "", $O30 = "", $P30 = "", $Q30 = "", $S30 = "", $T30 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:C28">
+    <cfRule type="containsText" dxfId="93" priority="99" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:C28">
+    <cfRule type="expression" dxfId="92" priority="100">
+      <formula>AND($A28="begin group", NOT($B28 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:C28">
+    <cfRule type="expression" dxfId="91" priority="101">
+      <formula>AND($A28="end group", $B28 = "", $C28 = "", $E28 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "", $O28 = "", $P28 = "", $Q28 = "", $S28 = "", $T28 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:C28">
+    <cfRule type="cellIs" dxfId="90" priority="102" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:C28">
+    <cfRule type="cellIs" dxfId="89" priority="103" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:C28">
+    <cfRule type="expression" dxfId="88" priority="104">
+      <formula>AND($A28="begin repeat", NOT($B28 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:C28">
+    <cfRule type="expression" dxfId="87" priority="105">
+      <formula>AND($A28="end repeat", $B28 = "", $C28 = "", $E28 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "", $O28 = "", $P28 = "", $Q28 = "", $S28 = "", $T28 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="containsText" dxfId="86" priority="106" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:C29">
+    <cfRule type="expression" dxfId="85" priority="90">
+      <formula>AND($A29="begin group", NOT($B29 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:C29">
+    <cfRule type="expression" dxfId="84" priority="91">
+      <formula>AND($A29="end group", $B29 = "", $C29 = "", $E29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "", $O29 = "", $P29 = "", $Q29 = "", $S29 = "", $T29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:C29">
+    <cfRule type="cellIs" dxfId="83" priority="92" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="82" priority="93">
+      <formula>AND(AND(NOT($A29 = "end group"), NOT($A29 = "end repeat"), NOT($A29 = "")), $C29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="expression" dxfId="81" priority="94">
+      <formula>AND(AND(NOT($A29 = "end group"), NOT($A29 = "end repeat"), NOT($A29 = "")), $B29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="cellIs" dxfId="80" priority="95" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:C29">
-    <cfRule type="expression" dxfId="94" priority="75">
-      <formula>AND($A29="begin group", NOT($B29 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29:C29">
-    <cfRule type="expression" dxfId="93" priority="76">
-      <formula>AND($A29="end group", $B29 = "", $C29 = "", $E29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "", $O29 = "", $P29 = "", $Q29 = "", $S29 = "", $T29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29:C29">
-    <cfRule type="cellIs" dxfId="92" priority="77" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="91" priority="78">
-      <formula>AND(AND(NOT($A29 = "end group"), NOT($A29 = "end repeat"), NOT($A29 = "")), $C29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="90" priority="79">
-      <formula>AND(AND(NOT($A29 = "end group"), NOT($A29 = "end repeat"), NOT($A29 = "")), $B29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
-    <cfRule type="cellIs" dxfId="89" priority="80" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29:C29">
-    <cfRule type="expression" dxfId="88" priority="81">
+    <cfRule type="expression" dxfId="79" priority="97">
       <formula>AND($A29="begin repeat", NOT($B29 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:C29">
-    <cfRule type="expression" dxfId="87" priority="82">
+    <cfRule type="expression" dxfId="78" priority="98">
       <formula>AND($A29="end repeat", $B29 = "", $C29 = "", $E29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "", $O29 = "", $P29 = "", $Q29 = "", $S29 = "", $T29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27:C27">
-    <cfRule type="containsText" dxfId="86" priority="92" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="85" priority="93">
-      <formula>AND($A27="begin group", NOT($B27 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="84" priority="94">
-      <formula>AND($A27="end group", $B27 = "", $C27 = "", $E27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "", $O27 = "", $P27 = "", $Q27 = "", $S27 = "", $T27 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:C27">
-    <cfRule type="cellIs" dxfId="83" priority="95" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:C27">
-    <cfRule type="cellIs" dxfId="82" priority="96" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="81" priority="97">
-      <formula>AND($A27="begin repeat", NOT($B27 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="80" priority="98">
-      <formula>AND($A27="end repeat", $B27 = "", $C27 = "", $E27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "", $O27 = "", $P27 = "", $Q27 = "", $S27 = "", $T27 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
-    <cfRule type="containsText" dxfId="79" priority="99" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="78" priority="83">
-      <formula>AND($A28="begin group", NOT($B28 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="77" priority="84">
-      <formula>AND($A28="end group", $B28 = "", $C28 = "", $E28 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "", $O28 = "", $P28 = "", $Q28 = "", $S28 = "", $T28 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28:C28">
-    <cfRule type="cellIs" dxfId="76" priority="85" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="75" priority="86">
-      <formula>AND(AND(NOT($A28 = "end group"), NOT($A28 = "end repeat"), NOT($A28 = "")), $C28 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="74" priority="87">
-      <formula>AND(AND(NOT($A28 = "end group"), NOT($A28 = "end repeat"), NOT($A28 = "")), $B28 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="73" priority="88" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="72" priority="90">
-      <formula>AND($A28="begin repeat", NOT($B28 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="71" priority="91">
-      <formula>AND($A28="end repeat", $B28 = "", $C28 = "", $E28 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "", $O28 = "", $P28 = "", $Q28 = "", $S28 = "", $T28 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="containsText" dxfId="70" priority="55" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="77" priority="62" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="expression" dxfId="69" priority="56">
+    <cfRule type="expression" dxfId="76" priority="63">
       <formula>AND($A9="begin group", NOT($B9 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="expression" dxfId="68" priority="57">
+    <cfRule type="expression" dxfId="75" priority="64">
       <formula>AND($A9="end group", $B9 = "", $C9 = "", $E9 = "", $J9 = "", $K9 = "", $L9 = "", $M9 = "", $O9 = "", $P9 = "", $Q9 = "", $S9 = "", $T9 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="67" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="65" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="66" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="66" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="expression" dxfId="65" priority="60">
+    <cfRule type="expression" dxfId="72" priority="67">
       <formula>AND($A9="begin repeat", NOT($B9 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="expression" dxfId="64" priority="61">
+    <cfRule type="expression" dxfId="71" priority="68">
       <formula>AND($A9="end repeat", $B9 = "", $C9 = "", $E9 = "", $J9 = "", $K9 = "", $L9 = "", $M9 = "", $O9 = "", $P9 = "", $Q9 = "", $S9 = "", $T9 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="63" priority="48">
+    <cfRule type="expression" dxfId="70" priority="55">
       <formula>AND($A9="begin group", NOT($B9 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="62" priority="49">
+    <cfRule type="expression" dxfId="69" priority="56">
       <formula>AND($A9="end group", $B9 = "", $C9 = "", $E9 = "", $J9 = "", $K9 = "", $L9 = "", $M9 = "", $O9 = "", $P9 = "", $Q9 = "", $S9 = "", $T9 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="61" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="57" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="60" priority="51">
+    <cfRule type="expression" dxfId="67" priority="58">
       <formula>AND(AND(NOT($A9 = "end group"), NOT($A9 = "end repeat"), NOT($A9 = "")), $B9 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="59" priority="53">
+    <cfRule type="expression" dxfId="66" priority="60">
       <formula>AND($A9="begin repeat", NOT($B9 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="58" priority="54">
+    <cfRule type="expression" dxfId="65" priority="61">
       <formula>AND($A9="end repeat", $B9 = "", $C9 = "", $E9 = "", $J9 = "", $K9 = "", $L9 = "", $M9 = "", $O9 = "", $P9 = "", $Q9 = "", $S9 = "", $T9 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="57" priority="34">
-      <formula>AND($A36="begin group", NOT($B36 = ""))</formula>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="expression" dxfId="64" priority="41">
+      <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="56" priority="35">
-      <formula>AND($A36="end group", $B36 = "", $C36 = "", $E36 = "", $J36 = "", $K36 = "", $L36 = "", $M36 = "", $O36 = "", $P36 = "", $Q36 = "", $S36 = "", $T36 = "")</formula>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="expression" dxfId="63" priority="42">
+      <formula>AND($A37="end group", $B37 = "", $C37 = "", $E37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "", $O37 = "", $P37 = "", $Q37 = "", $S37 = "", $T37 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
-    <cfRule type="cellIs" dxfId="55" priority="36" operator="equal">
+  <conditionalFormatting sqref="A37">
+    <cfRule type="cellIs" dxfId="62" priority="43" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="54" priority="37">
-      <formula>AND($A36="begin repeat", NOT($B36 = ""))</formula>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="expression" dxfId="61" priority="44">
+      <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="53" priority="38">
-      <formula>AND($A36="end repeat", $B36 = "", $C36 = "", $E36 = "", $J36 = "", $K36 = "", $L36 = "", $M36 = "", $O36 = "", $P36 = "", $Q36 = "", $S36 = "", $T36 = "")</formula>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="expression" dxfId="60" priority="45">
+      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $E37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "", $O37 = "", $P37 = "", $Q37 = "", $S37 = "", $T37 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
-    <cfRule type="containsText" dxfId="52" priority="39" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A36))))</formula>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="containsText" dxfId="59" priority="46" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A37))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21:C21 A23:C23 A25:C25">
-    <cfRule type="expression" dxfId="51" priority="216">
-      <formula>AND($A21="end group", $B21 = "", $C21 = "", #REF! = "", $J21 = "", $K21 = "", $L21 = "", $M21 = "", $O21 = "", $P21 = "", $Q21 = "", $S21 = "", $T21 = "")</formula>
+  <conditionalFormatting sqref="A22:C22 A24:C24 A26:C26">
+    <cfRule type="expression" dxfId="58" priority="223">
+      <formula>AND($A22="end group", $B22 = "", $C22 = "", #REF! = "", $J22 = "", $K22 = "", $L22 = "", $M22 = "", $O22 = "", $P22 = "", $Q22 = "", $S22 = "", $T22 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21:C21 A23:C23 A25:C25">
-    <cfRule type="expression" dxfId="50" priority="219">
-      <formula>AND($A21="end repeat", $B21 = "", $C21 = "", #REF! = "", $J21 = "", $K21 = "", $L21 = "", $M21 = "", $O21 = "", $P21 = "", $Q21 = "", $S21 = "", $T21 = "")</formula>
+  <conditionalFormatting sqref="A22:C22 A24:C24 A26:C26">
+    <cfRule type="expression" dxfId="57" priority="226">
+      <formula>AND($A22="end repeat", $B22 = "", $C22 = "", #REF! = "", $J22 = "", $K22 = "", $L22 = "", $M22 = "", $O22 = "", $P22 = "", $Q22 = "", $S22 = "", $T22 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="49" priority="244">
-      <formula>AND($A20="begin group", NOT($B19 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:A20 C19:C20">
-    <cfRule type="expression" dxfId="48" priority="245">
+  <conditionalFormatting sqref="C21 A21 A19 C19">
+    <cfRule type="expression" dxfId="56" priority="252">
       <formula>AND($A19="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="47" priority="250">
-      <formula>AND(AND(NOT($A20 = "end group"), NOT($A20 = "end repeat"), NOT($A20 = "")), $B19 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="46" priority="252">
-      <formula>AND($A20="begin repeat", NOT($B19 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:A20 C19:C20">
-    <cfRule type="expression" dxfId="45" priority="253">
+  <conditionalFormatting sqref="C21 A21 A19 C19">
+    <cfRule type="expression" dxfId="55" priority="260">
       <formula>AND($A19="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20 C20">
-    <cfRule type="expression" dxfId="44" priority="262">
-      <formula>AND($A20="end group", $B19 = "", $C20 = "", $E22 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "", $O20 = "", $P20 = "", $Q20 = "", $S20 = "", $T20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="43" priority="263">
-      <formula>AND($A20="end group", $B19 = "", $C20 = "", $E22 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "", $O20 = "", $P20 = "", $Q20 = "", $S20 = "", $T20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19 C19">
-    <cfRule type="expression" dxfId="42" priority="264">
-      <formula>AND($A19="end group", #REF! = "", $C19 = "", $E21 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "", $O19 = "", $P19 = "", $Q19 = "", $S19 = "", $T19 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20 C20">
-    <cfRule type="expression" dxfId="41" priority="266">
-      <formula>AND($A20="end repeat", $B19 = "", $C20 = "", $E22 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "", $O20 = "", $P20 = "", $Q20 = "", $S20 = "", $T20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="40" priority="267">
-      <formula>AND($A20="end repeat", $B19 = "", $C20 = "", $E22 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "", $O20 = "", $P20 = "", $Q20 = "", $S20 = "", $T20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19 C19">
-    <cfRule type="expression" dxfId="39" priority="268">
-      <formula>AND($A19="end repeat", #REF! = "", $C19 = "", $E21 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "", $O19 = "", $P19 = "", $Q19 = "", $S19 = "", $T19 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="38" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="28" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
-    <cfRule type="cellIs" dxfId="37" priority="14" operator="equal">
+  <conditionalFormatting sqref="A25">
+    <cfRule type="cellIs" dxfId="53" priority="21" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
-    <cfRule type="containsText" dxfId="36" priority="16" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A24))))</formula>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="containsText" dxfId="52" priority="23" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A25))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
-    <cfRule type="cellIs" dxfId="35" priority="17" operator="equal">
+  <conditionalFormatting sqref="A25">
+    <cfRule type="cellIs" dxfId="51" priority="24" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="34" priority="7">
-      <formula>AND($A30="begin group", NOT($B30 = ""))</formula>
+  <conditionalFormatting sqref="A31">
+    <cfRule type="expression" dxfId="50" priority="14">
+      <formula>AND($A31="begin group", NOT($B31 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="33" priority="8">
-      <formula>AND($A30="end group", $B30 = "", $C30 = "", $E30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "", $O30 = "", $P30 = "", $Q30 = "", $S30 = "", $T30 = "")</formula>
+  <conditionalFormatting sqref="A31">
+    <cfRule type="expression" dxfId="49" priority="15">
+      <formula>AND($A31="end group", $B31 = "", $C31 = "", $E31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "", $O31 = "", $P31 = "", $Q31 = "", $S31 = "", $T31 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="cellIs" dxfId="32" priority="9" operator="equal">
+  <conditionalFormatting sqref="A31">
+    <cfRule type="cellIs" dxfId="48" priority="16" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="31" priority="10">
-      <formula>AND($A30="begin repeat", NOT($B30 = ""))</formula>
+  <conditionalFormatting sqref="A31">
+    <cfRule type="expression" dxfId="47" priority="17">
+      <formula>AND($A31="begin repeat", NOT($B31 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="30" priority="11">
-      <formula>AND($A30="end repeat", $B30 = "", $C30 = "", $E30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "", $O30 = "", $P30 = "", $Q30 = "", $S30 = "", $T30 = "")</formula>
+  <conditionalFormatting sqref="A31">
+    <cfRule type="expression" dxfId="46" priority="18">
+      <formula>AND($A31="end repeat", $B31 = "", $C31 = "", $E31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "", $O31 = "", $P31 = "", $Q31 = "", $S31 = "", $T31 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="containsText" dxfId="29" priority="12" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A30))))</formula>
+  <conditionalFormatting sqref="A31">
+    <cfRule type="containsText" dxfId="45" priority="19" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A31))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24 A24">
-    <cfRule type="expression" dxfId="28" priority="286">
-      <formula>AND($A24="begin group", NOT($B18 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24 A24">
-    <cfRule type="expression" dxfId="27" priority="287">
-      <formula>AND($A24="begin repeat", NOT($B18 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="26" priority="289">
-      <formula>AND($A24="end group", $B18 = "", $C24 = "", #REF! = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "", $O24 = "", $P24 = "", $Q24 = "", $S24 = "", $T24 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="25" priority="290">
-      <formula>AND($A24="end repeat", $B18 = "", $C24 = "", #REF! = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "", $O24 = "", $P24 = "", $Q24 = "", $S24 = "", $T24 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="24" priority="291">
-      <formula>AND($A24="begin group", NOT($B18 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="23" priority="292">
-      <formula>AND(AND(NOT($A24 = "end group"), NOT($A24 = "end repeat"), NOT($A24 = "")), $B18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="22" priority="293">
-      <formula>AND($A24="begin repeat", NOT($B18 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="21" priority="294">
-      <formula>AND($A24="end group", $B18 = "", $C24 = "", #REF! = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "", $O24 = "", $P24 = "", $Q24 = "", $S24 = "", $T24 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="20" priority="295">
-      <formula>AND($A24="end repeat", $B18 = "", $C24 = "", #REF! = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "", $O24 = "", $P24 = "", $Q24 = "", $S24 = "", $T24 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
-    <cfRule type="expression" dxfId="19" priority="298">
-      <formula>AND($A24="end group", $B18 = "", $C24 = "", #REF! = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "", $O24 = "", $P24 = "", $Q24 = "", $S24 = "", $T24 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
-    <cfRule type="expression" dxfId="18" priority="299">
-      <formula>AND($A24="end repeat", $B18 = "", $C24 = "", #REF! = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "", $O24 = "", $P24 = "", $Q24 = "", $S24 = "", $T24 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18 C18">
-    <cfRule type="expression" dxfId="17" priority="309">
-      <formula>AND($A18="begin group", NOT($B24 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="16" priority="311">
-      <formula>AND($A18="begin group", NOT($B24 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18 C18">
-    <cfRule type="expression" dxfId="15" priority="312">
-      <formula>AND($A18="end group", $B24 = "", $C18 = "", $E18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "", $O18 = "", $P18 = "", $Q18 = "", $S18 = "", $T18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="14" priority="314">
-      <formula>AND($A18="end group", $B24 = "", $C18 = "", $E18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "", $O18 = "", $P18 = "", $Q18 = "", $S18 = "", $T18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="13" priority="315">
-      <formula>AND(AND(NOT($A18 = "end group"), NOT($A18 = "end repeat"), NOT($A18 = "")), $B24 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18 C18">
-    <cfRule type="expression" dxfId="12" priority="316">
-      <formula>AND($A18="begin repeat", NOT($B24 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="11" priority="318">
-      <formula>AND($A18="begin repeat", NOT($B24 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18 C18">
-    <cfRule type="expression" dxfId="10" priority="319">
-      <formula>AND($A18="end repeat", $B24 = "", $C18 = "", $E18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "", $O18 = "", $P18 = "", $Q18 = "", $S18 = "", $T18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="9" priority="321">
-      <formula>AND($A18="end repeat", $B24 = "", $C18 = "", $E18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "", $O18 = "", $P18 = "", $Q18 = "", $S18 = "", $T18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33:A35">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+  <conditionalFormatting sqref="A34:A36">
+    <cfRule type="cellIs" dxfId="44" priority="8" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33:A35">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
-      <formula>"end group"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
-      <formula>"begin group"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+  <conditionalFormatting sqref="A34:A36">
+    <cfRule type="cellIs" dxfId="43" priority="9" operator="equal">
       <formula>"end group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="10" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="11" operator="equal">
       <formula>"end group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="2" priority="327">
-      <formula>COUNTIF($B$2:$B$1092,B9)&gt;1</formula>
+  <conditionalFormatting sqref="A33">
+    <cfRule type="cellIs" dxfId="40" priority="12" operator="equal">
+      <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:B29 B21:B26 B18:B19">
-    <cfRule type="expression" dxfId="1" priority="328">
-      <formula>COUNTIF($B$10:$B$1099,B18)&gt;1</formula>
+  <conditionalFormatting sqref="A33">
+    <cfRule type="cellIs" dxfId="39" priority="13" operator="equal">
+      <formula>"end group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:B30 B22:B27 B18:B19">
+    <cfRule type="expression" dxfId="38" priority="335">
+      <formula>COUNTIF($B$10:$B$1100,B18)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="expression" dxfId="37" priority="338">
+      <formula>COUNTIF($B$2:$B$1093,B9)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="expression" dxfId="36" priority="340">
+      <formula>AND($A21="begin group", NOT($B19 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="expression" dxfId="35" priority="343">
+      <formula>AND(AND(NOT($A21 = "end group"), NOT($A21 = "end repeat"), NOT($A21 = "")), $B19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="expression" dxfId="34" priority="344">
+      <formula>AND($A21="begin repeat", NOT($B19 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21 C21">
+    <cfRule type="expression" dxfId="33" priority="347">
+      <formula>AND($A21="end group", $B19 = "", $C21 = "", $E23 = "", $J21 = "", $K21 = "", $L21 = "", $M21 = "", $O21 = "", $P21 = "", $Q21 = "", $S21 = "", $T21 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="expression" dxfId="32" priority="349">
+      <formula>AND($A21="end group", $B19 = "", $C21 = "", $E23 = "", $J21 = "", $K21 = "", $L21 = "", $M21 = "", $O21 = "", $P21 = "", $Q21 = "", $S21 = "", $T21 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19 C19">
+    <cfRule type="expression" dxfId="31" priority="350">
+      <formula>AND($A19="end group", #REF! = "", $C19 = "", $E22 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "", $O19 = "", $P19 = "", $Q19 = "", $S19 = "", $T19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21 C21">
+    <cfRule type="expression" dxfId="30" priority="352">
+      <formula>AND($A21="end repeat", $B19 = "", $C21 = "", $E23 = "", $J21 = "", $K21 = "", $L21 = "", $M21 = "", $O21 = "", $P21 = "", $Q21 = "", $S21 = "", $T21 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="expression" dxfId="29" priority="354">
+      <formula>AND($A21="end repeat", $B19 = "", $C21 = "", $E23 = "", $J21 = "", $K21 = "", $L21 = "", $M21 = "", $O21 = "", $P21 = "", $Q21 = "", $S21 = "", $T21 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19 C19">
+    <cfRule type="expression" dxfId="28" priority="355">
+      <formula>AND($A19="end repeat", #REF! = "", $C19 = "", $E22 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "", $O19 = "", $P19 = "", $Q19 = "", $S19 = "", $T19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25 A25">
+    <cfRule type="expression" dxfId="27" priority="357">
+      <formula>AND($A25="begin group", NOT($B18 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25 A25">
+    <cfRule type="expression" dxfId="26" priority="359">
+      <formula>AND($A25="begin repeat", NOT($B18 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="expression" dxfId="25" priority="363">
+      <formula>AND($A25="begin group", NOT($B18 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="expression" dxfId="24" priority="364">
+      <formula>AND(AND(NOT($A25 = "end group"), NOT($A25 = "end repeat"), NOT($A25 = "")), $B18 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="expression" dxfId="23" priority="365">
+      <formula>AND($A25="begin repeat", NOT($B18 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18 C18">
+    <cfRule type="expression" dxfId="22" priority="370">
+      <formula>AND($A18="begin group", NOT($B25 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
+    <cfRule type="expression" dxfId="21" priority="372">
+      <formula>AND($A18="begin group", NOT($B25 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18 C18">
+    <cfRule type="expression" dxfId="20" priority="373">
+      <formula>AND($A18="end group", $B25 = "", $C18 = "", $E18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "", $O18 = "", $P18 = "", $Q18 = "", $S18 = "", $T18 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
+    <cfRule type="expression" dxfId="19" priority="375">
+      <formula>AND($A18="end group", $B25 = "", $C18 = "", $E18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "", $O18 = "", $P18 = "", $Q18 = "", $S18 = "", $T18 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
+    <cfRule type="expression" dxfId="18" priority="376">
+      <formula>AND(AND(NOT($A18 = "end group"), NOT($A18 = "end repeat"), NOT($A18 = "")), $B25 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18 C18">
+    <cfRule type="expression" dxfId="17" priority="377">
+      <formula>AND($A18="begin repeat", NOT($B25 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
+    <cfRule type="expression" dxfId="16" priority="379">
+      <formula>AND($A18="begin repeat", NOT($B25 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18 C18">
+    <cfRule type="expression" dxfId="15" priority="380">
+      <formula>AND($A18="end repeat", $B25 = "", $C18 = "", $E18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "", $O18 = "", $P18 = "", $Q18 = "", $S18 = "", $T18 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
+    <cfRule type="expression" dxfId="14" priority="382">
+      <formula>AND($A18="end repeat", $B25 = "", $C18 = "", $E18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "", $O18 = "", $P18 = "", $Q18 = "", $S18 = "", $T18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B8">
-    <cfRule type="expression" dxfId="0" priority="331">
-      <formula>COUNTIF($B$2:$B$1091,B2)&gt;1</formula>
+    <cfRule type="expression" dxfId="13" priority="386">
+      <formula>COUNTIF($B$2:$B$1092,B2)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="12" priority="397">
+      <formula>AND($A25="end group", $B18 = "", $C25 = "", #REF! = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "", #REF! = "", $P25 = "", $Q25 = "", $S25 = "", $T25 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="11" priority="398">
+      <formula>AND($A25="end repeat", $B18 = "", $C25 = "", #REF! = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "", #REF! = "", $P25 = "", $Q25 = "", $S25 = "", $T25 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="expression" dxfId="10" priority="399">
+      <formula>AND($A25="end group", $B18 = "", $C25 = "", #REF! = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "", #REF! = "", $P25 = "", $Q25 = "", $S25 = "", $T25 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="expression" dxfId="9" priority="400">
+      <formula>AND($A25="end repeat", $B18 = "", $C25 = "", #REF! = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "", #REF! = "", $P25 = "", $Q25 = "", $S25 = "", $T25 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="expression" dxfId="8" priority="401">
+      <formula>AND($A25="end group", $B18 = "", $C25 = "", #REF! = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "", #REF! = "", $P25 = "", $Q25 = "", $S25 = "", $T25 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="expression" dxfId="7" priority="402">
+      <formula>AND($A25="end repeat", $B18 = "", $C25 = "", #REF! = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "", #REF! = "", $P25 = "", $Q25 = "", $S25 = "", $T25 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(D32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>AND($A32="begin group", NOT($B32 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="4" priority="3">
+      <formula>AND($A32="end group", $B32 = "", $C32 = "", $E32 = "", $F32 = "", $G32 = "", $H32 = "", $I32 = "", $K32 = "", $L32 = "", $M32 = "", $O32 = "", $P32 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>AND(AND(NOT($A32 = "end group"), NOT($A32 = "end repeat"), NOT($A32 = "")), $C32 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="1" priority="6">
+      <formula>AND($A32="begin repeat", NOT($B32 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>AND($A32="end repeat", $B32 = "", $C32 = "", $E32 = "", $F32 = "", $G32 = "", $H32 = "", $I32 = "", $K32 = "", $L32 = "", $M32 = "", $O32 = "", $P32 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31342,14 +31520,14 @@
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-31 23-14</v>
+        <v>2022-10-31 23-51</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>19</v>

--- a/forms/contact/house_hold-edit.xlsx
+++ b/forms/contact/house_hold-edit.xlsx
@@ -341,6 +341,9 @@
     <t>Does ${name} know their date of birth?</t>
   </si>
   <si>
+    <t>Are there other family members currently living in ${house_contact_name/name}'s homestead?</t>
+  </si>
+  <si>
     <t>num_hh_members</t>
   </si>
   <si>
@@ -357,9 +360,6 @@
   </si>
   <si>
     <t>selected(../register_house_member, 'yes')</t>
-  </si>
-  <si>
-    <t>Are there other family members currently living in ${/house_contact_name/name}'s homestead?</t>
   </si>
 </sst>
 </file>
@@ -2216,7 +2216,7 @@
         <v>101</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -2826,7 +2826,7 @@
         <v>37</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -2857,14 +2857,14 @@
         <v>7</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D20" s="40"/>
       <c r="E20" s="17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
@@ -2933,7 +2933,7 @@
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>73</v>
@@ -3045,7 +3045,7 @@
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
       <c r="O25" s="41" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
@@ -31527,7 +31527,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-31 23-51</v>
+        <v>2022-10-31 23-53</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>19</v>

--- a/forms/contact/house_hold-edit.xlsx
+++ b/forms/contact/house_hold-edit.xlsx
@@ -287,9 +287,6 @@
     <t>Edit House Hold</t>
   </si>
   <si>
-    <t>meta</t>
-  </si>
-  <si>
     <t>NO_LABEL</t>
   </si>
   <si>
@@ -338,10 +335,10 @@
     <t>Does ${name} know their date of birth</t>
   </si>
   <si>
-    <t>Does ${name} know their date of birth?</t>
+    <t>Are there other family members currently living in ${name}'s homestead?</t>
   </si>
   <si>
-    <t>Are there other family members currently living in ${house_contact_name/name}'s homestead?</t>
+    <t>Does ${name} know their date of birth?</t>
   </si>
   <si>
     <t>num_hh_members</t>
@@ -360,6 +357,9 @@
   </si>
   <si>
     <t>selected(../register_house_member, 'yes')</t>
+  </si>
+  <si>
+    <t>meta_final</t>
   </si>
 </sst>
 </file>
@@ -2151,10 +2151,10 @@
   <dimension ref="A1:Z1012"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2192,7 +2192,7 @@
         <v>72</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>44</v>
@@ -2201,22 +2201,22 @@
         <v>46</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>101</v>
-      </c>
       <c r="O1" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -2337,10 +2337,10 @@
         <v>55</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="39"/>
       <c r="E5" s="14"/>
@@ -2496,7 +2496,7 @@
     </row>
     <row r="10" spans="1:26" ht="13.2">
       <c r="A10" s="25" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>23</v>
@@ -2574,7 +2574,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>2</v>
@@ -2818,7 +2818,7 @@
       <c r="Y18" s="13"/>
       <c r="Z18" s="13"/>
     </row>
-    <row r="19" spans="1:26" s="12" customFormat="1" ht="26.4">
+    <row r="19" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A19" s="19" t="s">
         <v>80</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>37</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -2857,14 +2857,14 @@
         <v>7</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D20" s="40"/>
       <c r="E20" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
@@ -2933,7 +2933,7 @@
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>73</v>
@@ -3045,7 +3045,7 @@
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
       <c r="O25" s="41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
@@ -3061,7 +3061,7 @@
     </row>
     <row r="26" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A26" s="19" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>23</v>
@@ -3271,10 +3271,10 @@
         <v>49</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D32" s="42"/>
       <c r="E32" s="35"/>
@@ -3302,10 +3302,10 @@
     </row>
     <row r="33" spans="1:26" s="3" customFormat="1" ht="14.4">
       <c r="A33" s="36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C33" s="35"/>
       <c r="D33" s="34"/>
@@ -3315,7 +3315,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
       <c r="J33" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K33" s="1"/>
       <c r="N33" s="1"/>
@@ -3334,10 +3334,10 @@
     </row>
     <row r="34" spans="1:26" s="3" customFormat="1" ht="14.4">
       <c r="A34" s="36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C34" s="35"/>
       <c r="D34" s="34"/>
@@ -3347,7 +3347,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
       <c r="J34" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K34" s="1"/>
       <c r="N34" s="1"/>
@@ -3366,10 +3366,10 @@
     </row>
     <row r="35" spans="1:26" s="3" customFormat="1" ht="14.4">
       <c r="A35" s="36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C35" s="35"/>
       <c r="D35" s="34"/>
@@ -3379,7 +3379,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
       <c r="J35" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K35" s="1"/>
       <c r="N35" s="1"/>
@@ -31527,7 +31527,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-31 23-53</v>
+        <v>2022-11-01 11-28</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>19</v>

--- a/forms/contact/house_hold-edit.xlsx
+++ b/forms/contact/house_hold-edit.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="113">
   <si>
     <t xml:space="preserve">Name of Household Head </t>
   </si>
@@ -332,9 +332,6 @@
     <t>facility_id</t>
   </si>
   <si>
-    <t>Does ${name} know their date of birth</t>
-  </si>
-  <si>
     <t>Are there other family members currently living in ${name}'s homestead?</t>
   </si>
   <si>
@@ -359,7 +356,13 @@
     <t>selected(../register_house_member, 'yes')</t>
   </si>
   <si>
-    <t>meta_final</t>
+    <t>meta</t>
+  </si>
+  <si>
+    <t>hh_name</t>
+  </si>
+  <si>
+    <t>Does ${hh_name} know their date of birth</t>
   </si>
 </sst>
 </file>
@@ -2151,10 +2154,10 @@
   <dimension ref="A1:Z1012"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2216,7 +2219,7 @@
         <v>100</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -2499,7 +2502,7 @@
         <v>55</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>0</v>
@@ -2574,7 +2577,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>2</v>
@@ -2826,7 +2829,7 @@
         <v>37</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -2857,14 +2860,14 @@
         <v>7</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D20" s="40"/>
       <c r="E20" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
@@ -2933,7 +2936,7 @@
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>73</v>
@@ -3045,7 +3048,7 @@
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
       <c r="O25" s="41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
@@ -3134,7 +3137,7 @@
         <v>56</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
@@ -3271,7 +3274,7 @@
         <v>49</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>87</v>
@@ -31527,7 +31530,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-11-01 11-28</v>
+        <v>2022-11-01 12-04</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>19</v>

--- a/forms/contact/house_hold-edit.xlsx
+++ b/forms/contact/house_hold-edit.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="114">
   <si>
     <t xml:space="preserve">Name of Household Head </t>
   </si>
@@ -335,9 +335,6 @@
     <t>Are there other family members currently living in ${name}'s homestead?</t>
   </si>
   <si>
-    <t>Does ${name} know their date of birth?</t>
-  </si>
-  <si>
     <t>num_hh_members</t>
   </si>
   <si>
@@ -363,6 +360,12 @@
   </si>
   <si>
     <t>Does ${hh_name} know their date of birth</t>
+  </si>
+  <si>
+    <t>hm_name</t>
+  </si>
+  <si>
+    <t>Does ${hm_name} know their date of birth?</t>
   </si>
 </sst>
 </file>
@@ -2154,10 +2157,10 @@
   <dimension ref="A1:Z1012"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2219,7 +2222,7 @@
         <v>100</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -2502,7 +2505,7 @@
         <v>55</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>0</v>
@@ -2577,7 +2580,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>2</v>
@@ -2860,14 +2863,14 @@
         <v>7</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D20" s="40"/>
       <c r="E20" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
@@ -2936,7 +2939,7 @@
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>73</v>
@@ -3048,7 +3051,7 @@
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
       <c r="O25" s="41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
@@ -3067,7 +3070,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>71</v>
@@ -3137,7 +3140,7 @@
         <v>56</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
@@ -3274,7 +3277,7 @@
         <v>49</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>87</v>
@@ -31530,7 +31533,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-11-01 12-04</v>
+        <v>2022-11-01 12-08</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>19</v>

--- a/forms/contact/house_hold-edit.xlsx
+++ b/forms/contact/house_hold-edit.xlsx
@@ -2157,10 +2157,10 @@
   <dimension ref="A1:Z1012"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -31533,7 +31533,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-11-01 12-08</v>
+        <v>2022-11-01 12-33</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>19</v>

--- a/forms/contact/house_hold-edit.xlsx
+++ b/forms/contact/house_hold-edit.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Communty Testing Bodaboda_CHV Test Server_Server 3\community-testing-config-test\forms\contact\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Communty Testing Bodaboda_CHV Test Server_Server 3\Configs and Forms for Review\Household\Version 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33367,7 +33367,7 @@
       </c>
       <c r="C2" s="8">
         <f ca="1">NOW()</f>
-        <v>44866.993940046297</v>
+        <v>44868.532625347223</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>24</v>

--- a/forms/contact/house_hold-edit.xlsx
+++ b/forms/contact/house_hold-edit.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Communty Testing Bodaboda_CHV Test Server_Server 3\Configs and Forms for Review\Household\Version 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Communty Testing Bodaboda_CHV Test Server_Server 3\community-testing-config-test\forms\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7980" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -964,11 +964,11 @@
   </sheetPr>
   <dimension ref="A1:Z933"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -33326,9 +33326,9 @@
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -33367,7 +33367,7 @@
       </c>
       <c r="C2" s="8">
         <f ca="1">NOW()</f>
-        <v>44868.532625347223</v>
+        <v>44871.679012152781</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>24</v>
